--- a/MMB_Estimation/OUTPUT/IRFs/US_SW07_20074_RT_EW_MHforecast.xlsx
+++ b/MMB_Estimation/OUTPUT/IRFs/US_SW07_20074_RT_EW_MHforecast.xlsx
@@ -502,6502 +502,6502 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-4.8342417291393019E-2</v>
+        <v>-5.002709456494072E-2</v>
       </c>
       <c r="B2">
-        <v>-1.1375227126010769E-2</v>
+        <v>-1.6351044416545148E-2</v>
       </c>
       <c r="C2">
-        <v>0.32255312834701005</v>
+        <v>0.34572754983513515</v>
       </c>
       <c r="D2">
-        <v>2.4821667894904548E-2</v>
+        <v>2.3317988014050047E-2</v>
       </c>
       <c r="E2">
-        <v>4.7824758952701996E-3</v>
+        <v>5.365190285118354E-3</v>
       </c>
       <c r="F2">
-        <v>0.43435280427105472</v>
+        <v>0.41172276957264281</v>
       </c>
       <c r="G2">
-        <v>0.14033869899152135</v>
+        <v>0.15610452996298396</v>
       </c>
       <c r="H2">
-        <v>3.3152948406161183E-2</v>
+        <v>4.4937944891615574E-2</v>
       </c>
       <c r="I2">
-        <v>0.53851030235770159</v>
+        <v>0.48948069153269136</v>
       </c>
       <c r="J2">
-        <v>1.0238481490049467E-2</v>
+        <v>1.3738407572050569E-2</v>
       </c>
       <c r="K2">
-        <v>8.783836074057836E-3</v>
+        <v>1.3009866406492286E-2</v>
       </c>
       <c r="L2">
-        <v>0.15081262346393906</v>
+        <v>0.1759038431602242</v>
       </c>
       <c r="M2">
-        <v>4.8868479257523946E-2</v>
+        <v>5.2352645245724624E-2</v>
       </c>
       <c r="N2">
-        <v>0.24394017210001209</v>
+        <v>0.25055519626854678</v>
       </c>
       <c r="O2">
-        <v>-9.9622852403321971E-2</v>
+        <v>-0.11476850227939601</v>
       </c>
       <c r="P2">
-        <v>4.6933981559014036E-2</v>
+        <v>4.5650993365196686E-2</v>
       </c>
       <c r="Q2">
-        <v>0.15770211342682966</v>
+        <v>0.15158863416789409</v>
       </c>
       <c r="R2">
-        <v>-9.5238421044129148E-4</v>
+        <v>-2.0795138284536854E-2</v>
       </c>
       <c r="S2">
-        <v>0.15247889259361422</v>
+        <v>0.14731445726791978</v>
       </c>
       <c r="T2">
-        <v>-2.5988591656492175E-2</v>
+        <v>-3.3921616308285052E-2</v>
       </c>
       <c r="U2">
-        <v>-0.27125967326071909</v>
+        <v>-0.259607120972489</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-4.983009791306317E-2</v>
+        <v>-5.1860835070012754E-2</v>
       </c>
       <c r="B3">
-        <v>-1.0199233236141907E-2</v>
+        <v>-1.491475920046891E-2</v>
       </c>
       <c r="C3">
-        <v>7.0995168645476142E-2</v>
+        <v>7.7187633371077147E-2</v>
       </c>
       <c r="D3">
-        <v>2.5714993448933157E-2</v>
+        <v>2.4214873234756591E-2</v>
       </c>
       <c r="E3">
-        <v>4.8878751213993704E-3</v>
+        <v>5.5495669068439937E-3</v>
       </c>
       <c r="F3">
-        <v>-9.5373900227593289E-2</v>
+        <v>-8.845179314488294E-2</v>
       </c>
       <c r="G3">
-        <v>0.18658092089517256</v>
+        <v>0.20498424224353204</v>
       </c>
       <c r="H3">
-        <v>3.4143994808606477E-2</v>
+        <v>4.8639302115404348E-2</v>
       </c>
       <c r="I3">
-        <v>0.17225159585260072</v>
+        <v>0.15644225033617781</v>
       </c>
       <c r="J3">
-        <v>2.2734403130118638E-2</v>
+        <v>2.8890935164843045E-2</v>
       </c>
       <c r="K3">
-        <v>9.4246227768228583E-3</v>
+        <v>1.4488836170533308E-2</v>
       </c>
       <c r="L3">
-        <v>8.6080374590178352E-2</v>
+        <v>9.9159626557826008E-2</v>
       </c>
       <c r="M3">
-        <v>6.4977871308703555E-2</v>
+        <v>7.0412932336512843E-2</v>
       </c>
       <c r="N3">
-        <v>0.18181235168818957</v>
+        <v>0.19281024726042062</v>
       </c>
       <c r="O3">
-        <v>-0.1159807049605181</v>
+        <v>-0.12513517323501155</v>
       </c>
       <c r="P3">
-        <v>7.8388052491069851E-2</v>
+        <v>7.6653796694593088E-2</v>
       </c>
       <c r="Q3">
-        <v>0.17049093508927993</v>
+        <v>0.16849703587389006</v>
       </c>
       <c r="R3">
-        <v>-5.1488322972982531E-2</v>
+        <v>-6.384848682053107E-2</v>
       </c>
       <c r="S3">
-        <v>0.10986468938022323</v>
+        <v>0.10937529763325646</v>
       </c>
       <c r="T3">
-        <v>-2.7395417697354391E-2</v>
+        <v>-3.7096009401749536E-2</v>
       </c>
       <c r="U3">
-        <v>-0.11675806928710496</v>
+        <v>-0.11268851941462986</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-4.2284182131936757E-2</v>
+        <v>-4.3859041047694371E-2</v>
       </c>
       <c r="B4">
-        <v>-8.1760827577173553E-3</v>
+        <v>-1.1751460686055605E-2</v>
       </c>
       <c r="C4">
-        <v>3.1148524866399335E-2</v>
+        <v>3.4659553366288003E-2</v>
       </c>
       <c r="D4">
-        <v>2.1359641023667733E-2</v>
+        <v>1.998742688407475E-2</v>
       </c>
       <c r="E4">
-        <v>4.4631904659595484E-3</v>
+        <v>4.9765990181635036E-3</v>
       </c>
       <c r="F4">
-        <v>-6.0150234575187006E-2</v>
+        <v>-5.5525586869831327E-2</v>
       </c>
       <c r="G4">
-        <v>0.18826821167247379</v>
+        <v>0.20482992436180994</v>
       </c>
       <c r="H4">
-        <v>3.064476208885249E-2</v>
+        <v>4.4555960019507831E-2</v>
       </c>
       <c r="I4">
-        <v>9.4910370384878847E-4</v>
+        <v>3.9880909339717356E-3</v>
       </c>
       <c r="J4">
-        <v>3.2126597793648765E-2</v>
+        <v>3.9729779642237346E-2</v>
       </c>
       <c r="K4">
-        <v>9.0133161110884721E-3</v>
+        <v>1.4043023387171881E-2</v>
       </c>
       <c r="L4">
-        <v>4.7175324764002741E-2</v>
+        <v>5.4434303701794542E-2</v>
       </c>
       <c r="M4">
-        <v>6.3482389735227865E-2</v>
+        <v>6.7638500153455988E-2</v>
       </c>
       <c r="N4">
-        <v>0.11719491633623412</v>
+        <v>0.1217388331702414</v>
       </c>
       <c r="O4">
-        <v>-8.5109867467744613E-2</v>
+        <v>-9.1260308476058746E-2</v>
       </c>
       <c r="P4">
-        <v>9.841465853545979E-2</v>
+        <v>9.5057856693344489E-2</v>
       </c>
       <c r="Q4">
-        <v>0.166817677329125</v>
+        <v>0.16298877669198539</v>
       </c>
       <c r="R4">
-        <v>-6.8563205662696816E-2</v>
+        <v>-7.7111042887376205E-2</v>
       </c>
       <c r="S4">
-        <v>6.9825126898257789E-2</v>
+        <v>6.8141964757062565E-2</v>
       </c>
       <c r="T4">
-        <v>-2.5555930027699774E-2</v>
+        <v>-3.4848677904674212E-2</v>
       </c>
       <c r="U4">
-        <v>-3.0614357051768577E-2</v>
+        <v>-2.9305259872630041E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-3.4065563403410479E-2</v>
+        <v>-3.4959550724938122E-2</v>
       </c>
       <c r="B5">
-        <v>-6.4703169697678531E-3</v>
+        <v>-9.0488384728096231E-3</v>
       </c>
       <c r="C5">
-        <v>6.3421423998154597E-3</v>
+        <v>8.2043418785198354E-3</v>
       </c>
       <c r="D5">
-        <v>1.6993146185332528E-2</v>
+        <v>1.5666956369731606E-2</v>
       </c>
       <c r="E5">
-        <v>4.0150611588391626E-3</v>
+        <v>4.3595538965437814E-3</v>
       </c>
       <c r="F5">
-        <v>-3.8413018526349291E-2</v>
+        <v>-3.5172952027672642E-2</v>
       </c>
       <c r="G5">
-        <v>0.17087262125792818</v>
+        <v>0.18471449579845273</v>
       </c>
       <c r="H5">
-        <v>2.62606790757763E-2</v>
+        <v>3.8734528666306237E-2</v>
       </c>
       <c r="I5">
-        <v>-7.1498460792308538E-2</v>
+        <v>-5.9206961911759351E-2</v>
       </c>
       <c r="J5">
-        <v>3.7693089607761555E-2</v>
+        <v>4.5770739234577258E-2</v>
       </c>
       <c r="K5">
-        <v>8.3123680144443126E-3</v>
+        <v>1.3066434109763355E-2</v>
       </c>
       <c r="L5">
-        <v>2.0521389317306498E-2</v>
+        <v>2.5258869500794354E-2</v>
       </c>
       <c r="M5">
-        <v>5.4802487911018855E-2</v>
+        <v>5.6563480804078262E-2</v>
       </c>
       <c r="N5">
-        <v>7.1994962709800756E-2</v>
+        <v>7.0685120426770096E-2</v>
       </c>
       <c r="O5">
-        <v>-4.9793914563976006E-2</v>
+        <v>-5.2762390756834338E-2</v>
       </c>
       <c r="P5">
-        <v>0.11088629130840509</v>
+        <v>0.10491997899351853</v>
       </c>
       <c r="Q5">
-        <v>0.16073639384757757</v>
+        <v>0.15283406904155347</v>
       </c>
       <c r="R5">
-        <v>-7.1740007812453988E-2</v>
+        <v>-7.6746788937875385E-2</v>
       </c>
       <c r="S5">
-        <v>4.3779769995395935E-2</v>
+        <v>4.0484648703202578E-2</v>
       </c>
       <c r="T5">
-        <v>-2.3024489306526438E-2</v>
+        <v>-3.1310523292328328E-2</v>
       </c>
       <c r="U5">
-        <v>1.2679847886239611E-2</v>
+        <v>1.2635620919554889E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-2.7236734164536574E-2</v>
+        <v>-2.7544802996486872E-2</v>
       </c>
       <c r="B6">
-        <v>-5.1353725090386533E-3</v>
+        <v>-6.9938683713935213E-3</v>
       </c>
       <c r="C6">
-        <v>-8.2202835967468448E-3</v>
+        <v>-7.3120727977184097E-3</v>
       </c>
       <c r="D6">
-        <v>1.3710419981710877E-2</v>
+        <v>1.2393007005609772E-2</v>
       </c>
       <c r="E6">
-        <v>3.6232432988502145E-3</v>
+        <v>3.8297583563380064E-3</v>
       </c>
       <c r="F6">
-        <v>-2.5347174637417629E-2</v>
+        <v>-2.2921955479961866E-2</v>
       </c>
       <c r="G6">
-        <v>0.14703901432415797</v>
+        <v>0.15851856665096486</v>
       </c>
       <c r="H6">
-        <v>2.1838266471185499E-2</v>
+        <v>3.2763198208134899E-2</v>
       </c>
       <c r="I6">
-        <v>-9.4966336191045261E-2</v>
+        <v>-7.9361295829226589E-2</v>
       </c>
       <c r="J6">
-        <v>4.0042353449967573E-2</v>
+        <v>4.7957373091633428E-2</v>
       </c>
       <c r="K6">
-        <v>7.4524445043722565E-3</v>
+        <v>1.1840819242693239E-2</v>
       </c>
       <c r="L6">
-        <v>2.6519308815696444E-3</v>
+        <v>6.396153581846851E-3</v>
       </c>
       <c r="M6">
-        <v>4.4219234412001297E-2</v>
+        <v>4.3799803608093213E-2</v>
       </c>
       <c r="N6">
-        <v>4.2103920622816877E-2</v>
+        <v>3.7535565867442139E-2</v>
       </c>
       <c r="O6">
-        <v>-2.0227617865124663E-2</v>
+        <v>-2.0920168599715024E-2</v>
       </c>
       <c r="P6">
-        <v>0.11835102400208077</v>
+        <v>0.1092426245005106</v>
       </c>
       <c r="Q6">
-        <v>0.15420464242324272</v>
+        <v>0.14176990364327938</v>
       </c>
       <c r="R6">
-        <v>-6.8149644833371478E-2</v>
+        <v>-6.9877933465108288E-2</v>
       </c>
       <c r="S6">
-        <v>2.73653173722554E-2</v>
+        <v>2.336517238017664E-2</v>
       </c>
       <c r="T6">
-        <v>-2.0315723487185147E-2</v>
+        <v>-2.7478815750111442E-2</v>
       </c>
       <c r="U6">
-        <v>3.2478373689197877E-2</v>
+        <v>3.1525474253443916E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-2.1960399634495982E-2</v>
+        <v>-2.1877499667297857E-2</v>
       </c>
       <c r="B7">
-        <v>-4.1090831135956463E-3</v>
+        <v>-5.4780048016772618E-3</v>
       </c>
       <c r="C7">
-        <v>-1.6356372477901719E-2</v>
+        <v>-1.594520944627251E-2</v>
       </c>
       <c r="D7">
-        <v>1.1447996984717126E-2</v>
+        <v>1.0147462071623231E-2</v>
       </c>
       <c r="E7">
-        <v>3.2994020274466442E-3</v>
+        <v>3.4033066479546006E-3</v>
       </c>
       <c r="F7">
-        <v>-1.7531349890816346E-2</v>
+        <v>-1.560555617177108E-2</v>
       </c>
       <c r="G7">
-        <v>0.12274308523358318</v>
+        <v>0.13247820517821865</v>
       </c>
       <c r="H7">
-        <v>1.7729980735418521E-2</v>
+        <v>2.7212843566134945E-2</v>
       </c>
       <c r="I7">
-        <v>-9.5367302748964752E-2</v>
+        <v>-7.9806327002061903E-2</v>
       </c>
       <c r="J7">
-        <v>4.0007747194894909E-2</v>
+        <v>4.7394078211267315E-2</v>
       </c>
       <c r="K7">
-        <v>6.4999395542849987E-3</v>
+        <v>1.0479507604870351E-2</v>
       </c>
       <c r="L7">
-        <v>-9.0257476966178838E-3</v>
+        <v>-5.6820095600086653E-3</v>
       </c>
       <c r="M7">
-        <v>3.4123404605367037E-2</v>
+        <v>3.219138084148733E-2</v>
       </c>
       <c r="N7">
-        <v>2.2748171314070555E-2</v>
+        <v>1.6873353871873761E-2</v>
       </c>
       <c r="O7">
-        <v>1.5141204400369096E-3</v>
+        <v>2.0707478151209507E-3</v>
       </c>
       <c r="P7">
-        <v>0.12244613271768509</v>
+        <v>0.1100199671502646</v>
       </c>
       <c r="Q7">
-        <v>0.14772052717542905</v>
+        <v>0.13093008236893069</v>
       </c>
       <c r="R7">
-        <v>-6.1388507805350732E-2</v>
+        <v>-6.0239395801483214E-2</v>
       </c>
       <c r="S7">
-        <v>1.6915694448812395E-2</v>
+        <v>1.2940672023025809E-2</v>
       </c>
       <c r="T7">
-        <v>-1.7644810857135634E-2</v>
+        <v>-2.3728966849603138E-2</v>
       </c>
       <c r="U7">
-        <v>3.9857963525028448E-2</v>
+        <v>3.8283034476300305E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-1.7943644890539234E-2</v>
+        <v>-1.7656966810786011E-2</v>
       </c>
       <c r="B8">
-        <v>-3.3259323939812679E-3</v>
+        <v>-4.3709928913437295E-3</v>
       </c>
       <c r="C8">
-        <v>-2.0611066093262281E-2</v>
+        <v>-2.0415791491901161E-2</v>
       </c>
       <c r="D8">
-        <v>9.9221603689424818E-3</v>
+        <v>8.6622599255945509E-3</v>
       </c>
       <c r="E8">
-        <v>3.0385892079085905E-3</v>
+        <v>3.068851953991444E-3</v>
       </c>
       <c r="F8">
-        <v>-1.2804720610082001E-2</v>
+        <v>-1.1212166665051374E-2</v>
       </c>
       <c r="G8">
-        <v>0.10055920446636983</v>
+        <v>0.10908642295174516</v>
       </c>
       <c r="H8">
-        <v>1.4096625686372821E-2</v>
+        <v>2.2301478424265671E-2</v>
       </c>
       <c r="I8">
-        <v>-8.59631420341746E-2</v>
+        <v>-7.2134846926166216E-2</v>
       </c>
       <c r="J8">
-        <v>3.8326698213044179E-2</v>
+        <v>4.5001547577272115E-2</v>
       </c>
       <c r="K8">
-        <v>5.5081207058142213E-3</v>
+        <v>9.0588930980290104E-3</v>
       </c>
       <c r="L8">
-        <v>-1.6363720495863536E-2</v>
+        <v>-1.3282470976227896E-2</v>
       </c>
       <c r="M8">
-        <v>2.5441271834514265E-2</v>
+        <v>2.26736592003224E-2</v>
       </c>
       <c r="N8">
-        <v>1.0474341948594102E-2</v>
+        <v>4.4163014888529114E-3</v>
       </c>
       <c r="O8">
-        <v>1.6061741379509539E-2</v>
+        <v>1.7136274651824209E-2</v>
       </c>
       <c r="P8">
-        <v>0.12424479919207027</v>
+        <v>0.10855868414958852</v>
       </c>
       <c r="Q8">
-        <v>0.14149990313510419</v>
+        <v>0.12076217893433068</v>
       </c>
       <c r="R8">
-        <v>-5.341181690112709E-2</v>
+        <v>-4.9852017281986433E-2</v>
       </c>
       <c r="S8">
-        <v>1.0180129569742199E-2</v>
+        <v>6.6205663818123496E-3</v>
       </c>
       <c r="T8">
-        <v>-1.513045915175756E-2</v>
+        <v>-2.0237817203566776E-2</v>
       </c>
       <c r="U8">
-        <v>4.0868991254313536E-2</v>
+        <v>3.8916041852429396E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-1.4865682525651101E-2</v>
+        <v>-1.4518464061387957E-2</v>
       </c>
       <c r="B9">
-        <v>-2.7308192038353451E-3</v>
+        <v>-3.5654266059983539E-3</v>
       </c>
       <c r="C9">
-        <v>-2.2563345856899911E-2</v>
+        <v>-2.2426223201305013E-2</v>
       </c>
       <c r="D9">
-        <v>8.8828295983876607E-3</v>
+        <v>7.684903670830137E-3</v>
       </c>
       <c r="E9">
-        <v>2.8312513317555899E-3</v>
+        <v>2.8093537973835859E-3</v>
       </c>
       <c r="F9">
-        <v>-9.8760825432779795E-3</v>
+        <v>-8.5292349769885076E-3</v>
       </c>
       <c r="G9">
-        <v>8.137412786317344E-2</v>
+        <v>8.9069071979387682E-2</v>
       </c>
       <c r="H9">
-        <v>1.099067910017193E-2</v>
+        <v>1.8084963837628639E-2</v>
       </c>
       <c r="I9">
-        <v>-7.3349534001511132E-2</v>
+        <v>-6.1935125179950166E-2</v>
       </c>
       <c r="J9">
-        <v>3.5577087373478866E-2</v>
+        <v>4.1469375536803035E-2</v>
       </c>
       <c r="K9">
-        <v>4.5197268540350171E-3</v>
+        <v>7.6371500937069074E-3</v>
       </c>
       <c r="L9">
-        <v>-2.0666470008644949E-2</v>
+        <v>-1.790103640041403E-2</v>
       </c>
       <c r="M9">
-        <v>1.8396134541891904E-2</v>
+        <v>1.5323077177948875E-2</v>
       </c>
       <c r="N9">
-        <v>2.9152461300185032E-3</v>
+        <v>-2.769230887933708E-3</v>
       </c>
       <c r="O9">
-        <v>2.4863711763154432E-2</v>
+        <v>2.6045867827603049E-2</v>
       </c>
       <c r="P9">
-        <v>0.12446835125912344</v>
+        <v>0.10572040498787062</v>
       </c>
       <c r="Q9">
-        <v>0.13564677632510447</v>
+        <v>0.11144808731877991</v>
       </c>
       <c r="R9">
-        <v>-4.5278676995420965E-2</v>
+        <v>-3.9783913469065249E-2</v>
       </c>
       <c r="S9">
-        <v>5.8127557169836601E-3</v>
+        <v>2.8248611923381425E-3</v>
       </c>
       <c r="T9">
-        <v>-1.2835549239585365E-2</v>
+        <v>-1.7086794866236567E-2</v>
       </c>
       <c r="U9">
-        <v>3.8775962742545793E-2</v>
+        <v>3.6642325884781932E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-1.2475766611217151E-2</v>
+        <v>-1.2164287774338922E-2</v>
       </c>
       <c r="B10">
-        <v>-2.2798221095283733E-3</v>
+        <v>-2.9797835512744169E-3</v>
       </c>
       <c r="C10">
-        <v>-2.3160887729668116E-2</v>
+        <v>-2.3005438815529352E-2</v>
       </c>
       <c r="D10">
-        <v>8.1558095062311455E-3</v>
+        <v>7.0325203771345636E-3</v>
       </c>
       <c r="E10">
-        <v>2.6673623683206027E-3</v>
+        <v>2.6085335584229165E-3</v>
       </c>
       <c r="F10">
-        <v>-7.9956281394254116E-3</v>
+        <v>-6.8456666180925331E-3</v>
       </c>
       <c r="G10">
-        <v>6.5275561420762462E-2</v>
+        <v>7.2368156898274985E-2</v>
       </c>
       <c r="H10">
-        <v>8.4017205821639851E-3</v>
+        <v>1.4538032918375281E-2</v>
       </c>
       <c r="I10">
-        <v>-6.0642887569179821E-2</v>
+        <v>-5.1754810450716858E-2</v>
       </c>
       <c r="J10">
-        <v>3.2189868703242412E-2</v>
+        <v>3.7291280459540735E-2</v>
       </c>
       <c r="K10">
-        <v>3.5670082266373395E-3</v>
+        <v>6.2577401093456726E-3</v>
       </c>
       <c r="L10">
-        <v>-2.2854201228080986E-2</v>
+        <v>-2.051327413607705E-2</v>
       </c>
       <c r="M10">
-        <v>1.2897868274535393E-2</v>
+        <v>9.8809674414449995E-3</v>
       </c>
       <c r="N10">
-        <v>-1.5357246154245052E-3</v>
+        <v>-6.6170169970453776E-3</v>
       </c>
       <c r="O10">
-        <v>2.9429343494872126E-2</v>
+        <v>3.053895142074026E-2</v>
       </c>
       <c r="P10">
-        <v>0.1236127853316787</v>
+        <v>0.10207804533927933</v>
       </c>
       <c r="Q10">
-        <v>0.13020230200513896</v>
+        <v>0.10303838703571153</v>
       </c>
       <c r="R10">
-        <v>-3.7541023136216774E-2</v>
+        <v>-3.0561778382695668E-2</v>
       </c>
       <c r="S10">
-        <v>2.9935814318676635E-3</v>
+        <v>6.0309466929931203E-4</v>
       </c>
       <c r="T10">
-        <v>-1.0786575634006004E-2</v>
+        <v>-1.4302861590244187E-2</v>
       </c>
       <c r="U10">
-        <v>3.532361441868196E-2</v>
+        <v>3.3156529865191582E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1.0595501048206982E-2</v>
+        <v>-1.0377730397614623E-2</v>
       </c>
       <c r="B11">
-        <v>-1.9387113694548004E-3</v>
+        <v>-2.5538971510402054E-3</v>
       </c>
       <c r="C11">
-        <v>-2.2964902787806631E-2</v>
+        <v>-2.276467331826184E-2</v>
       </c>
       <c r="D11">
-        <v>7.6299300418263515E-3</v>
+        <v>6.5851853996593311E-3</v>
       </c>
       <c r="E11">
-        <v>2.5379434011430996E-3</v>
+        <v>2.4527030067611612E-3</v>
       </c>
       <c r="F11">
-        <v>-6.7338649044203069E-3</v>
+        <v>-5.7501159451474569E-3</v>
       </c>
       <c r="G11">
-        <v>5.2005327807898523E-2</v>
+        <v>5.8619761599598912E-2</v>
       </c>
       <c r="H11">
-        <v>6.2857642519835904E-3</v>
+        <v>1.1596954894582774E-2</v>
       </c>
       <c r="I11">
-        <v>-4.9174065310460847E-2</v>
+        <v>-4.2630371141918727E-2</v>
       </c>
       <c r="J11">
-        <v>2.8478212041084607E-2</v>
+        <v>3.2812915458527478E-2</v>
       </c>
       <c r="K11">
-        <v>2.6726651852105755E-3</v>
+        <v>4.9514725755831065E-3</v>
       </c>
       <c r="L11">
-        <v>-2.3580869118110179E-2</v>
+        <v>-2.1764600844036554E-2</v>
       </c>
       <c r="M11">
-        <v>8.7365111046691212E-3</v>
+        <v>5.996058092830628E-3</v>
       </c>
       <c r="N11">
-        <v>-3.9641893770396468E-3</v>
+        <v>-8.3849887642837521E-3</v>
       </c>
       <c r="O11">
-        <v>3.1050411902336008E-2</v>
+        <v>3.2041873429538015E-2</v>
       </c>
       <c r="P11">
-        <v>0.12202547417474466</v>
+        <v>9.8014258815566108E-2</v>
       </c>
       <c r="Q11">
-        <v>0.12517034044717901</v>
+        <v>9.5513035244666658E-2</v>
       </c>
       <c r="R11">
-        <v>-3.0462470261545069E-2</v>
+        <v>-2.2405142015382219E-2</v>
       </c>
       <c r="S11">
-        <v>1.2082690614499219E-3</v>
+        <v>-6.2382464470429866E-4</v>
       </c>
       <c r="T11">
-        <v>-8.986835341823509E-3</v>
+        <v>-1.1881120939263867E-2</v>
       </c>
       <c r="U11">
-        <v>3.1429654070362238E-2</v>
+        <v>2.9332043276357161E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-9.1006517904477346E-3</v>
+        <v>-9.0068601756466086E-3</v>
       </c>
       <c r="B12">
-        <v>-1.6811117213591581E-3</v>
+        <v>-2.2438433128357774E-3</v>
       </c>
       <c r="C12">
-        <v>-2.2307423728357288E-2</v>
+        <v>-2.2064406393409137E-2</v>
       </c>
       <c r="D12">
-        <v>7.2366441854678654E-3</v>
+        <v>6.2677353416887814E-3</v>
       </c>
       <c r="E12">
-        <v>2.4354941788670148E-3</v>
+        <v>2.3309822251533154E-3</v>
       </c>
       <c r="F12">
-        <v>-5.8456342067322187E-3</v>
+        <v>-5.0057189183556668E-3</v>
       </c>
       <c r="G12">
-        <v>4.1184382277426428E-2</v>
+        <v>4.7377644498758961E-2</v>
       </c>
       <c r="H12">
-        <v>4.5839392868079103E-3</v>
+        <v>9.1834551713626447E-3</v>
       </c>
       <c r="I12">
-        <v>-3.9383429132724669E-2</v>
+        <v>-3.4871478839726036E-2</v>
       </c>
       <c r="J12">
-        <v>2.4665323947828968E-2</v>
+        <v>2.8272623057855866E-2</v>
       </c>
       <c r="K12">
-        <v>1.851323718956879E-3</v>
+        <v>3.7386595790863219E-3</v>
       </c>
       <c r="L12">
-        <v>-2.3314864049674137E-2</v>
+        <v>-2.2089931492186746E-2</v>
       </c>
       <c r="M12">
-        <v>5.6746853957928434E-3</v>
+        <v>3.3273092821421799E-3</v>
       </c>
       <c r="N12">
-        <v>-5.1002515466607541E-3</v>
+        <v>-8.8861675689706539E-3</v>
       </c>
       <c r="O12">
-        <v>3.0733818385580949E-2</v>
+        <v>3.1626620545736228E-2</v>
       </c>
       <c r="P12">
-        <v>0.11995294986156993</v>
+        <v>9.3784098828380083E-2</v>
       </c>
       <c r="Q12">
-        <v>0.12053338662239055</v>
+        <v>8.8814711347654771E-2</v>
       </c>
       <c r="R12">
-        <v>-2.4143993393191017E-2</v>
+        <v>-1.536226061640222E-2</v>
       </c>
       <c r="S12">
-        <v>1.2396633925806612E-4</v>
+        <v>-1.2165730035123572E-3</v>
       </c>
       <c r="T12">
-        <v>-7.4256480369684907E-3</v>
+        <v>-9.7988939883447892E-3</v>
       </c>
       <c r="U12">
-        <v>2.7562260451475234E-2</v>
+        <v>2.5601798274185326E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-7.9036878418969649E-3</v>
+        <v>-7.9455368885406972E-3</v>
       </c>
       <c r="B13">
-        <v>-1.4868130230400579E-3</v>
+        <v>-2.0176794356993144E-3</v>
       </c>
       <c r="C13">
-        <v>-2.1386442196802063E-2</v>
+        <v>-2.1116994770167034E-2</v>
       </c>
       <c r="D13">
-        <v>6.9339114779019238E-3</v>
+        <v>6.0339280044221285E-3</v>
       </c>
       <c r="E13">
-        <v>2.3539694011056721E-3</v>
+        <v>2.2349699521769205E-3</v>
       </c>
       <c r="F13">
-        <v>-5.1903001208622084E-3</v>
+        <v>-4.4757475769453279E-3</v>
       </c>
       <c r="G13">
-        <v>3.2419507021146141E-2</v>
+        <v>3.8210880645358609E-2</v>
       </c>
       <c r="H13">
-        <v>3.2338001164713228E-3</v>
+        <v>7.2179191774794354E-3</v>
       </c>
       <c r="I13">
-        <v>-3.128911824265572E-2</v>
+        <v>-2.8458597685226149E-2</v>
       </c>
       <c r="J13">
-        <v>2.0906916271987177E-2</v>
+        <v>2.3832020537540959E-2</v>
       </c>
       <c r="K13">
-        <v>1.111134891857552E-3</v>
+        <v>2.6312558317682509E-3</v>
       </c>
       <c r="L13">
-        <v>-2.2393461424412189E-2</v>
+        <v>-2.1787967507102039E-2</v>
       </c>
       <c r="M13">
-        <v>3.4886751379904122E-3</v>
+        <v>1.5809370605032124E-3</v>
       </c>
       <c r="N13">
-        <v>-5.4318270168124648E-3</v>
+        <v>-8.6430096218903987E-3</v>
       </c>
       <c r="O13">
-        <v>2.9220672906910931E-2</v>
+        <v>3.0056970861656214E-2</v>
       </c>
       <c r="P13">
-        <v>0.11757158400341122</v>
+        <v>8.9555740850709067E-2</v>
       </c>
       <c r="Q13">
-        <v>0.11626270133668143</v>
+        <v>8.2868531839647916E-2</v>
       </c>
       <c r="R13">
-        <v>-1.8596681779858626E-2</v>
+        <v>-9.389495722987997E-3</v>
       </c>
       <c r="S13">
-        <v>-4.8125676110984578E-4</v>
+        <v>-1.4052598838493629E-3</v>
       </c>
       <c r="T13">
-        <v>-6.0846332394572499E-3</v>
+        <v>-8.0246588649354796E-3</v>
       </c>
       <c r="U13">
-        <v>2.394612279047121E-2</v>
+        <v>2.2163916532718379E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-6.9412173964163255E-3</v>
+        <v>-7.1185564046133262E-3</v>
       </c>
       <c r="B14">
-        <v>-1.3403637912735146E-3</v>
+        <v>-1.8521865047412182E-3</v>
       </c>
       <c r="C14">
-        <v>-2.0321709531178272E-2</v>
+        <v>-2.0047827841270897E-2</v>
       </c>
       <c r="D14">
-        <v>6.6955465992735901E-3</v>
+        <v>5.8553543109276683E-3</v>
       </c>
       <c r="E14">
-        <v>2.2885884768368402E-3</v>
+        <v>2.158278051027944E-3</v>
       </c>
       <c r="F14">
-        <v>-4.6861247672273327E-3</v>
+        <v>-4.0805935145565766E-3</v>
       </c>
       <c r="G14">
-        <v>2.5349634644464478E-2</v>
+        <v>3.0740678519666522E-2</v>
       </c>
       <c r="H14">
-        <v>2.1756980568443168E-3</v>
+        <v>5.6262022988234871E-3</v>
       </c>
       <c r="I14">
-        <v>-2.472799883373384E-2</v>
+        <v>-2.324045244463013E-2</v>
       </c>
       <c r="J14">
-        <v>1.7308414689779086E-2</v>
+        <v>1.959793939814998E-2</v>
       </c>
       <c r="K14">
-        <v>4.5527500708027652E-4</v>
+        <v>1.6347978718676975E-3</v>
       </c>
       <c r="L14">
-        <v>-2.1059866873176056E-2</v>
+        <v>-2.1067400002129741E-2</v>
       </c>
       <c r="M14">
-        <v>1.9840567157269774E-3</v>
+        <v>5.1818795017738288E-4</v>
       </c>
       <c r="N14">
-        <v>-5.2821953256913402E-3</v>
+        <v>-7.9886453479967902E-3</v>
       </c>
       <c r="O14">
-        <v>2.7033978452420067E-2</v>
+        <v>2.7856199232446397E-2</v>
       </c>
       <c r="P14">
-        <v>0.11500790238785125</v>
+        <v>8.5437554014319503E-2</v>
       </c>
       <c r="Q14">
-        <v>0.11232465650199891</v>
+        <v>7.7593829551102111E-2</v>
       </c>
       <c r="R14">
-        <v>-1.3783985393776196E-2</v>
+        <v>-4.3976667085719292E-3</v>
       </c>
       <c r="S14">
-        <v>-7.5928395542678036E-4</v>
+        <v>-1.3399834298589638E-3</v>
       </c>
       <c r="T14">
-        <v>-4.9418419978389683E-3</v>
+        <v>-6.5236288104594687E-3</v>
       </c>
       <c r="U14">
-        <v>2.0675171177990035E-2</v>
+        <v>1.909285951288894E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-6.165806415876076E-3</v>
+        <v>-6.4714113746345446E-3</v>
       </c>
       <c r="B15">
-        <v>-1.2299551813410273E-3</v>
+        <v>-1.730464145671825E-3</v>
       </c>
       <c r="C15">
-        <v>-1.9186983527302217E-2</v>
+        <v>-1.8931191894397178E-2</v>
       </c>
       <c r="D15">
-        <v>6.5047093965493342E-3</v>
+        <v>5.7143534403683053E-3</v>
       </c>
       <c r="E15">
-        <v>2.2356079014393096E-3</v>
+        <v>2.0960866642659383E-3</v>
       </c>
       <c r="F15">
-        <v>-4.2845733449842155E-3</v>
+        <v>-3.7732279127150026E-3</v>
       </c>
       <c r="G15">
-        <v>1.9662177449093637E-2</v>
+        <v>2.4649044186179372E-2</v>
       </c>
       <c r="H15">
-        <v>1.3559757449170509E-3</v>
+        <v>4.3426555880689763E-3</v>
       </c>
       <c r="I15">
-        <v>-1.9476211383134063E-2</v>
+        <v>-1.9028697954002888E-2</v>
       </c>
       <c r="J15">
-        <v>1.3937938122391339E-2</v>
+        <v>1.5637974984955939E-2</v>
       </c>
       <c r="K15">
-        <v>-1.1675058129248826E-4</v>
+        <v>7.5005479911516607E-4</v>
       </c>
       <c r="L15">
-        <v>-1.9488883396487671E-2</v>
+        <v>-2.0076010232184929E-2</v>
       </c>
       <c r="M15">
-        <v>9.992010891441477E-4</v>
+        <v>-4.8699841315942296E-5</v>
       </c>
       <c r="N15">
-        <v>-4.863059426416929E-3</v>
+        <v>-7.1329758822981362E-3</v>
       </c>
       <c r="O15">
-        <v>2.4529616455772538E-2</v>
+        <v>2.5370724296146098E-2</v>
       </c>
       <c r="P15">
-        <v>0.11235243644377794</v>
+        <v>8.1496479938298311E-2</v>
       </c>
       <c r="Q15">
-        <v>0.10868459517660607</v>
+        <v>7.2911024207165734E-2</v>
       </c>
       <c r="R15">
-        <v>-9.6462013069450892E-3</v>
+        <v>-2.7887960501770022E-4</v>
       </c>
       <c r="S15">
-        <v>-8.1624248314118549E-4</v>
+        <v>-1.1204090838266127E-3</v>
       </c>
       <c r="T15">
-        <v>-3.9743738490192991E-3</v>
+        <v>-5.2611030394212818E-3</v>
       </c>
       <c r="U15">
-        <v>1.7774364738374585E-2</v>
+        <v>1.6399589300796626E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-5.5408516082594067E-3</v>
+        <v>-5.9635913087485266E-3</v>
       </c>
       <c r="B16">
-        <v>-1.1465579350315386E-3</v>
+        <v>-1.6401844224550345E-3</v>
       </c>
       <c r="C16">
-        <v>-1.8028582202951351E-2</v>
+        <v>-1.7811167741400208E-2</v>
       </c>
       <c r="D16">
-        <v>6.3500823158034857E-3</v>
+        <v>5.5996924411299137E-3</v>
       </c>
       <c r="E16">
-        <v>2.1921092372136661E-3</v>
+        <v>2.044770545014972E-3</v>
       </c>
       <c r="F16">
-        <v>-3.9559524862200924E-3</v>
+        <v>-3.5252976387562915E-3</v>
       </c>
       <c r="G16">
-        <v>1.5095122709646068E-2</v>
+        <v>1.9675401154958833E-2</v>
       </c>
       <c r="H16">
-        <v>7.2820710361940855E-4</v>
+        <v>3.3109874161190225E-3</v>
       </c>
       <c r="I16">
-        <v>-1.5306563573458418E-2</v>
+        <v>-1.5640457254047391E-2</v>
       </c>
       <c r="J16">
-        <v>1.0836076216700956E-2</v>
+        <v>1.1991546742809113E-2</v>
       </c>
       <c r="K16">
-        <v>-6.0802770726069307E-4</v>
+        <v>-2.562378151497085E-5</v>
       </c>
       <c r="L16">
-        <v>-1.7805080545147265E-2</v>
+        <v>-1.891937411587544E-2</v>
       </c>
       <c r="M16">
-        <v>4.0339311819762952E-4</v>
+        <v>-2.6437325870444766E-4</v>
       </c>
       <c r="N16">
-        <v>-4.3108267671749618E-3</v>
+        <v>-6.2058280561960661E-3</v>
       </c>
       <c r="O16">
-        <v>2.1940900095855271E-2</v>
+        <v>2.2821786963146108E-2</v>
       </c>
       <c r="P16">
-        <v>0.10966942015686494</v>
+        <v>7.7770733695585348E-2</v>
       </c>
       <c r="Q16">
-        <v>0.10530907525135799</v>
+        <v>6.8745409254373904E-2</v>
       </c>
       <c r="R16">
-        <v>-6.1145387177893246E-3</v>
+        <v>3.0782713415070362E-3</v>
       </c>
       <c r="S16">
-        <v>-7.2738213705561246E-4</v>
+        <v>-8.1349994905692135E-4</v>
       </c>
       <c r="T16">
-        <v>-3.1599546552162042E-3</v>
+        <v>-4.2043586832500876E-3</v>
       </c>
       <c r="U16">
-        <v>1.5233557646834903E-2</v>
+        <v>1.4064099249663654E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-5.0373877901681817E-3</v>
+        <v>-5.5642757759304801E-3</v>
       </c>
       <c r="B17">
-        <v>-1.0832639923201407E-3</v>
+        <v>-1.5723337343128759E-3</v>
       </c>
       <c r="C17">
-        <v>-1.6876098809366011E-2</v>
+        <v>-1.6713810706731655E-2</v>
       </c>
       <c r="D17">
-        <v>6.2236709479564188E-3</v>
+        <v>5.5039971590534528E-3</v>
       </c>
       <c r="E17">
-        <v>2.1558202453608425E-3</v>
+        <v>2.0016036761461961E-3</v>
       </c>
       <c r="F17">
-        <v>-3.6814000404577496E-3</v>
+        <v>-3.3192596572082056E-3</v>
       </c>
       <c r="G17">
-        <v>1.1432938535695936E-2</v>
+        <v>1.5608886566631293E-2</v>
       </c>
       <c r="H17">
-        <v>2.5330005251490554E-4</v>
+        <v>2.4839596089554646E-3</v>
       </c>
       <c r="I17">
-        <v>-1.2013329447494898E-2</v>
+        <v>-1.291499836294726E-2</v>
       </c>
       <c r="J17">
-        <v>8.0232776870021727E-3</v>
+        <v>8.6778479807929788E-3</v>
       </c>
       <c r="K17">
-        <v>-1.0233701235295928E-3</v>
+        <v>-6.9723918217477364E-4</v>
       </c>
       <c r="L17">
-        <v>-1.6095920368388767E-2</v>
+        <v>-1.7673190387920638E-2</v>
       </c>
       <c r="M17">
-        <v>9.2905479051386131E-5</v>
+        <v>-2.38653295171245E-4</v>
       </c>
       <c r="N17">
-        <v>-3.7113864492920373E-3</v>
+        <v>-5.2851699303395278E-3</v>
       </c>
       <c r="O17">
-        <v>1.941408484275696E-2</v>
+        <v>2.034448568023689E-2</v>
       </c>
       <c r="P17">
-        <v>0.10700373260338771</v>
+        <v>7.4278704173563775E-2</v>
       </c>
       <c r="Q17">
-        <v>0.10216707689969479</v>
+        <v>6.5029012352788351E-2</v>
       </c>
       <c r="R17">
-        <v>-3.1190338345941527E-3</v>
+        <v>5.7804458428358076E-3</v>
       </c>
       <c r="S17">
-        <v>-5.4650319905965217E-4</v>
+        <v>-4.6445250326051482E-4</v>
       </c>
       <c r="T17">
-        <v>-2.477820165304746E-3</v>
+        <v>-3.3236068599913318E-3</v>
       </c>
       <c r="U17">
-        <v>1.3025997944091804E-2</v>
+        <v>1.2052892813859139E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-4.6320684707961378E-3</v>
+        <v>-5.2495577164875708E-3</v>
       </c>
       <c r="B18">
-        <v>-1.0347873598013492E-3</v>
+        <v>-1.5203089163495229E-3</v>
       </c>
       <c r="C18">
-        <v>-1.5748657378355187E-2</v>
+        <v>-1.5654287952803016E-2</v>
       </c>
       <c r="D18">
-        <v>6.1195475247983371E-3</v>
+        <v>5.4222432034569156E-3</v>
       </c>
       <c r="E18">
-        <v>2.1249712009808494E-3</v>
+        <v>1.9645332570841028E-3</v>
       </c>
       <c r="F18">
-        <v>-3.4484056256995355E-3</v>
+        <v>-3.1439189249841981E-3</v>
       </c>
       <c r="G18">
-        <v>8.5002886889757757E-3</v>
+        <v>1.2279849032279489E-2</v>
       </c>
       <c r="H18">
-        <v>-1.0101073352820745E-4</v>
+        <v>1.8225195785637009E-3</v>
       </c>
       <c r="I18">
-        <v>-9.4206813302795366E-3</v>
+        <v>-1.071806141545358E-2</v>
       </c>
       <c r="J18">
-        <v>5.5054506402479764E-3</v>
+        <v>5.701630653605798E-3</v>
       </c>
       <c r="K18">
-        <v>-1.3686490909029698E-3</v>
+        <v>-1.2713159706958096E-3</v>
       </c>
       <c r="L18">
-        <v>-1.4421401450432001E-2</v>
+        <v>-1.6391628918061441E-2</v>
       </c>
       <c r="M18">
-        <v>-1.3384767594431462E-5</v>
+        <v>-5.3930578638863936E-5</v>
       </c>
       <c r="N18">
-        <v>-3.1169962114535907E-3</v>
+        <v>-4.4155830808093235E-3</v>
       </c>
       <c r="O18">
-        <v>1.7035216857289179E-2</v>
+        <v>1.8016030567664668E-2</v>
       </c>
       <c r="P18">
-        <v>0.10438595937339666</v>
+        <v>7.1025253750677197E-2</v>
       </c>
       <c r="Q18">
-        <v>9.9230558547315315E-2</v>
+        <v>6.1701275352747706E-2</v>
       </c>
       <c r="R18">
-        <v>-5.9282615997854589E-4</v>
+        <v>7.9254330205986104E-3</v>
       </c>
       <c r="S18">
-        <v>-3.121443610102359E-4</v>
+        <v>-1.0364937161752813E-4</v>
       </c>
       <c r="T18">
-        <v>-1.9091481402353011E-3</v>
+        <v>-2.5923651551557456E-3</v>
       </c>
       <c r="U18">
-        <v>1.1118337358901005E-2</v>
+        <v>1.0328225549820085E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-4.3058464666221319E-3</v>
+        <v>-5.00062155595113E-3</v>
       </c>
       <c r="B19">
-        <v>-9.9708626741120939E-4</v>
+        <v>-1.4792675818078628E-3</v>
       </c>
       <c r="C19">
-        <v>-1.4658629586998798E-2</v>
+        <v>-1.4641100872223731E-2</v>
       </c>
       <c r="D19">
-        <v>6.0331302117159324E-3</v>
+        <v>5.3508721080908752E-3</v>
       </c>
       <c r="E19">
-        <v>2.0981824209084787E-3</v>
+        <v>1.9320098624445007E-3</v>
       </c>
       <c r="F19">
-        <v>-3.248287199471542E-3</v>
+        <v>-2.9918800489900236E-3</v>
       </c>
       <c r="G19">
-        <v>6.1554545151320346E-3</v>
+        <v>9.5520160037647715E-3</v>
       </c>
       <c r="H19">
-        <v>-3.6095308835200194E-4</v>
+        <v>1.2947185228408063E-3</v>
       </c>
       <c r="I19">
-        <v>-7.3832906436162582E-3</v>
+        <v>-8.9406891523389886E-3</v>
       </c>
       <c r="J19">
-        <v>3.2782128336866531E-3</v>
+        <v>3.0574619513655588E-3</v>
       </c>
       <c r="K19">
-        <v>-1.6502865762875925E-3</v>
+        <v>-1.7552738286012875E-3</v>
       </c>
       <c r="L19">
-        <v>-1.282123397745384E-2</v>
+        <v>-1.5113135247220761E-2</v>
       </c>
       <c r="M19">
-        <v>2.1866773522449812E-5</v>
+        <v>2.2869222307530255E-4</v>
       </c>
       <c r="N19">
-        <v>-2.557758638146538E-3</v>
+        <v>-3.6203627205476105E-3</v>
       </c>
       <c r="O19">
-        <v>1.4849740274186007E-2</v>
+        <v>1.5875622792679338E-2</v>
       </c>
       <c r="P19">
-        <v>0.10183613409840148</v>
+        <v>6.8006204608449999E-2</v>
       </c>
       <c r="Q19">
-        <v>9.647461435088911E-2</v>
+        <v>5.8709034617775067E-2</v>
       </c>
       <c r="R19">
-        <v>1.525713150182881E-3</v>
+        <v>9.6004590421743512E-3</v>
       </c>
       <c r="S19">
-        <v>-5.1785053155555756E-5</v>
+        <v>2.4878542625567514E-4</v>
       </c>
       <c r="T19">
-        <v>-1.4372061003749363E-3</v>
+        <v>-1.9874801375816568E-3</v>
       </c>
       <c r="U19">
-        <v>9.475939288079667E-3</v>
+        <v>8.8528299711333452E-3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-4.0430731105001788E-3</v>
+        <v>-4.8025139097962709E-3</v>
       </c>
       <c r="B20">
-        <v>-9.6707665721446686E-4</v>
+        <v>-1.4456599882329436E-3</v>
       </c>
       <c r="C20">
-        <v>-1.3613896705918949E-2</v>
+        <v>-1.3678615447544108E-2</v>
       </c>
       <c r="D20">
-        <v>5.9607632286755464E-3</v>
+        <v>5.2872709060861264E-3</v>
       </c>
       <c r="E20">
-        <v>2.0743773771142327E-3</v>
+        <v>1.9028610217581411E-3</v>
       </c>
       <c r="F20">
-        <v>-3.0747516514681005E-3</v>
+        <v>-2.8580765638856931E-3</v>
       </c>
       <c r="G20">
-        <v>4.2842897077666198E-3</v>
+        <v>7.3158216211084842E-3</v>
       </c>
       <c r="H20">
-        <v>-5.4759350747704246E-4</v>
+        <v>8.746094286901971E-4</v>
       </c>
       <c r="I20">
-        <v>-5.7835184618383389E-3</v>
+        <v>-7.4959548597538549E-3</v>
       </c>
       <c r="J20">
-        <v>1.3301130063793447E-3</v>
+        <v>7.3288267713475692E-4</v>
       </c>
       <c r="K20">
-        <v>-1.874882658344981E-3</v>
+        <v>-2.1569602798198755E-3</v>
       </c>
       <c r="L20">
-        <v>-1.1320221856386795E-2</v>
+        <v>-1.3864563500099797E-2</v>
       </c>
       <c r="M20">
-        <v>1.5084833282051778E-4</v>
+        <v>5.6448061668920124E-4</v>
       </c>
       <c r="N20">
-        <v>-2.0493894370377272E-3</v>
+        <v>-2.9094380449281934E-3</v>
       </c>
       <c r="O20">
-        <v>1.2876457591035487E-2</v>
+        <v>1.3938152368691826E-2</v>
       </c>
       <c r="P20">
-        <v>9.936653193656432E-2</v>
+        <v>6.521154112252997E-2</v>
       </c>
       <c r="Q20">
-        <v>9.3877397777791874E-2</v>
+        <v>5.6006109366220698E-2</v>
       </c>
       <c r="R20">
-        <v>3.2921092296330965E-3</v>
+        <v>1.0881892280028921E-2</v>
       </c>
       <c r="S20">
-        <v>2.1521139269351262E-4</v>
+        <v>5.7991765053365515E-4</v>
       </c>
       <c r="T20">
-        <v>-1.0473272754756907E-3</v>
+        <v>-1.488952075482608E-3</v>
       </c>
       <c r="U20">
-        <v>8.0655812787060344E-3</v>
+        <v>7.5921685855088687E-3</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-3.8308522938745502E-3</v>
+        <v>-4.6432851969453095E-3</v>
       </c>
       <c r="B21">
-        <v>-9.4241411708895217E-4</v>
+        <v>-1.4168902901480099E-3</v>
       </c>
       <c r="C21">
-        <v>-1.2619267247355423E-2</v>
+        <v>-1.2768602384192246E-2</v>
       </c>
       <c r="D21">
-        <v>5.8994651474336569E-3</v>
+        <v>5.2294615277941386E-3</v>
       </c>
       <c r="E21">
-        <v>2.0527159395604309E-3</v>
+        <v>1.8761974998936992E-3</v>
       </c>
       <c r="F21">
-        <v>-2.9230585275921953E-3</v>
+        <v>-2.7389098946685488E-3</v>
       </c>
       <c r="G21">
-        <v>2.7950004450378626E-3</v>
+        <v>5.4829475349686824E-3</v>
       </c>
       <c r="H21">
-        <v>-6.7769093592870725E-4</v>
+        <v>5.4122371809998092E-4</v>
       </c>
       <c r="I21">
-        <v>-4.527425432963016E-3</v>
+        <v>-6.3152009978393233E-3</v>
       </c>
       <c r="J21">
-        <v>-3.5493778787969936E-4</v>
+        <v>-1.289238020205689E-3</v>
       </c>
       <c r="K21">
-        <v>-2.0489502329734243E-3</v>
+        <v>-2.4843106390244171E-3</v>
       </c>
       <c r="L21">
-        <v>-9.9323175185092594E-3</v>
+        <v>-1.2664178338675704E-2</v>
       </c>
       <c r="M21">
-        <v>3.3754196906451056E-4</v>
+        <v>9.2120371548422677E-4</v>
       </c>
       <c r="N21">
-        <v>-1.5984479629208015E-3</v>
+        <v>-2.2845438252465243E-3</v>
       </c>
       <c r="O21">
-        <v>1.1117267145444865E-2</v>
+        <v>1.2203475477803047E-2</v>
       </c>
       <c r="P21">
-        <v>9.6983768793129629E-2</v>
+        <v>6.2627692295400147E-2</v>
       </c>
       <c r="Q21">
-        <v>9.1419916930882542E-2</v>
+        <v>5.3552692146852529E-2</v>
       </c>
       <c r="R21">
-        <v>4.7556315894857577E-3</v>
+        <v>1.1835716554450575E-2</v>
       </c>
       <c r="S21">
-        <v>4.7548220813597997E-4</v>
+        <v>8.8188444615399828E-4</v>
       </c>
       <c r="T21">
-        <v>-7.267891034782746E-4</v>
+        <v>-1.0796588790390655E-3</v>
       </c>
       <c r="U21">
-        <v>6.8567186179946948E-3</v>
+        <v>6.515347036396198E-3</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-3.6585547663538064E-3</v>
+        <v>-4.5133680425368389E-3</v>
       </c>
       <c r="B22">
-        <v>-9.2132708739603745E-4</v>
+        <v>-1.391070096043005E-3</v>
       </c>
       <c r="C22">
-        <v>-1.1677395567146797E-2</v>
+        <v>-1.1911190990594981E-2</v>
       </c>
       <c r="D22">
-        <v>5.8467714764652602E-3</v>
+        <v>5.1759112778523176E-3</v>
       </c>
       <c r="E22">
-        <v>2.032543108426944E-3</v>
+        <v>1.8513438430228922E-3</v>
       </c>
       <c r="F22">
-        <v>-2.7895219174986496E-3</v>
+        <v>-2.6317359968488097E-3</v>
       </c>
       <c r="G22">
-        <v>1.6137903068478288E-3</v>
+        <v>3.9819531009376071E-3</v>
       </c>
       <c r="H22">
-        <v>-7.6447279681365584E-4</v>
+        <v>2.7766953291642949E-4</v>
       </c>
       <c r="I22">
-        <v>-3.5406741373601386E-3</v>
+        <v>-5.3444987082439119E-3</v>
       </c>
       <c r="J22">
-        <v>-1.7958442726056696E-3</v>
+        <v>-3.0289455129452253E-3</v>
       </c>
       <c r="K22">
-        <v>-2.1787336776886404E-3</v>
+        <v>-2.7451070357838833E-3</v>
       </c>
       <c r="L22">
-        <v>-8.6636800586278682E-3</v>
+        <v>-1.152386994587579E-2</v>
       </c>
       <c r="M22">
-        <v>5.5521540594786567E-4</v>
+        <v>1.2761304435994487E-3</v>
       </c>
       <c r="N22">
-        <v>-1.2058342344350808E-3</v>
+        <v>-1.7425809605059333E-3</v>
       </c>
       <c r="O22">
-        <v>9.5638302110783967E-3</v>
+        <v>1.0662597852504485E-2</v>
       </c>
       <c r="P22">
-        <v>9.4690384252568496E-2</v>
+        <v>6.023914924370348E-2</v>
       </c>
       <c r="Q22">
-        <v>8.9085768216057251E-2</v>
+        <v>5.1314661311746577E-2</v>
       </c>
       <c r="R22">
-        <v>5.959539328151347E-3</v>
+        <v>1.2518391729779997E-2</v>
       </c>
       <c r="S22">
-        <v>7.201130390913882E-4</v>
+        <v>1.1504024622042369E-3</v>
       </c>
       <c r="T22">
-        <v>-4.6464229465337237E-4</v>
+        <v>-7.4503949904248645E-4</v>
       </c>
       <c r="U22">
-        <v>5.8219613657375692E-3</v>
+        <v>5.5953165390817379E-3</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-3.5174378379794697E-3</v>
+        <v>-4.4051112932074069E-3</v>
       </c>
       <c r="B23">
-        <v>-9.0248857947458931E-4</v>
+        <v>-1.3668380591948706E-3</v>
       </c>
       <c r="C23">
-        <v>-1.0789398252855211E-2</v>
+        <v>-1.1105470916264487E-2</v>
       </c>
       <c r="D23">
-        <v>5.8006306954345478E-3</v>
+        <v>5.1254135528572648E-3</v>
       </c>
       <c r="E23">
-        <v>2.0133495314399018E-3</v>
+        <v>1.8277867905922753E-3</v>
       </c>
       <c r="F23">
-        <v>-2.6712042243076475E-3</v>
+        <v>-2.534552464996983E-3</v>
       </c>
       <c r="G23">
-        <v>6.8129930813397451E-4</v>
+        <v>2.7548183565700947E-3</v>
       </c>
       <c r="H23">
-        <v>-8.1831045147861485E-4</v>
+        <v>7.0363151138682153E-5</v>
       </c>
       <c r="I23">
-        <v>-2.7647955775622745E-3</v>
+        <v>-4.5415920686489048E-3</v>
       </c>
       <c r="J23">
-        <v>-3.0129761238998722E-3</v>
+        <v>-4.5078926831926399E-3</v>
       </c>
       <c r="K23">
-        <v>-2.2700919274064712E-3</v>
+        <v>-2.9468135745105168E-3</v>
       </c>
       <c r="L23">
-        <v>-7.5149777984726551E-3</v>
+        <v>-1.0450807430722233E-2</v>
       </c>
       <c r="M23">
-        <v>7.843893848311881E-4</v>
+        <v>1.6137079919080514E-3</v>
       </c>
       <c r="N23">
-        <v>-8.6910502650463151E-4</v>
+        <v>-1.2777827319077023E-3</v>
       </c>
       <c r="O23">
-        <v>8.2020512249784926E-3</v>
+        <v>9.3017266592266591E-3</v>
       </c>
       <c r="P23">
-        <v>9.2486036064236304E-2</v>
+        <v>5.8029599286631463E-2</v>
       </c>
       <c r="Q23">
-        <v>8.6860849290009964E-2</v>
+        <v>4.9262887116541948E-2</v>
       </c>
       <c r="R23">
-        <v>6.9415293984247022E-3</v>
+        <v>1.297787452111566E-2</v>
       </c>
       <c r="S23">
-        <v>9.434817749371814E-4</v>
+        <v>1.3837008935530003E-3</v>
       </c>
       <c r="T23">
-        <v>-2.5152064209613443E-4</v>
+        <v>-4.7277281224877908E-4</v>
       </c>
       <c r="U23">
-        <v>4.9371308705191928E-3</v>
+        <v>4.8087156851246904E-3</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-3.4003381554644774E-3</v>
+        <v>-4.3124199999964802E-3</v>
       </c>
       <c r="B24">
-        <v>-8.8491695898307299E-4</v>
+        <v>-1.3432269118523273E-3</v>
       </c>
       <c r="C24">
-        <v>-9.9552819936828598E-3</v>
+        <v>-1.0349878779144778E-2</v>
       </c>
       <c r="D24">
-        <v>5.7593312422532759E-3</v>
+        <v>5.077009779026846E-3</v>
       </c>
       <c r="E24">
-        <v>1.9947409489062817E-3</v>
+        <v>1.8051367998479589E-3</v>
       </c>
       <c r="F24">
-        <v>-2.5657206716235468E-3</v>
+        <v>-2.44580289025853E-3</v>
       </c>
       <c r="G24">
-        <v>-5.027254770083466E-5</v>
+        <v>1.7542242561337101E-3</v>
       </c>
       <c r="H24">
-        <v>-8.4729008013103202E-4</v>
+        <v>-9.1611637127092364E-5</v>
       </c>
       <c r="I24">
-        <v>-2.1539866626618109E-3</v>
+        <v>-3.8733799700156743E-3</v>
       </c>
       <c r="J24">
-        <v>-4.0271811437134521E-3</v>
+        <v>-5.7483751090316162E-3</v>
       </c>
       <c r="K24">
-        <v>-2.3284300025310728E-3</v>
+        <v>-3.0964692621255454E-3</v>
       </c>
       <c r="L24">
-        <v>-6.4831147849182163E-3</v>
+        <v>-9.4486829054716212E-3</v>
       </c>
       <c r="M24">
-        <v>1.0112064464393845E-3</v>
+        <v>1.9237730579467615E-3</v>
       </c>
       <c r="N24">
-        <v>-5.8398842098480086E-4</v>
+        <v>-8.8309374027293903E-4</v>
       </c>
       <c r="O24">
-        <v>7.0150257803853816E-3</v>
+        <v>8.1048725802965755E-3</v>
       </c>
       <c r="P24">
-        <v>9.036839988613482E-2</v>
+        <v>5.5982707563587086E-2</v>
       </c>
       <c r="Q24">
-        <v>8.4733075525414606E-2</v>
+        <v>4.7372572062190393E-2</v>
       </c>
       <c r="R24">
-        <v>7.7342724499826609E-3</v>
+        <v>1.3254667434206484E-2</v>
       </c>
       <c r="S24">
-        <v>1.1423884151906291E-3</v>
+        <v>1.581750088582931E-3</v>
       </c>
       <c r="T24">
-        <v>-7.9449866187464302E-5</v>
+        <v>-2.5247236606141019E-4</v>
       </c>
       <c r="U24">
-        <v>4.181101360072474E-3</v>
+        <v>4.1355455078463639E-3</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-3.3014179487729101E-3</v>
+        <v>-4.23047041226653E-3</v>
       </c>
       <c r="B25">
-        <v>-8.6789879920671587E-4</v>
+        <v>-1.3195647739304148E-3</v>
       </c>
       <c r="C25">
-        <v>-9.1742498132759576E-3</v>
+        <v>-9.6424509227186241E-3</v>
       </c>
       <c r="D25">
-        <v>5.7214470464454058E-3</v>
+        <v>5.0299359924108507E-3</v>
       </c>
       <c r="E25">
-        <v>1.9764144038773392E-3</v>
+        <v>1.7830991950482098E-3</v>
       </c>
       <c r="F25">
-        <v>-2.4711091791367878E-3</v>
+        <v>-2.3642510065225741E-3</v>
       </c>
       <c r="G25">
-        <v>-6.1947195110702139E-4</v>
+        <v>9.4141637962918772E-4</v>
       </c>
       <c r="H25">
-        <v>-8.5768506440722951E-4</v>
+        <v>-2.1702922743475992E-4</v>
       </c>
       <c r="I25">
-        <v>-1.6724578312795489E-3</v>
+        <v>-3.3138967673157359E-3</v>
       </c>
       <c r="J25">
-        <v>-4.8590789637860989E-3</v>
+        <v>-6.772627921733416E-3</v>
       </c>
       <c r="K25">
-        <v>-2.3586662180957113E-3</v>
+        <v>-3.2006241904206753E-3</v>
       </c>
       <c r="L25">
-        <v>-5.562516955387873E-3</v>
+        <v>-8.5186521252069193E-3</v>
       </c>
       <c r="M25">
-        <v>1.2261311379000068E-3</v>
+        <v>2.2001761549172421E-3</v>
       </c>
       <c r="N25">
-        <v>-3.4535695591928237E-4</v>
+        <v>-5.510308136140856E-4</v>
       </c>
       <c r="O25">
-        <v>5.9849302948395723E-3</v>
+        <v>7.0554770369148888E-3</v>
       </c>
       <c r="P25">
-        <v>8.8333844108956838E-2</v>
+        <v>5.4082641569771335E-2</v>
       </c>
       <c r="Q25">
-        <v>8.2692113496769623E-2</v>
+        <v>4.5622646435995097E-2</v>
       </c>
       <c r="R25">
-        <v>8.3659688657936482E-3</v>
+        <v>1.3382822474630849E-2</v>
       </c>
       <c r="S25">
-        <v>1.3153961656404453E-3</v>
+        <v>1.7457001714775572E-3</v>
       </c>
       <c r="T25">
-        <v>5.8334020598195378E-5</v>
+        <v>-7.5407418295463376E-5</v>
       </c>
       <c r="U25">
-        <v>3.5355416796575526E-3</v>
+        <v>3.5587837714426873E-3</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-3.2159523604035436E-3</v>
+        <v>-4.1554801381786331E-3</v>
       </c>
       <c r="B26">
-        <v>-8.5092860881522429E-4</v>
+        <v>-1.2954013830532743E-3</v>
       </c>
       <c r="C26">
-        <v>-8.4449259434333911E-3</v>
+        <v>-8.9809912056562011E-3</v>
       </c>
       <c r="D26">
-        <v>5.6857947240322882E-3</v>
+        <v>4.983584546249897E-3</v>
       </c>
       <c r="E26">
-        <v>1.9581395966599014E-3</v>
+        <v>1.7614523986669837E-3</v>
       </c>
       <c r="F26">
-        <v>-2.3857399478668631E-3</v>
+        <v>-2.2888972462028448E-3</v>
       </c>
       <c r="G26">
-        <v>-1.0574344479436072E-3</v>
+        <v>2.8452531922737304E-4</v>
       </c>
       <c r="H26">
-        <v>-8.5434071121217843E-4</v>
+        <v>-3.1294882854908097E-4</v>
       </c>
       <c r="I26">
-        <v>-1.2922843036944724E-3</v>
+        <v>-2.8427199247084709E-3</v>
       </c>
       <c r="J26">
-        <v>-5.5285699630605034E-3</v>
+        <v>-7.6023232958253306E-3</v>
       </c>
       <c r="K26">
-        <v>-2.3652250255452342E-3</v>
+        <v>-3.2653076280134987E-3</v>
       </c>
       <c r="L26">
-        <v>-4.7460816787267979E-3</v>
+        <v>-7.6600472851612398E-3</v>
       </c>
       <c r="M26">
-        <v>1.4229201795563024E-3</v>
+        <v>2.4397252407174644E-3</v>
       </c>
       <c r="N26">
-        <v>-1.4783742086874976E-4</v>
+        <v>-2.7420441338469866E-4</v>
       </c>
       <c r="O26">
-        <v>5.0941906361755985E-3</v>
+        <v>6.1373914691052935E-3</v>
       </c>
       <c r="P26">
-        <v>8.6377932465842328E-2</v>
+        <v>5.2314408640700499E-2</v>
       </c>
       <c r="Q26">
-        <v>8.0729138205171927E-2</v>
+        <v>4.3995227810426939E-2</v>
       </c>
       <c r="R26">
-        <v>8.8608870812330841E-3</v>
+        <v>1.339086224011281E-2</v>
       </c>
       <c r="S26">
-        <v>1.4623311669526265E-3</v>
+        <v>1.8774714659992194E-3</v>
       </c>
       <c r="T26">
-        <v>1.6755136276866113E-4</v>
+        <v>6.5745441675865628E-5</v>
       </c>
       <c r="U26">
-        <v>2.9846208898235849E-3</v>
+        <v>3.0639947738670121E-3</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-3.1401496119814526E-3</v>
+        <v>-4.0845203053097084E-3</v>
       </c>
       <c r="B27">
-        <v>-8.3366155470238068E-4</v>
+        <v>-1.2704525762298165E-3</v>
       </c>
       <c r="C27">
-        <v>-7.7655242979990258E-3</v>
+        <v>-8.3631837718014541E-3</v>
       </c>
       <c r="D27">
-        <v>5.6513985616456607E-3</v>
+        <v>4.9374754320742134E-3</v>
       </c>
       <c r="E27">
-        <v>1.9397441733885652E-3</v>
+        <v>1.7400313956278015E-3</v>
       </c>
       <c r="F27">
-        <v>-2.308250013234672E-3</v>
+        <v>-2.2189216849018548E-3</v>
       </c>
       <c r="G27">
-        <v>-1.3893526394564365E-3</v>
+        <v>-2.427574074389925E-4</v>
       </c>
       <c r="H27">
-        <v>-8.4098376866413116E-4</v>
+        <v>-3.8505796139491584E-4</v>
       </c>
       <c r="I27">
-        <v>-9.9169063832197117E-4</v>
+        <v>-2.4437275686248696E-3</v>
       </c>
       <c r="J27">
-        <v>-6.0545082054123496E-3</v>
+        <v>-8.2582217488344246E-3</v>
       </c>
       <c r="K27">
-        <v>-2.3520477019169988E-3</v>
+        <v>-3.2960192351629688E-3</v>
       </c>
       <c r="L27">
-        <v>-4.025870424539656E-3</v>
+        <v>-6.8709171439481891E-3</v>
       </c>
       <c r="M27">
-        <v>1.5978106420610791E-3</v>
+        <v>2.6413760541921668E-3</v>
       </c>
       <c r="N27">
-        <v>1.3821150158478525E-5</v>
+        <v>-4.5619020743304133E-5</v>
       </c>
       <c r="O27">
-        <v>4.3261665568162183E-3</v>
+        <v>5.335431550735902E-3</v>
       </c>
       <c r="P27">
-        <v>8.4495794608217462E-2</v>
+        <v>5.0664058078803191E-2</v>
       </c>
       <c r="Q27">
-        <v>7.8836616570391829E-2</v>
+        <v>4.2475145918497013E-2</v>
       </c>
       <c r="R27">
-        <v>9.2398642652335872E-3</v>
+        <v>1.3302602716533996E-2</v>
       </c>
       <c r="S27">
-        <v>1.5839028105560063E-3</v>
+        <v>1.979456086659068E-3</v>
       </c>
       <c r="T27">
-        <v>2.5302821360774958E-4</v>
+        <v>1.7711947759523435E-4</v>
       </c>
       <c r="U27">
-        <v>2.5147121673872084E-3</v>
+        <v>2.6389629178583504E-3</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-3.0709981941150735E-3</v>
+        <v>-4.0153606407401414E-3</v>
       </c>
       <c r="B28">
-        <v>-8.1587626362985188E-4</v>
+        <v>-1.2445582425150636E-3</v>
       </c>
       <c r="C28">
-        <v>-7.1339765282597929E-3</v>
+        <v>-7.786669486093507E-3</v>
       </c>
       <c r="D28">
-        <v>5.617461060246829E-3</v>
+        <v>4.8912339723019551E-3</v>
       </c>
       <c r="E28">
-        <v>1.9211020443384728E-3</v>
+        <v>1.7187150856526705E-3</v>
       </c>
       <c r="F28">
-        <v>-2.2374941197851944E-3</v>
+        <v>-2.1536438397500631E-3</v>
       </c>
       <c r="G28">
-        <v>-1.6356456330266747E-3</v>
+        <v>-6.6222711584831471E-4</v>
       </c>
       <c r="H28">
-        <v>-8.2046903981667111E-4</v>
+        <v>-4.3794749380732435E-4</v>
       </c>
       <c r="I28">
-        <v>-7.5369488757331341E-4</v>
+        <v>-2.1041353923978582E-3</v>
       </c>
       <c r="J28">
-        <v>-6.4544982898306529E-3</v>
+        <v>-8.7599410262966543E-3</v>
       </c>
       <c r="K28">
-        <v>-2.3226149442493399E-3</v>
+        <v>-3.2977366550928774E-3</v>
       </c>
       <c r="L28">
-        <v>-3.3936061003333709E-3</v>
+        <v>-6.1484354493858947E-3</v>
       </c>
       <c r="M28">
-        <v>1.7488831599204015E-3</v>
+        <v>2.8056131659777821E-3</v>
       </c>
       <c r="N28">
-        <v>1.4453858659244399E-4</v>
+        <v>1.4116887354917373E-4</v>
       </c>
       <c r="O28">
-        <v>3.6655163807640975E-3</v>
+        <v>4.6356570244635107E-3</v>
       </c>
       <c r="P28">
-        <v>8.2682395503358791E-2</v>
+        <v>4.9118786207008956E-2</v>
       </c>
       <c r="Q28">
-        <v>7.7008117218794858E-2</v>
+        <v>4.1049530119683167E-2</v>
       </c>
       <c r="R28">
-        <v>9.5207603169526721E-3</v>
+        <v>1.3137874846789644E-2</v>
       </c>
       <c r="S28">
-        <v>1.6814164750611111E-3</v>
+        <v>2.0543017062710158E-3</v>
       </c>
       <c r="T28">
-        <v>3.188279966779099E-4</v>
+        <v>2.6384526225295776E-4</v>
       </c>
       <c r="U28">
-        <v>2.1141127551908001E-3</v>
+        <v>2.2733625974970498E-3</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-3.0061367420985479E-3</v>
+        <v>-3.9463409529960792E-3</v>
       </c>
       <c r="B29">
-        <v>-7.9744549341452683E-4</v>
+        <v>-1.2176502990608354E-3</v>
       </c>
       <c r="C29">
-        <v>-6.5480302606820513E-3</v>
+        <v>-7.2490979256292047E-3</v>
       </c>
       <c r="D29">
-        <v>5.5833377065684919E-3</v>
+        <v>4.8445729366595443E-3</v>
       </c>
       <c r="E29">
-        <v>1.9021240537662558E-3</v>
+        <v>1.6974165430683388E-3</v>
       </c>
       <c r="F29">
-        <v>-2.1725067129811865E-3</v>
+        <v>-2.0924935333360155E-3</v>
       </c>
       <c r="G29">
-        <v>-1.8128909036490743E-3</v>
+        <v>-9.9199875972865522E-4</v>
       </c>
       <c r="H29">
-        <v>-7.9497435838863739E-4</v>
+        <v>-4.753310313292498E-4</v>
       </c>
       <c r="I29">
-        <v>-5.6504446627510718E-4</v>
+        <v>-1.8137529665041611E-3</v>
       </c>
       <c r="J29">
-        <v>-6.7447847515174691E-3</v>
+        <v>-9.1258143933204468E-3</v>
       </c>
       <c r="K29">
-        <v>-2.2799769036418571E-3</v>
+        <v>-3.274934347209033E-3</v>
       </c>
       <c r="L29">
-        <v>-2.8410225936146404E-3</v>
+        <v>-5.489208517163109E-3</v>
       </c>
       <c r="M29">
-        <v>1.8755650791043329E-3</v>
+        <v>2.9339785963252599E-3</v>
       </c>
       <c r="N29">
-        <v>2.487977712084101E-4</v>
+        <v>2.9198307906083356E-4</v>
       </c>
       <c r="O29">
-        <v>3.098354926284087E-3</v>
+        <v>4.0254782085452773E-3</v>
       </c>
       <c r="P29">
-        <v>8.0932727469490706E-2</v>
+        <v>4.7666972743638091E-2</v>
       </c>
       <c r="Q29">
-        <v>7.5238145183803479E-2</v>
+        <v>3.9707454459579836E-2</v>
       </c>
       <c r="R29">
-        <v>9.7188625797523763E-3</v>
+        <v>1.2913149090688031E-2</v>
       </c>
       <c r="S29">
-        <v>1.7565574485342511E-3</v>
+        <v>2.1047564396557811E-3</v>
       </c>
       <c r="T29">
-        <v>3.6836619430120746E-4</v>
+        <v>3.3021093887668115E-4</v>
       </c>
       <c r="U29">
-        <v>1.7727882134506712E-3</v>
+        <v>1.9584683028606919E-3</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-2.9437431995730603E-3</v>
+        <v>-3.8762641576336331E-3</v>
       </c>
       <c r="B30">
-        <v>-7.7831298618675896E-4</v>
+        <v>-1.1897281870191184E-3</v>
       </c>
       <c r="C30">
-        <v>-6.0053248053601339E-3</v>
+        <v>-6.7481626426833504E-3</v>
       </c>
       <c r="D30">
-        <v>5.5485151341176436E-3</v>
+        <v>4.7972778783018097E-3</v>
       </c>
       <c r="E30">
-        <v>1.8827504896240398E-3</v>
+        <v>1.676075466117482E-3</v>
       </c>
       <c r="F30">
-        <v>-2.1124718155479732E-3</v>
+        <v>-2.0349892310354799E-3</v>
       </c>
       <c r="G30">
-        <v>-1.9345676549502218E-3</v>
+        <v>-1.247172104917348E-3</v>
       </c>
       <c r="H30">
-        <v>-7.661537691585063E-4</v>
+        <v>-5.0021951439770552E-4</v>
       </c>
       <c r="I30">
-        <v>-4.15385096335467E-4</v>
+        <v>-1.5644105803524326E-3</v>
       </c>
       <c r="J30">
-        <v>-6.9402095722618977E-3</v>
+        <v>-9.3728163472222032E-3</v>
       </c>
       <c r="K30">
-        <v>-2.2267873600190164E-3</v>
+        <v>-3.2316097908261961E-3</v>
       </c>
       <c r="L30">
-        <v>-2.3601032165623506E-3</v>
+        <v>-4.8895054220103014E-3</v>
       </c>
       <c r="M30">
-        <v>1.9782450854930835E-3</v>
+        <v>3.0287147035302159E-3</v>
       </c>
       <c r="N30">
-        <v>3.3060418746841093E-4</v>
+        <v>4.1201590842977699E-4</v>
       </c>
       <c r="O30">
-        <v>2.6122814759411881E-3</v>
+        <v>3.4936563495783727E-3</v>
       </c>
       <c r="P30">
-        <v>7.9241943290400851E-2</v>
+        <v>4.6298169546862035E-2</v>
       </c>
       <c r="Q30">
-        <v>7.3521999413258696E-2</v>
+        <v>3.8439634358688336E-2</v>
       </c>
       <c r="R30">
-        <v>9.8472423705338961E-3</v>
+        <v>1.2642070876117685E-2</v>
       </c>
       <c r="S30">
-        <v>1.8112298101559616E-3</v>
+        <v>2.1335593242421996E-3</v>
       </c>
       <c r="T30">
-        <v>4.0450937148371152E-4</v>
+        <v>3.7979826730202186E-4</v>
       </c>
       <c r="U30">
-        <v>1.4821438908834386E-3</v>
+        <v>1.6869042536184851E-3</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-2.8824405049350612E-3</v>
+        <v>-3.8043071027107078E-3</v>
       </c>
       <c r="B31">
-        <v>-7.584752040172652E-4</v>
+        <v>-1.1608400554112372E-3</v>
       </c>
       <c r="C31">
-        <v>-5.5034495202673046E-3</v>
+        <v>-6.2816248077081967E-3</v>
       </c>
       <c r="D31">
-        <v>5.5125921105446301E-3</v>
+        <v>4.7491949175589836E-3</v>
       </c>
       <c r="E31">
-        <v>1.8629450442642452E-3</v>
+        <v>1.6546522873731615E-3</v>
       </c>
       <c r="F31">
-        <v>-2.0566987075512941E-3</v>
+        <v>-1.9807215678921677E-3</v>
       </c>
       <c r="G31">
-        <v>-2.0116507626270425E-3</v>
+        <v>-1.4403657010333669E-3</v>
       </c>
       <c r="H31">
-        <v>-7.3525725048674399E-4</v>
+        <v>-5.1506000491140604E-4</v>
       </c>
       <c r="I31">
-        <v>-2.9661403266811263E-4</v>
+        <v>-1.3495177490682529E-3</v>
       </c>
       <c r="J31">
-        <v>-7.0542188379579696E-3</v>
+        <v>-9.5165385822374091E-3</v>
       </c>
       <c r="K31">
-        <v>-2.1653396488506343E-3</v>
+        <v>-3.1713141713929365E-3</v>
       </c>
       <c r="L31">
-        <v>-1.9432363272219126E-3</v>
+        <v>-4.3454287685321816E-3</v>
       </c>
       <c r="M31">
-        <v>2.057976362336881E-3</v>
+        <v>3.0924955862314477E-3</v>
       </c>
       <c r="N31">
-        <v>3.9348561290381619E-4</v>
+        <v>5.0584967520127125E-4</v>
       </c>
       <c r="O31">
-        <v>2.1963294149849322E-3</v>
+        <v>3.0302420114231452E-3</v>
       </c>
       <c r="P31">
-        <v>7.7605444714359595E-2</v>
+        <v>4.5003057292943814E-2</v>
       </c>
       <c r="Q31">
-        <v>7.1855650683328873E-2</v>
+        <v>3.7238168750483726E-2</v>
       </c>
       <c r="R31">
-        <v>9.9170664151077923E-3</v>
+        <v>1.2335916412720841E-2</v>
       </c>
       <c r="S31">
-        <v>1.847437751755665E-3</v>
+        <v>2.1433648359780681E-3</v>
       </c>
       <c r="T31">
-        <v>4.2966010856015924E-4</v>
+        <v>4.155975070471106E-4</v>
       </c>
       <c r="U31">
-        <v>1.2348236097768422E-3</v>
+        <v>1.4524305996545454E-3</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-2.821216488220436E-3</v>
+        <v>-3.729946228923281E-3</v>
       </c>
       <c r="B32">
-        <v>-7.379669377070451E-4</v>
+        <v>-1.1310682815471658E-3</v>
       </c>
       <c r="C32">
-        <v>-5.0399886351315849E-3</v>
+        <v>-5.8473286779753362E-3</v>
       </c>
       <c r="D32">
-        <v>5.4752629447958577E-3</v>
+        <v>4.7002204564641622E-3</v>
       </c>
       <c r="E32">
-        <v>1.8426899280798621E-3</v>
+        <v>1.6331235539441069E-3</v>
       </c>
       <c r="F32">
-        <v>-2.0046020181223958E-3</v>
+        <v>-1.9293405755791073E-3</v>
       </c>
       <c r="G32">
-        <v>-2.0530862650699972E-3</v>
+        <v>-1.5821477156638597E-3</v>
       </c>
       <c r="H32">
-        <v>-7.0322388698249331E-4</v>
+        <v>-5.2184598424471953E-4</v>
       </c>
       <c r="I32">
-        <v>-2.0237791014705698E-4</v>
+        <v>-1.163722961002345E-3</v>
       </c>
       <c r="J32">
-        <v>-7.0989039176272296E-3</v>
+        <v>-9.5712028102036169E-3</v>
       </c>
       <c r="K32">
-        <v>-2.0976026527627766E-3</v>
+        <v>-3.0971854219139137E-3</v>
       </c>
       <c r="L32">
-        <v>-1.5833098442540451E-3</v>
+        <v>-3.8530398694476757E-3</v>
       </c>
       <c r="M32">
-        <v>2.1162498230071648E-3</v>
+        <v>3.1282270204601305E-3</v>
       </c>
       <c r="N32">
-        <v>4.4051527940460372E-4</v>
+        <v>5.7749677350444955E-4</v>
       </c>
       <c r="O32">
-        <v>1.840871759720808E-3</v>
+        <v>2.6264801863634052E-3</v>
       </c>
       <c r="P32">
-        <v>7.6018937436501288E-2</v>
+        <v>4.3773381543916821E-2</v>
       </c>
       <c r="Q32">
-        <v>7.0235637480791202E-2</v>
+        <v>3.609632170866614E-2</v>
       </c>
       <c r="R32">
-        <v>9.9378672290837723E-3</v>
+        <v>1.2003978659983939E-2</v>
       </c>
       <c r="S32">
-        <v>1.8671996167770228E-3</v>
+        <v>2.1366927585217709E-3</v>
       </c>
       <c r="T32">
-        <v>4.4582948145024021E-4</v>
+        <v>4.4010405142660161E-4</v>
       </c>
       <c r="U32">
-        <v>1.0245340344067705E-3</v>
+        <v>1.2497622669794259E-3</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-2.759356009871366E-3</v>
+        <v>-3.65289566478681E-3</v>
       </c>
       <c r="B33">
-        <v>-7.1684999907758085E-4</v>
+        <v>-1.1005183224517445E-3</v>
       </c>
       <c r="C33">
-        <v>-4.6125553995804919E-3</v>
+        <v>-5.4432112578153601E-3</v>
       </c>
       <c r="D33">
-        <v>5.4363029999986434E-3</v>
+        <v>4.6502924614257451E-3</v>
       </c>
       <c r="E33">
-        <v>1.821981905602436E-3</v>
+        <v>1.6114782856802856E-3</v>
       </c>
       <c r="F33">
-        <v>-1.9556852604923347E-3</v>
+        <v>-1.880545612479399E-3</v>
       </c>
       <c r="G33">
-        <v>-2.0661728669617452E-3</v>
+        <v>-1.6813853030542437E-3</v>
       </c>
       <c r="H33">
-        <v>-6.70754122606433E-4</v>
+        <v>-5.2220506400880117E-4</v>
       </c>
       <c r="I33">
-        <v>-1.2768348024116971E-4</v>
+        <v>-1.0026510921381997E-3</v>
       </c>
       <c r="J33">
-        <v>-7.0850659644287788E-3</v>
+        <v>-9.5497000105733178E-3</v>
       </c>
       <c r="K33">
-        <v>-2.0252557054017467E-3</v>
+        <v>-3.0119820770947818E-3</v>
       </c>
       <c r="L33">
-        <v>-1.2737612683319027E-3</v>
+        <v>-3.4084490065596166E-3</v>
       </c>
       <c r="M33">
-        <v>2.1548226179274816E-3</v>
+        <v>3.1388993934230581E-3</v>
       </c>
       <c r="N33">
-        <v>4.7434761539023721E-4</v>
+        <v>6.3044888427196417E-4</v>
       </c>
       <c r="O33">
-        <v>1.537504875235481E-3</v>
+        <v>2.2747004182086077E-3</v>
       </c>
       <c r="P33">
-        <v>7.4478461168459076E-2</v>
+        <v>4.2601876575930994E-2</v>
       </c>
       <c r="Q33">
-        <v>6.8658977524503104E-2</v>
+        <v>3.5008338055763831E-2</v>
       </c>
       <c r="R33">
-        <v>9.9177768047329484E-3</v>
+        <v>1.1653892855129041E-2</v>
       </c>
       <c r="S33">
-        <v>1.8724870759242946E-3</v>
+        <v>2.1158968505334184E-3</v>
       </c>
       <c r="T33">
-        <v>4.5469867776474587E-4</v>
+        <v>4.5539948011692034E-4</v>
       </c>
       <c r="U33">
-        <v>8.4589247642057205E-4</v>
+        <v>1.07441629424037E-3</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-2.696383646667935E-3</v>
+        <v>-3.5730557833225226E-3</v>
       </c>
       <c r="B34">
-        <v>-6.9520437454229089E-4</v>
+        <v>-1.0693101424859635E-3</v>
       </c>
       <c r="C34">
-        <v>-4.2188177595883962E-3</v>
+        <v>-5.0673078018236024E-3</v>
       </c>
       <c r="D34">
-        <v>5.395556055755763E-3</v>
+        <v>4.5993830473911998E-3</v>
       </c>
       <c r="E34">
-        <v>1.8008290742421039E-3</v>
+        <v>1.5897150921977239E-3</v>
       </c>
       <c r="F34">
-        <v>-1.909527111368825E-3</v>
+        <v>-1.8340773122407844E-3</v>
       </c>
       <c r="G34">
-        <v>-2.0568687625526464E-3</v>
+        <v>-1.7455293007104661E-3</v>
       </c>
       <c r="H34">
-        <v>-6.3836562552019001E-4</v>
+        <v>-5.1746882664900477E-4</v>
       </c>
       <c r="I34">
-        <v>-6.8596126859369708E-5</v>
+        <v>-8.6270034191752889E-4</v>
       </c>
       <c r="J34">
-        <v>-7.022295239058618E-3</v>
+        <v>-9.4636480267631575E-3</v>
       </c>
       <c r="K34">
-        <v>-1.9497216567799975E-3</v>
+        <v>-2.9181168444576723E-3</v>
       </c>
       <c r="L34">
-        <v>-1.008595854934587E-3</v>
+        <v>-3.0078790307201874E-3</v>
       </c>
       <c r="M34">
-        <v>2.1755900686475371E-3</v>
+        <v>3.1274815233507183E-3</v>
       </c>
       <c r="N34">
-        <v>4.9725959869163013E-4</v>
+        <v>6.6772934963447452E-4</v>
       </c>
       <c r="O34">
-        <v>1.2789245806220343E-3</v>
+        <v>1.9682033036721534E-3</v>
       </c>
       <c r="P34">
-        <v>7.2980401450391696E-2</v>
+        <v>4.1482183022301056E-2</v>
       </c>
       <c r="Q34">
-        <v>6.7123092782739605E-2</v>
+        <v>3.396928800318455E-2</v>
       </c>
       <c r="R34">
-        <v>9.863727919317512E-3</v>
+        <v>1.129191025158096E-2</v>
       </c>
       <c r="S34">
-        <v>1.865183516450893E-3</v>
+        <v>2.0831473455227402E-3</v>
       </c>
       <c r="T34">
-        <v>4.576712233490543E-4</v>
+        <v>4.6321940513151385E-4</v>
       </c>
       <c r="U34">
-        <v>6.9429563709590603E-4</v>
+        <v>9.2258365767473437E-4</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-2.6320154565982034E-3</v>
+        <v>-3.4904705779363709E-3</v>
       </c>
       <c r="B35">
-        <v>-6.7312134660443531E-4</v>
+        <v>-1.0375716455016354E-3</v>
       </c>
       <c r="C35">
-        <v>-3.8565172868064591E-3</v>
+        <v>-4.7177543308076367E-3</v>
       </c>
       <c r="D35">
-        <v>5.3529233021962531E-3</v>
+        <v>4.5474921588325324E-3</v>
       </c>
       <c r="E35">
-        <v>1.7792482441508588E-3</v>
+        <v>1.5678398828242982E-3</v>
       </c>
       <c r="F35">
-        <v>-1.8657699131318342E-3</v>
+        <v>-1.7897110689432338E-3</v>
       </c>
       <c r="G35">
-        <v>-2.0300390112584837E-3</v>
+        <v>-1.7808473215424872E-3</v>
       </c>
       <c r="H35">
-        <v>-6.0643637546385165E-4</v>
+        <v>-5.0872854364378197E-4</v>
       </c>
       <c r="I35">
-        <v>-2.20064459386012E-5</v>
+        <v>-7.408847816824471E-4</v>
       </c>
       <c r="J35">
-        <v>-6.9190588763569094E-3</v>
+        <v>-9.3234612778829891E-3</v>
       </c>
       <c r="K35">
-        <v>-1.872197647241854E-3</v>
+        <v>-2.817689135517297E-3</v>
       </c>
       <c r="L35">
-        <v>-7.8238250416661707E-4</v>
+        <v>-2.6477086907954559E-3</v>
       </c>
       <c r="M35">
-        <v>2.1804915653609808E-3</v>
+        <v>3.096845910935606E-3</v>
       </c>
       <c r="N35">
-        <v>5.1119337451267636E-4</v>
+        <v>6.9194507194461901E-4</v>
       </c>
       <c r="O35">
-        <v>1.0588033867663998E-3</v>
+        <v>1.7011501670641906E-3</v>
       </c>
       <c r="P35">
-        <v>7.1521488335906075E-2</v>
+        <v>4.0408763645716161E-2</v>
       </c>
       <c r="Q35">
-        <v>6.5625746062254853E-2</v>
+        <v>3.2974936459207606E-2</v>
       </c>
       <c r="R35">
-        <v>9.781627133577657E-3</v>
+        <v>1.0923127804134286E-2</v>
       </c>
       <c r="S35">
-        <v>1.847057015065169E-3</v>
+        <v>2.0404235177002164E-3</v>
       </c>
       <c r="T35">
-        <v>4.5591715072981455E-4</v>
+        <v>4.6501018458911859E-4</v>
       </c>
       <c r="U35">
-        <v>5.658067899216425E-4</v>
+        <v>7.910219225643418E-4</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-2.5661185466165667E-3</v>
+        <v>-3.405292479382619E-3</v>
       </c>
       <c r="B36">
-        <v>-6.5069818999640024E-4</v>
+        <v>-1.0054336747530161E-3</v>
       </c>
       <c r="C36">
-        <v>-3.52348272764649E-3</v>
+        <v>-4.3927880000571885E-3</v>
       </c>
       <c r="D36">
-        <v>5.3083537761913829E-3</v>
+        <v>4.4946421846808852E-3</v>
       </c>
       <c r="E36">
-        <v>1.7572628069176071E-3</v>
+        <v>1.5458640429245221E-3</v>
       </c>
       <c r="F36">
-        <v>-1.8241099986082451E-3</v>
+        <v>-1.7472517118851823E-3</v>
       </c>
       <c r="G36">
-        <v>-1.9896554909142822E-3</v>
+        <v>-1.7926154573712657E-3</v>
       </c>
       <c r="H36">
-        <v>-5.7523782809905236E-4</v>
+        <v>-4.9687973594592539E-4</v>
       </c>
       <c r="I36">
-        <v>1.4550502200055209E-5</v>
+        <v>-6.3471188096617733E-4</v>
       </c>
       <c r="J36">
-        <v>-6.7827923743234925E-3</v>
+        <v>-9.138427818418015E-3</v>
       </c>
       <c r="K36">
-        <v>-1.7936833543719234E-3</v>
+        <v>-2.7125160550857301E-3</v>
       </c>
       <c r="L36">
-        <v>-5.9023455069675797E-4</v>
+        <v>-2.3245006365611308E-3</v>
       </c>
       <c r="M36">
-        <v>2.1714428839488451E-3</v>
+        <v>3.0497180347842257E-3</v>
       </c>
       <c r="N36">
-        <v>5.1779753820005133E-4</v>
+        <v>7.0533581503247767E-4</v>
       </c>
       <c r="O36">
-        <v>8.7167398257927597E-4</v>
+        <v>1.4684597186122885E-3</v>
       </c>
       <c r="P36">
-        <v>7.009878588650198E-2</v>
+        <v>3.9376820250915379E-2</v>
       </c>
       <c r="Q36">
-        <v>6.4164987471104967E-2</v>
+        <v>3.2021633211271182E-2</v>
       </c>
       <c r="R36">
-        <v>9.676503202085289E-3</v>
+        <v>1.0551680586381179E-2</v>
       </c>
       <c r="S36">
-        <v>1.8197442782754826E-3</v>
+        <v>1.9895134577637423E-3</v>
       </c>
       <c r="T36">
-        <v>4.504102888837316E-4</v>
+        <v>4.6197629127877173E-4</v>
       </c>
       <c r="U36">
-        <v>4.5705904670328978E-4</v>
+        <v>6.7696547410472322E-4</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-2.4986773330112223E-3</v>
+        <v>-3.3177534507460205E-3</v>
       </c>
       <c r="B37">
-        <v>-6.2803412751707055E-4</v>
+        <v>-9.7302624398640919E-4</v>
       </c>
       <c r="C37">
-        <v>-3.2176392658149634E-3</v>
+        <v>-4.0907459294564005E-3</v>
       </c>
       <c r="D37">
-        <v>5.2618360721004009E-3</v>
+        <v>4.4408733738667246E-3</v>
       </c>
       <c r="E37">
-        <v>1.7349010033166788E-3</v>
+        <v>1.5238029793345374E-3</v>
       </c>
       <c r="F37">
-        <v>-1.7842895240980372E-3</v>
+        <v>-1.7065291148473209E-3</v>
       </c>
       <c r="G37">
-        <v>-1.93895893304668E-3</v>
+        <v>-1.7852766195175971E-3</v>
       </c>
       <c r="H37">
-        <v>-5.4496039827332343E-4</v>
+        <v>-4.8265791466554615E-4</v>
       </c>
       <c r="I37">
-        <v>4.3035231897624473E-5</v>
+        <v>-5.4208689063138516E-4</v>
       </c>
       <c r="J37">
-        <v>-6.619991375263614E-3</v>
+        <v>-8.9167901337175431E-3</v>
       </c>
       <c r="K37">
-        <v>-1.7150066322957408E-3</v>
+        <v>-2.6041615368553694E-3</v>
       </c>
       <c r="L37">
-        <v>-4.2778079964883586E-4</v>
+        <v>-2.0350179188604813E-3</v>
       </c>
       <c r="M37">
-        <v>2.1502889231505748E-3</v>
+        <v>2.9886439174866288E-3</v>
       </c>
       <c r="N37">
-        <v>5.1846562881779912E-4</v>
+        <v>7.0981977403804047E-4</v>
       </c>
       <c r="O37">
-        <v>7.1282170475104071E-4</v>
+        <v>1.2657135873599572E-3</v>
       </c>
       <c r="P37">
-        <v>6.8709675477412649E-2</v>
+        <v>3.8382213776557352E-2</v>
       </c>
       <c r="Q37">
-        <v>6.2739109275242191E-2</v>
+        <v>3.1106220717841252E-2</v>
       </c>
       <c r="R37">
-        <v>9.5526342319372636E-3</v>
+        <v>1.0180902810238332E-2</v>
       </c>
       <c r="S37">
-        <v>1.7847427316023401E-3</v>
+        <v>1.9320188972985822E-3</v>
       </c>
       <c r="T37">
-        <v>4.419597048649113E-4</v>
+        <v>4.5511985986032485E-4</v>
       </c>
       <c r="U37">
-        <v>3.6517255519086245E-4</v>
+        <v>5.7805050721880069E-4</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-2.4297655285091041E-3</v>
+        <v>-3.2281413750980714E-3</v>
       </c>
       <c r="B38">
-        <v>-6.0522729244261782E-4</v>
+        <v>-9.4047573822747315E-4</v>
       </c>
       <c r="C38">
-        <v>-2.9370143793758918E-3</v>
+        <v>-3.8100629422648711E-3</v>
       </c>
       <c r="D38">
-        <v>5.2133911776764096E-3</v>
+        <v>4.3862399399778535E-3</v>
       </c>
       <c r="E38">
-        <v>1.7121945178389633E-3</v>
+        <v>1.501674959573129E-3</v>
       </c>
       <c r="F38">
-        <v>-1.7460895592506828E-3</v>
+        <v>-1.6673945486933071E-3</v>
       </c>
       <c r="G38">
-        <v>-1.8805905640482494E-3</v>
+        <v>-1.7625718534606349E-3</v>
       </c>
       <c r="H38">
-        <v>-5.1573301375483027E-4</v>
+        <v>-4.6666734213822913E-4</v>
       </c>
       <c r="I38">
-        <v>6.5012433727307251E-5</v>
+        <v>-4.6123788387016063E-4</v>
       </c>
       <c r="J38">
-        <v>-6.436301307082639E-3</v>
+        <v>-8.6658269692511791E-3</v>
       </c>
       <c r="K38">
-        <v>-1.6368465707072904E-3</v>
+        <v>-2.4939634535128341E-3</v>
       </c>
       <c r="L38">
-        <v>-2.911307432310421E-4</v>
+        <v>-1.7762319385842902E-3</v>
       </c>
       <c r="M38">
-        <v>2.1187721036930573E-3</v>
+        <v>2.9159714533643073E-3</v>
       </c>
       <c r="N38">
-        <v>5.143711199979016E-4</v>
+        <v>7.0703491257325703E-4</v>
       </c>
       <c r="O38">
-        <v>5.7818719394483098E-4</v>
+        <v>1.0890714116510436E-3</v>
       </c>
       <c r="P38">
-        <v>6.7351835185616812E-2</v>
+        <v>3.7421388883186607E-2</v>
       </c>
       <c r="Q38">
-        <v>6.1346607870547749E-2</v>
+        <v>3.0225956721709215E-2</v>
       </c>
       <c r="R38">
-        <v>9.4136565393714219E-3</v>
+        <v>9.8134624737424708E-3</v>
       </c>
       <c r="S38">
-        <v>1.7434085677219516E-3</v>
+        <v>1.8693634522817984E-3</v>
       </c>
       <c r="T38">
-        <v>4.3123618874015462E-4</v>
+        <v>4.4527370226149596E-4</v>
       </c>
       <c r="U38">
-        <v>2.8768370471550969E-4</v>
+        <v>4.922523599596542E-4</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-2.359523016704267E-3</v>
+        <v>-3.136780899023309E-3</v>
       </c>
       <c r="B39">
-        <v>-5.823724934888462E-4</v>
+        <v>-9.0790287958951498E-4</v>
       </c>
       <c r="C39">
-        <v>-2.679741005405615E-3</v>
+        <v>-3.549268542760007E-3</v>
       </c>
       <c r="D39">
-        <v>5.1630663015938983E-3</v>
+        <v>4.3308067604185298E-3</v>
       </c>
       <c r="E39">
-        <v>1.6891773414788006E-3</v>
+        <v>1.479500186053716E-3</v>
       </c>
       <c r="F39">
-        <v>-1.7093242298283722E-3</v>
+        <v>-1.6297176317279125E-3</v>
       </c>
       <c r="G39">
-        <v>-1.8166993198252114E-3</v>
+        <v>-1.7276496565361401E-3</v>
       </c>
       <c r="H39">
-        <v>-4.8763810182483262E-4</v>
+        <v>-4.4940426007134628E-4</v>
       </c>
       <c r="I39">
-        <v>8.1735306210010503E-5</v>
+        <v>-3.9065672189277095E-4</v>
       </c>
       <c r="J39">
-        <v>-6.2366032194921539E-3</v>
+        <v>-8.3919342064263797E-3</v>
       </c>
       <c r="K39">
-        <v>-1.5597540732846188E-3</v>
+        <v>-2.3830586314367215E-3</v>
       </c>
       <c r="L39">
-        <v>-1.7683681430570431E-4</v>
+        <v>-1.545324117989392E-3</v>
       </c>
       <c r="M39">
-        <v>2.0785126675162907E-3</v>
+        <v>2.8338419818267927E-3</v>
       </c>
       <c r="N39">
-        <v>5.0649866186351796E-4</v>
+        <v>6.9837596082709627E-4</v>
       </c>
       <c r="O39">
-        <v>4.642794805728588E-4</v>
+        <v>9.3519543394753198E-4</v>
       </c>
       <c r="P39">
-        <v>6.6023216960069728E-2</v>
+        <v>3.6491303822662857E-2</v>
       </c>
       <c r="Q39">
-        <v>5.9986151773621973E-2</v>
+        <v>2.9378449317249238E-2</v>
       </c>
       <c r="R39">
-        <v>9.2626577859587812E-3</v>
+        <v>9.4514739081645992E-3</v>
       </c>
       <c r="S39">
-        <v>1.6969590593845568E-3</v>
+        <v>1.8028030639988491E-3</v>
       </c>
       <c r="T39">
-        <v>4.1879454721436036E-4</v>
+        <v>4.3312887631850481E-4</v>
       </c>
       <c r="U39">
-        <v>2.2248464511463265E-4</v>
+        <v>4.178331428586476E-4</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-2.2881368854109014E-3</v>
+        <v>-3.0440180203801198E-3</v>
       </c>
       <c r="B40">
-        <v>-5.5955961755257044E-4</v>
+        <v>-8.754212967856047E-4</v>
       </c>
       <c r="C40">
-        <v>-2.4440585909684242E-3</v>
+        <v>-3.3069833782736857E-3</v>
       </c>
       <c r="D40">
-        <v>5.110929573144728E-3</v>
+        <v>4.2746465889530443E-3</v>
       </c>
       <c r="E40">
-        <v>1.6658848551262416E-3</v>
+        <v>1.4573000591190334E-3</v>
       </c>
       <c r="F40">
-        <v>-1.673835746058024E-3</v>
+        <v>-1.5933837653132686E-3</v>
       </c>
       <c r="G40">
-        <v>-1.7490293774385811E-3</v>
+        <v>-1.6831573096627204E-3</v>
       </c>
       <c r="H40">
-        <v>-4.6072306453079668E-4</v>
+        <v>-4.3127572172972189E-4</v>
       </c>
       <c r="I40">
-        <v>9.4211149794378964E-5</v>
+        <v>-3.2905232745448462E-4</v>
       </c>
       <c r="J40">
-        <v>-6.0250947337614985E-3</v>
+        <v>-8.1007033570184416E-3</v>
       </c>
       <c r="K40">
-        <v>-1.4841701010241219E-3</v>
+        <v>-2.2724057726420679E-3</v>
       </c>
       <c r="L40">
-        <v>-8.1855713200098786E-5</v>
+        <v>-1.3396830404589118E-3</v>
       </c>
       <c r="M40">
-        <v>2.0309979138667758E-3</v>
+        <v>2.7441893712088546E-3</v>
       </c>
       <c r="N40">
-        <v>4.9567161279897827E-4</v>
+        <v>6.8502720571357882E-4</v>
       </c>
       <c r="O40">
-        <v>3.680991659113015E-4</v>
+        <v>8.0118412023300306E-4</v>
       </c>
       <c r="P40">
-        <v>6.4722022829934153E-2</v>
+        <v>3.5589365987186899E-2</v>
       </c>
       <c r="Q40">
-        <v>5.8656554695293565E-2</v>
+        <v>2.8561602470111143E-2</v>
       </c>
       <c r="R40">
-        <v>9.1022566376400705E-3</v>
+        <v>9.0965918329826544E-3</v>
       </c>
       <c r="S40">
-        <v>1.6464778338081008E-3</v>
+        <v>1.733437728580964E-3</v>
       </c>
       <c r="T40">
-        <v>4.0509235938857642E-4</v>
+        <v>4.1925771667995082E-4</v>
       </c>
       <c r="U40">
-        <v>1.6777164071918316E-4</v>
+        <v>3.5329794097863282E-4</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-2.2158259880412029E-3</v>
+        <v>-2.9502078147424005E-3</v>
       </c>
       <c r="B41">
-        <v>-5.3687253698914139E-4</v>
+        <v>-8.4313657042814241E-4</v>
       </c>
       <c r="C41">
-        <v>-2.2283125007584261E-3</v>
+        <v>-3.0819153690087621E-3</v>
       </c>
       <c r="D41">
-        <v>5.0570655073484622E-3</v>
+        <v>4.2178377116225199E-3</v>
       </c>
       <c r="E41">
-        <v>1.6423530945980985E-3</v>
+        <v>1.4350965923758795E-3</v>
       </c>
       <c r="F41">
-        <v>-1.6394901781842479E-3</v>
+        <v>-1.5582919666925158E-3</v>
       </c>
       <c r="G41">
-        <v>-1.6789917832503967E-3</v>
+        <v>-1.6313174379139715E-3</v>
       </c>
       <c r="H41">
-        <v>-4.3500905829959826E-4</v>
+        <v>-4.1261492196859137E-4</v>
       </c>
       <c r="I41">
-        <v>1.0325248799805984E-4</v>
+        <v>-2.7531349904685355E-4</v>
       </c>
       <c r="J41">
-        <v>-5.8053654646004326E-3</v>
+        <v>-7.7969966836025631E-3</v>
       </c>
       <c r="K41">
-        <v>-1.4104417524990291E-3</v>
+        <v>-2.1628063371315382E-3</v>
       </c>
       <c r="L41">
-        <v>-3.510224843868611E-6</v>
+        <v>-1.1568983947259667E-3</v>
       </c>
       <c r="M41">
-        <v>1.977578048169695E-3</v>
+        <v>2.648744492829605E-3</v>
       </c>
       <c r="N41">
-        <v>4.8257606438188868E-4</v>
+        <v>6.6799133834445992E-4</v>
       </c>
       <c r="O41">
-        <v>2.8707103927062057E-4</v>
+        <v>6.8451409854885625E-4</v>
       </c>
       <c r="P41">
-        <v>6.3446681062065802E-2</v>
+        <v>3.4713373258072999E-2</v>
       </c>
       <c r="Q41">
-        <v>5.7356752901032801E-2</v>
+        <v>2.7773570302742166E-2</v>
       </c>
       <c r="R41">
-        <v>8.934670885466801E-3</v>
+        <v>8.7500899542708021E-3</v>
       </c>
       <c r="S41">
-        <v>1.5929221130142304E-3</v>
+        <v>1.6622238463057735E-3</v>
       </c>
       <c r="T41">
-        <v>3.9050575013151027E-4</v>
+        <v>4.0413308706262489E-4</v>
       </c>
       <c r="U41">
-        <v>1.2200097921351139E-4</v>
+        <v>2.9735814620871902E-4</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-2.1428284876985459E-3</v>
+        <v>-2.8557047852395124E-3</v>
       </c>
       <c r="B42">
-        <v>-5.1438841362397595E-4</v>
+        <v>-8.1114565215524516E-4</v>
       </c>
       <c r="C42">
-        <v>-2.0309521637204503E-3</v>
+        <v>-2.8728556429350326E-3</v>
       </c>
       <c r="D42">
-        <v>5.0015711402411961E-3</v>
+        <v>4.1604619853530343E-3</v>
       </c>
       <c r="E42">
-        <v>1.6186181653147409E-3</v>
+        <v>1.4129119512635662E-3</v>
       </c>
       <c r="F42">
-        <v>-1.6061738640004276E-3</v>
+        <v>-1.5243530293331262E-3</v>
       </c>
       <c r="G42">
-        <v>-1.6077231965958066E-3</v>
+        <v>-1.5739923889766733E-3</v>
       </c>
       <c r="H42">
-        <v>-4.1049770649549525E-4</v>
+        <v>-3.9369372838995379E-4</v>
       </c>
       <c r="I42">
-        <v>1.0951700131231788E-4</v>
+        <v>-2.2847914533866286E-4</v>
       </c>
       <c r="J42">
-        <v>-5.5804665999517177E-3</v>
+        <v>-7.4850182901205174E-3</v>
       </c>
       <c r="K42">
-        <v>-1.3388363655388066E-3</v>
+        <v>-2.0549234726818322E-3</v>
       </c>
       <c r="L42">
-        <v>6.0547520726249461E-5</v>
+        <v>-9.9475274099448453E-4</v>
       </c>
       <c r="M42">
-        <v>1.9194668301145566E-3</v>
+        <v>2.549043449285211E-3</v>
       </c>
       <c r="N42">
-        <v>4.6778164896253845E-4</v>
+        <v>6.4811469138470847E-4</v>
       </c>
       <c r="O42">
-        <v>2.1898531076339521E-4</v>
+        <v>5.8298961328753036E-4</v>
       </c>
       <c r="P42">
-        <v>6.219582291313451E-2</v>
+        <v>3.3861461078906974E-2</v>
       </c>
       <c r="Q42">
-        <v>5.6085786183658309E-2</v>
+        <v>2.7012718727941559E-2</v>
       </c>
       <c r="R42">
-        <v>8.7617756972192054E-3</v>
+        <v>8.4129266517354896E-3</v>
       </c>
       <c r="S42">
-        <v>1.5371311664254847E-3</v>
+        <v>1.5899867054712047E-3</v>
       </c>
       <c r="T42">
-        <v>3.753426517325267E-4</v>
+        <v>3.8814448624523845E-4</v>
       </c>
       <c r="U42">
-        <v>8.3851332420972443E-5</v>
+        <v>2.4890071710920202E-4</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-2.0693919137018246E-3</v>
+        <v>-2.7608553975351667E-3</v>
       </c>
       <c r="B43">
-        <v>-4.9217731230087754E-4</v>
+        <v>-7.795365759646224E-4</v>
       </c>
       <c r="C43">
-        <v>-1.850528269100587E-3</v>
+        <v>-2.6786743785784778E-3</v>
       </c>
       <c r="D43">
-        <v>4.9445527495693732E-3</v>
+        <v>4.1026032065275293E-3</v>
       </c>
       <c r="E43">
-        <v>1.5947157802794394E-3</v>
+        <v>1.3907680915889406E-3</v>
       </c>
       <c r="F43">
-        <v>-1.5737903519406997E-3</v>
+        <v>-1.4914879550894395E-3</v>
       </c>
       <c r="G43">
-        <v>-1.5361341668824623E-3</v>
+        <v>-1.5127385242520626E-3</v>
       </c>
       <c r="H43">
-        <v>-3.8717622828254243E-4</v>
+        <v>-3.7473296776757193E-4</v>
       </c>
       <c r="I43">
-        <v>1.1353880418175767E-4</v>
+        <v>-1.8771431201081219E-4</v>
       </c>
       <c r="J43">
-        <v>-5.3529745637365738E-3</v>
+        <v>-7.1683807851345045E-3</v>
       </c>
       <c r="K43">
-        <v>-1.2695538274608564E-3</v>
+        <v>-1.9492991005613312E-3</v>
       </c>
       <c r="L43">
-        <v>1.1237073597657959E-4</v>
+        <v>-8.5121186918722983E-4</v>
       </c>
       <c r="M43">
-        <v>1.8577456142708042E-3</v>
+        <v>2.4464383022668886E-3</v>
       </c>
       <c r="N43">
-        <v>4.517594555564343E-4</v>
+        <v>6.2610922363783592E-4</v>
       </c>
       <c r="O43">
-        <v>1.6194658209159638E-4</v>
+        <v>4.9469867310849311E-4</v>
       </c>
       <c r="P43">
-        <v>6.0968260417848974E-2</v>
+        <v>3.3032055044207698E-2</v>
       </c>
       <c r="Q43">
-        <v>5.4842781877759865E-2</v>
+        <v>2.6277593240716886E-2</v>
       </c>
       <c r="R43">
-        <v>8.5851534327347559E-3</v>
+        <v>8.0857998833605629E-3</v>
       </c>
       <c r="S43">
-        <v>1.4798354115709289E-3</v>
+        <v>1.5174327558511789E-3</v>
       </c>
       <c r="T43">
-        <v>3.5985395165298123E-4</v>
+        <v>3.7161153375357778E-4</v>
       </c>
       <c r="U43">
-        <v>5.2191622350810591E-5</v>
+        <v>2.0696236639083931E-4</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-1.9957653259241592E-3</v>
+        <v>-2.6659924275244254E-3</v>
       </c>
       <c r="B44">
-        <v>-4.7030205349647539E-4</v>
+        <v>-7.4838839620323732E-4</v>
       </c>
       <c r="C44">
-        <v>-1.6856892635085015E-3</v>
+        <v>-2.4983166325056707E-3</v>
       </c>
       <c r="D44">
-        <v>4.8861230856041731E-3</v>
+        <v>4.0443457636422549E-3</v>
       </c>
       <c r="E44">
-        <v>1.5706808996034938E-3</v>
+        <v>1.3686864793048541E-3</v>
       </c>
       <c r="F44">
-        <v>-1.5422577987298266E-3</v>
+        <v>-1.4596266132733827E-3</v>
       </c>
       <c r="G44">
-        <v>-1.4649488858330889E-3</v>
+        <v>-1.448852125055461E-3</v>
       </c>
       <c r="H44">
-        <v>-3.6502135482732425E-4</v>
+        <v>-3.5591090520920498E-4</v>
       </c>
       <c r="I44">
-        <v>1.1575301369629958E-4</v>
+        <v>-1.522907485889169E-4</v>
       </c>
       <c r="J44">
-        <v>-5.1250488577079499E-3</v>
+        <v>-6.8501673166536251E-3</v>
       </c>
       <c r="K44">
-        <v>-1.2027372768681056E-3</v>
+        <v>-1.846369277993147E-3</v>
       </c>
       <c r="L44">
-        <v>1.5375025593944436E-4</v>
+        <v>-7.2441432805309667E-4</v>
       </c>
       <c r="M44">
-        <v>1.7933696999609856E-3</v>
+        <v>2.3421093450723251E-3</v>
       </c>
       <c r="N44">
-        <v>4.3489738493569026E-4</v>
+        <v>6.0257160780501865E-4</v>
       </c>
       <c r="O44">
-        <v>1.1432968460875183E-4</v>
+        <v>4.1797509863817316E-4</v>
       </c>
       <c r="P44">
-        <v>5.9762965499559471E-2</v>
+        <v>3.2223828707512905E-2</v>
       </c>
       <c r="Q44">
-        <v>5.3626941434057003E-2</v>
+        <v>2.5566891871299395E-2</v>
       </c>
       <c r="R44">
-        <v>8.4061362503039336E-3</v>
+        <v>7.7691930853705489E-3</v>
       </c>
       <c r="S44">
-        <v>1.4216657467293675E-3</v>
+        <v>1.4451614333170415E-3</v>
       </c>
       <c r="T44">
-        <v>3.44242861991738E-4</v>
+        <v>3.5479527218844939E-4</v>
       </c>
       <c r="U44">
-        <v>2.6053582216597111E-5</v>
+        <v>1.7070784637001132E-4</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-1.9221932396851586E-3</v>
+        <v>-2.5714308056629942E-3</v>
       </c>
       <c r="B45">
-        <v>-4.4881824814845754E-4</v>
+        <v>-7.1777129944615426E-4</v>
       </c>
       <c r="C45">
-        <v>-1.5351773522370037E-3</v>
+        <v>-2.3307982085499939E-3</v>
       </c>
       <c r="D45">
-        <v>4.8263990453869159E-3</v>
+        <v>3.985773534108057E-3</v>
       </c>
       <c r="E45">
-        <v>1.5465474535768767E-3</v>
+        <v>1.3466878763904713E-3</v>
       </c>
       <c r="F45">
-        <v>-1.5115067533253918E-3</v>
+        <v>-1.4287065901393385E-3</v>
       </c>
       <c r="G45">
-        <v>-1.3947379784721653E-3</v>
+        <v>-1.3834083035294358E-3</v>
       </c>
       <c r="H45">
-        <v>-3.4400231725056289E-4</v>
+        <v>-3.3737026223442626E-4</v>
       </c>
       <c r="I45">
-        <v>1.1651511112809043E-4</v>
+        <v>-1.2157104941608297E-4</v>
       </c>
       <c r="J45">
-        <v>-4.8984842971905801E-3</v>
+        <v>-6.5329889246783322E-3</v>
       </c>
       <c r="K45">
-        <v>-1.1384823714790659E-3</v>
+        <v>-1.7464779638300071E-3</v>
       </c>
       <c r="L45">
-        <v>1.8624423796614268E-4</v>
+        <v>-6.1266055582718886E-4</v>
       </c>
       <c r="M45">
-        <v>1.7271761634152598E-3</v>
+        <v>2.2370782004284898E-3</v>
       </c>
       <c r="N45">
-        <v>4.1751326169640429E-4</v>
+        <v>5.7799976055458203E-4</v>
       </c>
       <c r="O45">
-        <v>7.4741558089730376E-5</v>
+        <v>3.5136573049582574E-4</v>
       </c>
       <c r="P45">
-        <v>5.8579050572556093E-2</v>
+        <v>3.1435666259961963E-2</v>
       </c>
       <c r="Q45">
-        <v>5.2437529147405057E-2</v>
+        <v>2.4879442464244582E-2</v>
       </c>
       <c r="R45">
-        <v>8.2258425538796719E-3</v>
+        <v>7.4634135501930087E-3</v>
       </c>
       <c r="S45">
-        <v>1.3631628143746274E-3</v>
+        <v>1.3736763777792366E-3</v>
       </c>
       <c r="T45">
-        <v>3.2867279341004655E-4</v>
+        <v>3.3790764898246345E-4</v>
       </c>
       <c r="U45">
-        <v>4.6083202420536358E-6</v>
+        <v>1.3941164493175E-4</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-1.8489110139316362E-3</v>
+        <v>-2.4774646900715147E-3</v>
       </c>
       <c r="B46">
-        <v>-4.2777446893947174E-4</v>
+        <v>-6.8774684773773389E-4</v>
       </c>
       <c r="C46">
-        <v>-1.3978241683400066E-3</v>
+        <v>-2.1752016107347708E-3</v>
       </c>
       <c r="D46">
-        <v>4.7654997314660425E-3</v>
+        <v>3.9269689904257643E-3</v>
       </c>
       <c r="E46">
-        <v>1.5223481343660311E-3</v>
+        <v>1.3247921805359844E-3</v>
       </c>
       <c r="F46">
-        <v>-1.4814782694767671E-3</v>
+        <v>-1.3986721989195929E-3</v>
       </c>
       <c r="G46">
-        <v>-1.3259455954628407E-3</v>
+        <v>-1.3172940572757496E-3</v>
       </c>
       <c r="H46">
-        <v>-3.2408312409404338E-4</v>
+        <v>-3.192240484702718E-4</v>
       </c>
       <c r="I46">
-        <v>1.1611625339616151E-4</v>
+        <v>-9.4995621896943401E-5</v>
       </c>
       <c r="J46">
-        <v>-4.6747579340390795E-3</v>
+        <v>-6.2190372662129017E-3</v>
       </c>
       <c r="K46">
-        <v>-1.0768452851896797E-3</v>
+        <v>-1.6498893147883407E-3</v>
       </c>
       <c r="L46">
-        <v>2.1120523822630731E-4</v>
+        <v>-5.1440192899162033E-4</v>
       </c>
       <c r="M46">
-        <v>1.659892547612069E-3</v>
+        <v>2.1322212086412697E-3</v>
       </c>
       <c r="N46">
-        <v>3.998659979069847E-4</v>
+        <v>5.528071288905201E-4</v>
       </c>
       <c r="O46">
-        <v>4.1988407762248871E-5</v>
+        <v>2.9360212517425487E-4</v>
       </c>
       <c r="P46">
-        <v>5.7415750718314222E-2</v>
+        <v>3.0666629702798015E-2</v>
       </c>
       <c r="Q46">
-        <v>5.1273862696132495E-2</v>
+        <v>2.4214183584571031E-2</v>
       </c>
       <c r="R46">
-        <v>8.0452081779949294E-3</v>
+        <v>7.1686245181708736E-3</v>
       </c>
       <c r="S46">
-        <v>1.3047859832107595E-3</v>
+        <v>1.3033959470640927E-3</v>
       </c>
       <c r="T46">
-        <v>3.1327397148366791E-4</v>
+        <v>3.2111947872543947E-4</v>
       </c>
       <c r="U46">
-        <v>-1.2853704202126565E-5</v>
+        <v>1.1244252280429087E-4</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-1.7761414489331957E-3</v>
+        <v>-2.3843655418502785E-3</v>
       </c>
       <c r="B47">
-        <v>-4.072125213316655E-4</v>
+        <v>-6.5836831891847225E-4</v>
       </c>
       <c r="C47">
-        <v>-1.2725462402694504E-3</v>
+        <v>-2.0306721102673411E-3</v>
       </c>
       <c r="D47">
-        <v>4.7035448431605393E-3</v>
+        <v>3.8680124854797754E-3</v>
       </c>
       <c r="E47">
-        <v>1.4981142439579659E-3</v>
+        <v>1.3030183086037087E-3</v>
       </c>
       <c r="F47">
-        <v>-1.4521222980718267E-3</v>
+        <v>-1.3694736258172569E-3</v>
       </c>
       <c r="G47">
-        <v>-1.258911829175233E-3</v>
+        <v>-1.2512364050580097E-3</v>
       </c>
       <c r="H47">
-        <v>-3.0522429490135544E-4</v>
+        <v>-3.0156042564650576E-4</v>
       </c>
       <c r="I47">
-        <v>1.1479542712175859E-4</v>
+        <v>-7.2071902785166212E-5</v>
       </c>
       <c r="J47">
-        <v>-4.4550710083765726E-3</v>
+        <v>-5.9101328457791041E-3</v>
       </c>
       <c r="K47">
-        <v>-1.0178495848146994E-3</v>
+        <v>-1.5567986371296666E-3</v>
       </c>
       <c r="L47">
-        <v>2.2980471182120702E-4</v>
+        <v>-4.2822995795004689E-4</v>
       </c>
       <c r="M47">
-        <v>1.5921459443522707E-3</v>
+        <v>2.028282715032294E-3</v>
       </c>
       <c r="N47">
-        <v>3.8216507503620171E-4</v>
+        <v>5.2733501786654752E-4</v>
       </c>
       <c r="O47">
-        <v>1.5047450029775305E-5</v>
+        <v>2.4357613742840035E-4</v>
       </c>
       <c r="P47">
-        <v>5.6272407454178164E-2</v>
+        <v>2.991593012779083E-2</v>
       </c>
       <c r="Q47">
-        <v>5.0135305204480514E-2</v>
+        <v>2.3570148465842305E-2</v>
       </c>
       <c r="R47">
-        <v>7.8650130761502412E-3</v>
+        <v>6.8848720126479176E-3</v>
       </c>
       <c r="S47">
-        <v>1.2469219048599151E-3</v>
+        <v>1.2346629742795365E-3</v>
       </c>
       <c r="T47">
-        <v>2.9814899561996725E-4</v>
+        <v>3.0456713605677067E-4</v>
       </c>
       <c r="U47">
-        <v>-2.6939795321115037E-5</v>
+        <v>8.9250421030658675E-5</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-1.7040923774575987E-3</v>
+        <v>-2.2923810113830889E-3</v>
       </c>
       <c r="B48">
-        <v>-3.8716778503418886E-4</v>
+        <v>-6.2968111643980549E-4</v>
       </c>
       <c r="C48">
-        <v>-1.1583403619754603E-3</v>
+        <v>-1.8964139480581966E-3</v>
       </c>
       <c r="D48">
-        <v>4.6406533546395779E-3</v>
+        <v>3.8089816906387202E-3</v>
       </c>
       <c r="E48">
-        <v>1.4738755880695756E-3</v>
+        <v>1.281384115661359E-3</v>
       </c>
       <c r="F48">
-        <v>-1.423396317865058E-3</v>
+        <v>-1.3410661915859753E-3</v>
       </c>
       <c r="G48">
-        <v>-1.1938912836147514E-3</v>
+        <v>-1.1858263779737398E-3</v>
       </c>
       <c r="H48">
-        <v>-2.8738417729857254E-4</v>
+        <v>-2.8444677859659366E-4</v>
       </c>
       <c r="I48">
-        <v>1.1274913473716428E-4</v>
+        <v>-5.2365371851498416E-5</v>
       </c>
       <c r="J48">
-        <v>-4.2403862962708937E-3</v>
+        <v>-5.6077689390946327E-3</v>
       </c>
       <c r="K48">
-        <v>-9.6149212361695206E-4</v>
+        <v>-1.4673421139544272E-3</v>
       </c>
       <c r="L48">
-        <v>2.4305504327285879E-4</v>
+        <v>-3.5286579125446413E-4</v>
       </c>
       <c r="M48">
-        <v>1.5244721276677703E-3</v>
+        <v>1.9258879775068038E-3</v>
       </c>
       <c r="N48">
-        <v>3.645785815550738E-4</v>
+        <v>5.0186321481597725E-4</v>
       </c>
       <c r="O48">
-        <v>-6.9573680353170646E-6</v>
+        <v>2.0031885794551143E-4</v>
       </c>
       <c r="P48">
-        <v>5.5148454067271077E-2</v>
+        <v>2.9182902723099206E-2</v>
       </c>
       <c r="Q48">
-        <v>4.9021258585563186E-2</v>
+        <v>2.2946451510431801E-2</v>
       </c>
       <c r="R48">
-        <v>7.685904166200198E-3</v>
+        <v>6.6121072763161868E-3</v>
       </c>
       <c r="S48">
-        <v>1.1898925532534009E-3</v>
+        <v>1.1677537491988652E-3</v>
       </c>
       <c r="T48">
-        <v>2.8337750878585738E-4</v>
+        <v>2.8835818674922275E-4</v>
       </c>
       <c r="U48">
-        <v>-3.8169655029371726E-5</v>
+        <v>6.9355348682685727E-5</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-1.6329550660833094E-3</v>
+        <v>-2.2017344746473023E-3</v>
       </c>
       <c r="B49">
-        <v>-3.6766960261113639E-4</v>
+        <v>-6.0172322650082447E-4</v>
       </c>
       <c r="C49">
-        <v>-1.0542789472623992E-3</v>
+        <v>-1.7716866873366951E-3</v>
       </c>
       <c r="D49">
-        <v>4.5769424396939267E-3</v>
+        <v>3.7499511638044857E-3</v>
       </c>
       <c r="E49">
-        <v>1.4496604074782618E-3</v>
+        <v>1.2599063428536995E-3</v>
       </c>
       <c r="F49">
-        <v>-1.3952641694225327E-3</v>
+        <v>-1.3134097117334033E-3</v>
       </c>
       <c r="G49">
-        <v>-1.1310684740685566E-3</v>
+        <v>-1.1215395082658361E-3</v>
       </c>
       <c r="H49">
-        <v>-2.7051994494823689E-4</v>
+        <v>-2.6793313338430191E-4</v>
       </c>
       <c r="I49">
-        <v>1.1013914591824954E-4</v>
+        <v>-3.5492011069435033E-5</v>
       </c>
       <c r="J49">
-        <v>-4.0314612294366382E-3</v>
+        <v>-5.3131514338638055E-3</v>
       </c>
       <c r="K49">
-        <v>-9.0774807540641407E-4</v>
+        <v>-1.3816054220917692E-3</v>
       </c>
       <c r="L49">
-        <v>2.5182925189663291E-4</v>
+        <v>-2.8715013883620015E-4</v>
       </c>
       <c r="M49">
-        <v>1.4573244945902768E-3</v>
+        <v>1.8255555015980565E-3</v>
       </c>
       <c r="N49">
-        <v>3.4724001492456952E-4</v>
+        <v>4.7661913619065973E-4</v>
       </c>
       <c r="O49">
-        <v>-2.4776218126046049E-5</v>
+        <v>1.6298244123366906E-4</v>
       </c>
       <c r="P49">
-        <v>5.4043402454642155E-2</v>
+        <v>2.8466985134540747E-2</v>
       </c>
       <c r="Q49">
-        <v>4.7931157960740101E-2</v>
+        <v>2.2342276931901765E-2</v>
       </c>
       <c r="R49">
-        <v>7.5084148903806769E-3</v>
+        <v>6.3502055238294271E-3</v>
       </c>
       <c r="S49">
-        <v>1.1339626939487818E-3</v>
+        <v>1.1028862279826614E-3</v>
       </c>
       <c r="T49">
-        <v>2.6902011944334662E-4</v>
+        <v>2.7257612953018905E-4</v>
       </c>
       <c r="U49">
-        <v>-4.6987901347050887E-5</v>
+        <v>5.233792791408438E-5</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-1.5629032715443285E-3</v>
+        <v>-2.1126250843952364E-3</v>
       </c>
       <c r="B50">
-        <v>-3.4874169685349891E-4</v>
+        <v>-5.7452570477203185E-4</v>
       </c>
       <c r="C50">
-        <v>-9.595054320505706E-4</v>
+        <v>-1.6558017256176085E-3</v>
       </c>
       <c r="D50">
-        <v>4.5125266080596254E-3</v>
+        <v>3.6909920275718148E-3</v>
       </c>
       <c r="E50">
-        <v>1.4254953396755951E-3</v>
+        <v>1.2386005885734511E-3</v>
       </c>
       <c r="F50">
-        <v>-1.3676950623883559E-3</v>
+        <v>-1.286467941153651E-3</v>
       </c>
       <c r="G50">
-        <v>-1.0705706081810787E-3</v>
+        <v>-1.0587533502197934E-3</v>
       </c>
       <c r="H50">
-        <v>-2.5458835080696994E-4</v>
+        <v>-2.5205503540860329E-4</v>
       </c>
       <c r="I50">
-        <v>1.0709872750968513E-4</v>
+        <v>-2.1111933545740716E-5</v>
       </c>
       <c r="J50">
-        <v>-3.8288771599723275E-3</v>
+        <v>-5.0272348338078797E-3</v>
       </c>
       <c r="K50">
-        <v>-8.5657522010764342E-4</v>
+        <v>-1.2996313455197405E-3</v>
       </c>
       <c r="L50">
-        <v>2.568785381014127E-4</v>
+        <v>-2.3003368591727405E-4</v>
       </c>
       <c r="M50">
-        <v>1.3910826442245937E-3</v>
+        <v>1.7277086767595634E-3</v>
       </c>
       <c r="N50">
-        <v>3.3025402976579371E-4</v>
+        <v>4.5178569581214072E-4</v>
       </c>
       <c r="O50">
-        <v>-3.9051284313621849E-5</v>
+        <v>1.3082441933722703E-4</v>
       </c>
       <c r="P50">
-        <v>5.2956831389536774E-2</v>
+        <v>2.77676988306093E-2</v>
       </c>
       <c r="Q50">
-        <v>4.6864466983689949E-2</v>
+        <v>2.1756869196010709E-2</v>
       </c>
       <c r="R50">
-        <v>7.3329819657814649E-3</v>
+        <v>6.0989816069096699E-3</v>
       </c>
       <c r="S50">
-        <v>1.0793467597275397E-3</v>
+        <v>1.0402274923175256E-3</v>
       </c>
       <c r="T50">
-        <v>2.5512169451362573E-4</v>
+        <v>2.5728439215809982E-4</v>
       </c>
       <c r="U50">
-        <v>-5.3774781629872199E-5</v>
+        <v>3.7831328787508562E-5</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-1.4940928213511315E-3</v>
+        <v>-2.0252282231455316E-3</v>
       </c>
       <c r="B51">
-        <v>-3.3040260253771231E-4</v>
+        <v>-5.4811317859523466E-4</v>
       </c>
       <c r="C51">
-        <v>-8.7322977332552709E-4</v>
+        <v>-1.5481189711713274E-3</v>
       </c>
       <c r="D51">
-        <v>4.447517022580184E-3</v>
+        <v>3.6321717403032597E-3</v>
       </c>
       <c r="E51">
-        <v>1.4014054049443102E-3</v>
+        <v>1.2174812983651176E-3</v>
       </c>
       <c r="F51">
-        <v>-1.3406627306281245E-3</v>
+        <v>-1.2602080912558339E-3</v>
       </c>
       <c r="G51">
-        <v>-1.0124781999922099E-3</v>
+        <v>-9.9776247948838402E-4</v>
       </c>
       <c r="H51">
-        <v>-2.3954629259529772E-4</v>
+        <v>-2.3683597878608711E-4</v>
       </c>
       <c r="I51">
-        <v>1.0373767268705919E-4</v>
+        <v>-8.9239651649610155E-6</v>
       </c>
       <c r="J51">
-        <v>-3.6330651316477144E-3</v>
+        <v>-4.7507546834929179E-3</v>
       </c>
       <c r="K51">
-        <v>-8.0791757950560768E-4</v>
+        <v>-1.2214264847688774E-3</v>
       </c>
       <c r="L51">
-        <v>2.5884784651785612E-4</v>
+        <v>-1.8056804012080415E-4</v>
       </c>
       <c r="M51">
-        <v>1.3260604835264465E-3</v>
+        <v>1.6326866382587188E-3</v>
       </c>
       <c r="N51">
-        <v>3.1370128944815636E-4</v>
+        <v>4.2750806833795997E-4</v>
       </c>
       <c r="O51">
-        <v>-5.0332114585278147E-5</v>
+        <v>1.0319415153609361E-4</v>
       </c>
       <c r="P51">
-        <v>5.1888376120632303E-2</v>
+        <v>2.7084633141632751E-2</v>
       </c>
       <c r="Q51">
-        <v>4.5820673924734961E-2</v>
+        <v>2.1189524972487401E-2</v>
       </c>
       <c r="R51">
-        <v>7.1599597312986202E-3</v>
+        <v>5.8582030894844374E-3</v>
       </c>
       <c r="S51">
-        <v>1.0262151301238592E-3</v>
+        <v>9.7990049046171174E-4</v>
       </c>
       <c r="T51">
-        <v>2.4171412321740939E-4</v>
+        <v>2.4252970125128963E-4</v>
       </c>
       <c r="U51">
-        <v>-5.8855345004438231E-5</v>
+        <v>2.5514371953830407E-5</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-1.4266616088745145E-3</v>
+        <v>-1.9396962637538958E-3</v>
       </c>
       <c r="B52">
-        <v>-3.1266610144677537E-4</v>
+        <v>-5.2250435351860124E-4</v>
       </c>
       <c r="C52">
-        <v>-7.947240814199138E-4</v>
+        <v>-1.4480436859935196E-3</v>
       </c>
       <c r="D52">
-        <v>4.3820209704192132E-3</v>
+        <v>3.5735539452354686E-3</v>
       </c>
       <c r="E52">
-        <v>1.3774140119603736E-3</v>
+        <v>1.1965617697911205E-3</v>
       </c>
       <c r="F52">
-        <v>-1.3141447135772515E-3</v>
+        <v>-1.2346004095154686E-3</v>
       </c>
       <c r="G52">
-        <v>-9.568338874056516E-4</v>
+        <v>-9.3879134485918799E-4</v>
       </c>
       <c r="H52">
-        <v>-2.2535123401251633E-4</v>
+        <v>-2.2228946121851287E-4</v>
       </c>
       <c r="I52">
-        <v>1.0014637892192936E-4</v>
+        <v>1.338992617610581E-6</v>
       </c>
       <c r="J52">
-        <v>-3.4443285020847097E-3</v>
+        <v>-4.4842566748602786E-3</v>
       </c>
       <c r="K52">
-        <v>-7.6170849055284199E-4</v>
+        <v>-1.1469671541588441E-3</v>
       </c>
       <c r="L52">
-        <v>2.5828962346216257E-4</v>
+        <v>-1.3789723257875039E-4</v>
       </c>
       <c r="M52">
-        <v>1.2625137918135859E-3</v>
+        <v>1.5407543171262628E-3</v>
       </c>
       <c r="N52">
-        <v>2.976425563419162E-4</v>
+        <v>4.0389949923145261E-4</v>
       </c>
       <c r="O52">
-        <v>-5.9088788892639833E-5</v>
+        <v>7.952110853859448E-5</v>
       </c>
       <c r="P52">
-        <v>5.0837719204092462E-2</v>
+        <v>2.6417431667531983E-2</v>
       </c>
       <c r="Q52">
-        <v>4.4799288393899399E-2</v>
+        <v>2.0639586356183157E-2</v>
       </c>
       <c r="R52">
-        <v>6.989632437629123E-3</v>
+        <v>5.6276011484027695E-3</v>
       </c>
       <c r="S52">
-        <v>9.7469982774851035E-4</v>
+        <v>9.2199010005235293E-4</v>
       </c>
       <c r="T52">
-        <v>2.2881863571108972E-4</v>
+        <v>2.2834492548682179E-4</v>
       </c>
       <c r="U52">
-        <v>-6.2507299082291569E-5</v>
+        <v>1.5105614900482296E-5</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-1.3607299110443129E-3</v>
+        <v>-1.8561595593685836E-3</v>
       </c>
       <c r="B53">
-        <v>-2.9554165216880455E-4</v>
+        <v>-4.9771251546069798E-4</v>
       </c>
       <c r="C53">
-        <v>-7.2331841238498166E-4</v>
+        <v>-1.3550234948536278E-3</v>
       </c>
       <c r="D53">
-        <v>4.3161414650062634E-3</v>
+        <v>3.5151983847535764E-3</v>
       </c>
       <c r="E53">
-        <v>1.3535429788563702E-3</v>
+        <v>1.1758541691447568E-3</v>
       </c>
       <c r="F53">
-        <v>-1.2881217453190473E-3</v>
+        <v>-1.2096178129112913E-3</v>
       </c>
       <c r="G53">
-        <v>-9.036497577782107E-4</v>
+        <v>-8.8200528688639403E-4</v>
       </c>
       <c r="H53">
-        <v>-2.1196151502610942E-4</v>
+        <v>-2.0842072495379821E-4</v>
       </c>
       <c r="I53">
-        <v>9.6399169421217896E-5</v>
+        <v>9.9139551123172961E-6</v>
       </c>
       <c r="J53">
-        <v>-3.262862739417215E-3</v>
+        <v>-4.2281226937287784E-3</v>
       </c>
       <c r="K53">
-        <v>-7.1787319322521215E-4</v>
+        <v>-1.0762045512100853E-3</v>
       </c>
       <c r="L53">
-        <v>2.5567594217825975E-4</v>
+        <v>-1.0124977784974755E-4</v>
       </c>
       <c r="M53">
-        <v>1.2006472087658063E-3</v>
+        <v>1.4521116689228438E-3</v>
       </c>
       <c r="N53">
-        <v>2.8212213657340883E-4</v>
+        <v>3.8104629249269398E-4</v>
       </c>
       <c r="O53">
-        <v>-6.57232134244808E-5</v>
+        <v>5.9304732089218477E-5</v>
       </c>
       <c r="P53">
-        <v>4.9804582465780935E-2</v>
+        <v>2.5765780773521655E-2</v>
       </c>
       <c r="Q53">
-        <v>4.3799838600465719E-2</v>
+        <v>2.0106435155056807E-2</v>
       </c>
       <c r="R53">
-        <v>6.8222247762054948E-3</v>
+        <v>5.4068796471515579E-3</v>
       </c>
       <c r="S53">
-        <v>9.2489965479635046E-4</v>
+        <v>8.66548556860807E-4</v>
       </c>
       <c r="T53">
-        <v>2.1644774705590096E-4</v>
+        <v>2.147514753245724E-4</v>
       </c>
       <c r="U53">
-        <v>-6.4967742620072563E-5</v>
+        <v>6.3582685243700004E-6</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-1.2964009521994552E-3</v>
+        <v>-1.7747275982176079E-3</v>
       </c>
       <c r="B54">
-        <v>-2.790348083171406E-4</v>
+        <v>-4.7374602179453247E-4</v>
       </c>
       <c r="C54">
-        <v>-6.5839673920039784E-4</v>
+        <v>-1.2685455581667026E-3</v>
       </c>
       <c r="D54">
-        <v>4.2499769584627423E-3</v>
+        <v>3.4571608687350495E-3</v>
       </c>
       <c r="E54">
-        <v>1.3298125663773197E-3</v>
+        <v>1.155369557432858E-3</v>
       </c>
       <c r="F54">
-        <v>-1.2625772356345112E-3</v>
+        <v>-1.1852355679852604E-3</v>
       </c>
       <c r="G54">
-        <v>-8.5291343280080589E-4</v>
+        <v>-8.2751998853279856E-4</v>
       </c>
       <c r="H54">
-        <v>-1.9933657677955062E-4</v>
+        <v>-1.9522823358680101E-4</v>
       </c>
       <c r="I54">
-        <v>9.2557010332783296E-5</v>
+        <v>1.701131066698685E-5</v>
       </c>
       <c r="J54">
-        <v>-3.0887726942370433E-3</v>
+        <v>-3.9825940575714076E-3</v>
       </c>
       <c r="K54">
-        <v>-6.7633100048079353E-4</v>
+        <v>-1.009069275313725E-3</v>
       </c>
       <c r="L54">
-        <v>2.5140916148903695E-4</v>
+        <v>-6.9931285883044754E-5</v>
       </c>
       <c r="M54">
-        <v>1.1406206348560809E-3</v>
+        <v>1.3669020927257515E-3</v>
       </c>
       <c r="N54">
-        <v>2.6717077816735331E-4</v>
+        <v>3.5901208975167351E-4</v>
       </c>
       <c r="O54">
-        <v>-7.0578807903830411E-5</v>
+        <v>4.210564782157914E-5</v>
       </c>
       <c r="P54">
-        <v>4.8788719991709466E-2</v>
+        <v>2.512939991791362E-2</v>
       </c>
       <c r="Q54">
-        <v>4.2821869063012538E-2</v>
+        <v>1.9589488074927303E-2</v>
       </c>
       <c r="R54">
-        <v>6.6579108997999892E-3</v>
+        <v>5.1957226733627942E-3</v>
       </c>
       <c r="S54">
-        <v>8.7688480006173656E-4</v>
+        <v>8.1360029576529511E-4</v>
       </c>
       <c r="T54">
-        <v>2.0460688583411816E-4</v>
+        <v>2.0176132876982881E-4</v>
       </c>
       <c r="U54">
-        <v>-6.6438937396582113E-5</v>
+        <v>-9.4418360722325897E-7</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-1.2337616507547401E-3</v>
+        <v>-1.6954902702490747E-3</v>
       </c>
       <c r="B55">
-        <v>-2.6314762053654254E-4</v>
+        <v>-4.506087762787254E-4</v>
       </c>
       <c r="C55">
-        <v>-5.9939311410847932E-4</v>
+        <v>-1.1881339050563262E-3</v>
       </c>
       <c r="D55">
-        <v>4.1836211469503297E-3</v>
+        <v>3.3994932874046543E-3</v>
       </c>
       <c r="E55">
-        <v>1.3062415203434084E-3</v>
+        <v>1.135117923498211E-3</v>
       </c>
       <c r="F55">
-        <v>-1.2374968295733838E-3</v>
+        <v>-1.161431011326789E-3</v>
       </c>
       <c r="G55">
-        <v>-8.0459312017817149E-4</v>
+        <v>-7.7540958208151625E-4</v>
       </c>
       <c r="H55">
-        <v>-1.8743712072684845E-4</v>
+        <v>-1.8270492573493018E-4</v>
       </c>
       <c r="I55">
-        <v>8.8669743222407555E-5</v>
+        <v>2.2817828225302047E-5</v>
       </c>
       <c r="J55">
-        <v>-2.9220876239876262E-3</v>
+        <v>-3.7477921858580627E-3</v>
       </c>
       <c r="K55">
-        <v>-6.3699710938061897E-4</v>
+        <v>-9.454752658259848E-4</v>
       </c>
       <c r="L55">
-        <v>2.4583127335162412E-4</v>
+        <v>-4.3317611063964049E-5</v>
       </c>
       <c r="M55">
-        <v>1.0825550506596466E-3</v>
+        <v>1.2852200664189098E-3</v>
       </c>
       <c r="N55">
-        <v>2.5280810676787794E-4</v>
+        <v>3.378415388659528E-4</v>
       </c>
       <c r="O55">
-        <v>-7.3948815286871574E-5</v>
+        <v>2.7538041113671166E-5</v>
       </c>
       <c r="P55">
-        <v>4.7789912047817414E-2</v>
+        <v>2.4508033580338571E-2</v>
       </c>
       <c r="Q55">
-        <v>4.1864938697548051E-2</v>
+        <v>1.9088192658107402E-2</v>
       </c>
       <c r="R55">
-        <v>6.4968221507498026E-3</v>
+        <v>4.9938007837944812E-3</v>
       </c>
       <c r="S55">
-        <v>8.307009509963178E-4</v>
+        <v>7.6314625064942399E-4</v>
       </c>
       <c r="T55">
-        <v>1.9329575729478318E-4</v>
+        <v>1.8937874137349946E-4</v>
       </c>
       <c r="U55">
-        <v>-6.7093258443513053E-5</v>
+        <v>-6.9917698062654005E-6</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-1.1728834965329333E-3</v>
+        <v>-1.6185192024563047E-3</v>
       </c>
       <c r="B56">
-        <v>-2.4787901903561282E-4</v>
+        <v>-4.2830068410097449E-4</v>
       </c>
       <c r="C56">
-        <v>-5.4578802918510264E-4</v>
+        <v>-1.1133469219612253E-3</v>
       </c>
       <c r="D56">
-        <v>4.1171628537559251E-3</v>
+        <v>3.3422436604866376E-3</v>
       </c>
       <c r="E56">
-        <v>1.2828471211177707E-3</v>
+        <v>1.1151082225209601E-3</v>
       </c>
       <c r="F56">
-        <v>-1.2128680340621572E-3</v>
+        <v>-1.1381833051735026E-3</v>
       </c>
       <c r="G56">
-        <v>-7.5864180390107353E-4</v>
+        <v>-7.2571360253553786E-4</v>
       </c>
       <c r="H56">
-        <v>-1.7622521706591363E-4</v>
+        <v>-1.7083927960666109E-4</v>
       </c>
       <c r="I56">
-        <v>8.477792692264242E-5</v>
+        <v>2.7499286705191369E-5</v>
       </c>
       <c r="J56">
-        <v>-2.7627742232951219E-3</v>
+        <v>-3.5237369322112209E-3</v>
       </c>
       <c r="K56">
-        <v>-5.997841048425897E-4</v>
+        <v>-8.8532322324281262E-4</v>
       </c>
       <c r="L56">
-        <v>2.3923208338279113E-4</v>
+        <v>-2.0848517748696591E-5</v>
       </c>
       <c r="M56">
-        <v>1.0265377738195704E-3</v>
+        <v>1.2071180344301905E-3</v>
       </c>
       <c r="N56">
-        <v>2.390446704735131E-4</v>
+        <v>3.1756343670096053E-4</v>
       </c>
       <c r="O56">
-        <v>-7.6083430770615098E-5</v>
+        <v>1.5263033191992926E-5</v>
       </c>
       <c r="P56">
-        <v>4.6807959834765857E-2</v>
+        <v>2.390144458178551E-2</v>
       </c>
       <c r="Q56">
-        <v>4.0928619222824987E-2</v>
+        <v>1.8602023855792231E-2</v>
       </c>
       <c r="R56">
-        <v>6.3390536814094496E-3</v>
+        <v>4.8007761612508968E-3</v>
       </c>
       <c r="S56">
-        <v>7.8637294752186774E-4</v>
+        <v>7.1516765919488765E-4</v>
       </c>
       <c r="T56">
-        <v>1.8250948300079105E-4</v>
+        <v>1.7760168927272296E-4</v>
       </c>
       <c r="U56">
-        <v>-6.70774412537699E-5</v>
+        <v>-1.1951307657706499E-5</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-1.1138235161078554E-3</v>
+        <v>-1.543869128004178E-3</v>
       </c>
       <c r="B57">
-        <v>-2.332251744831969E-4</v>
+        <v>-4.0681808439071938E-4</v>
       </c>
       <c r="C57">
-        <v>-4.9710497814440006E-4</v>
+        <v>-1.0437749914097244E-3</v>
       </c>
       <c r="D57">
-        <v>4.0506859770055798E-3</v>
+        <v>3.285456215610813E-3</v>
       </c>
       <c r="E57">
-        <v>1.2596452381861997E-3</v>
+        <v>1.09534841844666E-3</v>
       </c>
       <c r="F57">
-        <v>-1.1886799017386232E-3</v>
+        <v>-1.1154732235693179E-3</v>
       </c>
       <c r="G57">
-        <v>-7.1500071562418603E-4</v>
+        <v>-6.7844294929206913E-4</v>
       </c>
       <c r="H57">
-        <v>-1.6566437408571048E-4</v>
+        <v>-1.5961621680277499E-4</v>
       </c>
       <c r="I57">
-        <v>8.0914363125726853E-5</v>
+        <v>3.120278350064343E-5</v>
       </c>
       <c r="J57">
-        <v>-2.6107478906301188E-3</v>
+        <v>-3.3103627943076269E-3</v>
       </c>
       <c r="K57">
-        <v>-5.6460320075539061E-4</v>
+        <v>-8.2850357103448171E-4</v>
       </c>
       <c r="L57">
-        <v>2.3185635644845041E-4</v>
+        <v>-2.0218380187911732E-6</v>
       </c>
       <c r="M57">
-        <v>9.7262718079470386E-4</v>
+        <v>1.1326125905747578E-3</v>
       </c>
       <c r="N57">
-        <v>2.2588365447184788E-4</v>
+        <v>2.9819341908981134E-4</v>
       </c>
       <c r="O57">
-        <v>-7.7195918961498527E-5</v>
+        <v>4.9829183185253916E-6</v>
       </c>
       <c r="P57">
-        <v>4.5842680989009219E-2</v>
+        <v>2.3309408609606116E-2</v>
       </c>
       <c r="Q57">
-        <v>4.0012493831564723E-2</v>
+        <v>1.8130481133152035E-2</v>
       </c>
       <c r="R57">
-        <v>6.1846701247207743E-3</v>
+        <v>4.6163068552244777E-3</v>
       </c>
       <c r="S57">
-        <v>7.4390801497977355E-4</v>
+        <v>6.6962941697441608E-4</v>
       </c>
       <c r="T57">
-        <v>1.7223955229958874E-4</v>
+        <v>1.6642308626399531E-4</v>
       </c>
       <c r="U57">
-        <v>-6.6516227149112275E-5</v>
+        <v>-1.5969248846810582E-5</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-1.0566252915402696E-3</v>
+        <v>-1.4715792612608133E-3</v>
       </c>
       <c r="B58">
-        <v>-2.1917983597582704E-4</v>
+        <v>-3.8615415844388512E-4</v>
       </c>
       <c r="C58">
-        <v>-4.5290721913972113E-4</v>
+        <v>-9.7903827508343628E-4</v>
       </c>
       <c r="D58">
-        <v>3.9842694907174332E-3</v>
+        <v>3.2291714899483461E-3</v>
       </c>
       <c r="E58">
-        <v>1.2366503882932799E-3</v>
+        <v>1.0758455291442809E-3</v>
       </c>
       <c r="F58">
-        <v>-1.1649227636271434E-3</v>
+        <v>-1.0932829651536531E-3</v>
       </c>
       <c r="G58">
-        <v>-6.736022055808563E-4</v>
+        <v>-6.3358499404750346E-4</v>
       </c>
       <c r="H58">
-        <v>-1.5571957739367469E-4</v>
+        <v>-1.4901786907109684E-4</v>
       </c>
       <c r="I58">
-        <v>7.710536472740583E-5</v>
+        <v>3.4058768957930017E-5</v>
       </c>
       <c r="J58">
-        <v>-2.4658824395670984E-3</v>
+        <v>-3.1075332034712932E-3</v>
       </c>
       <c r="K58">
-        <v>-5.3136525722073202E-4</v>
+        <v>-7.74899010091868E-4</v>
       </c>
       <c r="L58">
-        <v>2.2391004741668786E-4</v>
+        <v>1.3611904824497907E-5</v>
       </c>
       <c r="M58">
-        <v>9.2085692581752221E-4</v>
+        <v>1.0616900024741113E-3</v>
       </c>
       <c r="N58">
-        <v>2.1332231689220112E-4</v>
+        <v>2.7973626086579592E-4</v>
       </c>
       <c r="O58">
-        <v>-7.7467863882845706E-5</v>
+        <v>-3.5638569222211964E-6</v>
       </c>
       <c r="P58">
-        <v>4.4893905747572779E-2</v>
+        <v>2.2731709780892444E-2</v>
       </c>
       <c r="Q58">
-        <v>3.9116156084436311E-2</v>
+        <v>1.7673086022080703E-2</v>
       </c>
       <c r="R58">
-        <v>6.033710450001401E-3</v>
+        <v>4.4400502507738523E-3</v>
       </c>
       <c r="S58">
-        <v>7.0329861318061153E-4</v>
+        <v>6.264830231385713E-4</v>
       </c>
       <c r="T58">
-        <v>1.6247461536155071E-4</v>
+        <v>1.5583180939713844E-4</v>
       </c>
       <c r="U58">
-        <v>-6.5515493158832224E-5</v>
+        <v>-1.9174154048047549E-5</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-1.0013200046741222E-3</v>
+        <v>-1.4016746567069825E-3</v>
       </c>
       <c r="B59">
-        <v>-2.0573464546413337E-4</v>
+        <v>-3.6629931261973462E-4</v>
       </c>
       <c r="C59">
-        <v>-4.1279473580580546E-4</v>
+        <v>-9.1878463496780031E-4</v>
       </c>
       <c r="D59">
-        <v>3.9179874894997241E-3</v>
+        <v>3.1734264499409283E-3</v>
       </c>
       <c r="E59">
-        <v>1.2138757958640475E-3</v>
+        <v>1.056605673312527E-3</v>
       </c>
       <c r="F59">
-        <v>-1.1415880034879281E-3</v>
+        <v>-1.0715959891914708E-3</v>
       </c>
       <c r="G59">
-        <v>-6.3437211163998156E-4</v>
+        <v>-5.9110795286218781E-4</v>
       </c>
       <c r="H59">
-        <v>-1.4635730596626286E-4</v>
+        <v>-1.3902422796307348E-4</v>
       </c>
       <c r="I59">
-        <v>7.337181394061353E-5</v>
+        <v>3.618284538391224E-5</v>
       </c>
       <c r="J59">
-        <v>-2.328018442032836E-3</v>
+        <v>-2.9150530816888041E-3</v>
       </c>
       <c r="K59">
-        <v>-4.9998160744491038E-4</v>
+        <v>-7.2438671255258046E-4</v>
       </c>
       <c r="L59">
-        <v>2.155657255090642E-4</v>
+        <v>2.6454434622327532E-5</v>
       </c>
       <c r="M59">
-        <v>8.7123969249748427E-4</v>
+        <v>9.9431112579636844E-4</v>
       </c>
       <c r="N59">
-        <v>2.0135318940119515E-4</v>
+        <v>2.6218784013909234E-4</v>
       </c>
       <c r="O59">
-        <v>-7.7053675727134507E-5</v>
+        <v>-1.0607073980572399E-5</v>
       </c>
       <c r="P59">
-        <v>4.3961473700386736E-2</v>
+        <v>2.2168137096344673E-2</v>
       </c>
       <c r="Q59">
-        <v>3.823920899046427E-2</v>
+        <v>1.7229380049988835E-2</v>
       </c>
       <c r="R59">
-        <v>5.8861921196195549E-3</v>
+        <v>4.2716658873706397E-3</v>
       </c>
       <c r="S59">
-        <v>6.6452493733802783E-4</v>
+        <v>5.8566915752914796E-4</v>
       </c>
       <c r="T59">
-        <v>1.532011428351058E-4</v>
+        <v>1.4581356215557991E-4</v>
       </c>
       <c r="U59">
-        <v>-6.4164940141806274E-5</v>
+        <v>-2.167885058390162E-5</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-9.4792748486913518E-4</v>
+        <v>-1.3341675346119938E-3</v>
       </c>
       <c r="B60">
-        <v>-1.9287942855673098E-4</v>
+        <v>-3.4724153544400503E-4</v>
       </c>
       <c r="C60">
-        <v>-3.76401391866257E-4</v>
+        <v>-8.6268768620426995E-4</v>
       </c>
       <c r="D60">
-        <v>3.8519092685800707E-3</v>
+        <v>3.1182546247564601E-3</v>
       </c>
       <c r="E60">
-        <v>1.1913334546762825E-3</v>
+        <v>1.0376341183306417E-3</v>
       </c>
       <c r="F60">
-        <v>-1.1186678677116855E-3</v>
+        <v>-1.0503968719094293E-3</v>
       </c>
       <c r="G60">
-        <v>-5.9723170872094666E-4</v>
+        <v>-5.5096462342123893E-4</v>
       </c>
       <c r="H60">
-        <v>-1.3754553041415521E-4</v>
+        <v>-1.2961369423862391E-4</v>
       </c>
       <c r="I60">
-        <v>6.9730047805015451E-5</v>
+        <v>3.7677362531969294E-5</v>
       </c>
       <c r="J60">
-        <v>-2.1969703714479851E-3</v>
+        <v>-2.7326798396623405E-3</v>
       </c>
       <c r="K60">
-        <v>-4.7036472320612549E-4</v>
+        <v>-6.7684019702515471E-4</v>
       </c>
       <c r="L60">
-        <v>2.0696728959242647E-4</v>
+        <v>3.686425048302855E-5</v>
       </c>
       <c r="M60">
-        <v>8.2377051480269573E-4</v>
+        <v>9.3041575682774964E-4</v>
       </c>
       <c r="N60">
-        <v>1.8996507935992168E-4</v>
+        <v>2.4553681347423229E-4</v>
       </c>
       <c r="O60">
-        <v>-7.6084460430460142E-5</v>
+        <v>-1.634856938741309E-5</v>
       </c>
       <c r="P60">
-        <v>4.3045231060490088E-2</v>
+        <v>2.1618481653884181E-2</v>
       </c>
       <c r="Q60">
-        <v>3.7381264243289837E-2</v>
+        <v>1.6798922984322492E-2</v>
       </c>
       <c r="R60">
-        <v>5.7421146456275406E-3</v>
+        <v>4.1108177303907081E-3</v>
       </c>
       <c r="S60">
-        <v>6.2755710496547538E-4</v>
+        <v>5.4711992640124683E-4</v>
       </c>
       <c r="T60">
-        <v>1.4440397322722386E-4</v>
+        <v>1.3635159975957148E-4</v>
       </c>
       <c r="U60">
-        <v>-6.2540402145563575E-5</v>
+        <v>-2.3582317323267433E-5</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-8.9645724281854167E-4</v>
+        <v>-1.269058560465003E-3</v>
       </c>
       <c r="B61">
-        <v>-1.8060246202334436E-4</v>
+        <v>-3.2896672891027506E-4</v>
       </c>
       <c r="C61">
-        <v>-3.4339227319302786E-4</v>
+        <v>-8.1044497518640343E-4</v>
       </c>
       <c r="D61">
-        <v>3.7860994320684117E-3</v>
+        <v>3.0636862497739501E-3</v>
       </c>
       <c r="E61">
-        <v>1.1690341899484652E-3</v>
+        <v>1.0189353284005551E-3</v>
       </c>
       <c r="F61">
-        <v>-1.0961553055164885E-3</v>
+        <v>-1.0296711805926411E-3</v>
       </c>
       <c r="G61">
-        <v>-5.6209930723023001E-4</v>
+        <v>-5.1309557424600782E-4</v>
       </c>
       <c r="H61">
-        <v>-1.2925369765787176E-4</v>
+        <v>-1.2076354130648527E-4</v>
       </c>
       <c r="I61">
-        <v>6.6192601342120026E-5</v>
+        <v>3.8632836213649464E-5</v>
       </c>
       <c r="J61">
-        <v>-2.0725326956590523E-3</v>
+        <v>-2.5601329757455145E-3</v>
       </c>
       <c r="K61">
-        <v>-4.4242874379939949E-4</v>
+        <v>-6.3213092289060514E-4</v>
       </c>
       <c r="L61">
-        <v>1.98234061365025E-4</v>
+        <v>4.5160772300459737E-5</v>
       </c>
       <c r="M61">
-        <v>7.7842970419877359E-4</v>
+        <v>8.6992647104751515E-4</v>
       </c>
       <c r="N61">
-        <v>1.7914390467071994E-4</v>
+        <v>2.2976604215523214E-4</v>
       </c>
       <c r="O61">
-        <v>-7.4671342875470221E-5</v>
+        <v>-2.0965583006176759E-5</v>
       </c>
       <c r="P61">
-        <v>4.2145028388743122E-2</v>
+        <v>2.1082534506869009E-2</v>
       </c>
       <c r="Q61">
-        <v>3.6541941587549927E-2</v>
+        <v>1.638129134199072E-2</v>
       </c>
       <c r="R61">
-        <v>5.6014626312594594E-3</v>
+        <v>3.9571759819574913E-3</v>
       </c>
       <c r="S61">
-        <v>5.9235706078877544E-4</v>
+        <v>5.10760811202979E-4</v>
       </c>
       <c r="T61">
-        <v>1.3606676580157288E-4</v>
+        <v>1.2742733733953911E-4</v>
       </c>
       <c r="U61">
-        <v>-6.0705830851252397E-5</v>
+        <v>-2.4971334433381286E-5</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-8.4690947709662205E-4</v>
+        <v>-1.2063380685548618E-3</v>
       </c>
       <c r="B62">
-        <v>-1.6889071862350816E-4</v>
+        <v>-3.1145901433076036E-4</v>
       </c>
       <c r="C62">
-        <v>-3.1346121016276627E-4</v>
+        <v>-7.6177627645599181E-4</v>
       </c>
       <c r="D62">
-        <v>3.7206180234008088E-3</v>
+        <v>3.0097484169794545E-3</v>
       </c>
       <c r="E62">
-        <v>1.146987720170763E-3</v>
+        <v>1.0005130124520838E-3</v>
       </c>
       <c r="F62">
-        <v>-1.074043834963888E-3</v>
+        <v>-1.0094053632290199E-3</v>
       </c>
       <c r="G62">
-        <v>-5.2889155793652465E-4</v>
+        <v>-4.7743186049389381E-4</v>
       </c>
       <c r="H62">
-        <v>-1.2145270529551672E-4</v>
+        <v>-1.1245030486203321E-4</v>
       </c>
       <c r="I62">
-        <v>6.2768832791043001E-5</v>
+        <v>3.9129212416044089E-5</v>
       </c>
       <c r="J62">
-        <v>-1.9544850530393131E-3</v>
+        <v>-2.3971024223506123E-3</v>
       </c>
       <c r="K62">
-        <v>-4.1608988986594858E-4</v>
+        <v>-5.9012963741621681E-4</v>
       </c>
       <c r="L62">
-        <v>1.8946433379171988E-4</v>
+        <v>5.1628130606047632E-5</v>
       </c>
       <c r="M62">
-        <v>7.3518541887443141E-4</v>
+        <v>8.1275199376176668E-4</v>
       </c>
       <c r="N62">
-        <v>1.6887338762187434E-4</v>
+        <v>2.1485380415970986E-4</v>
       </c>
       <c r="O62">
-        <v>-7.2908321452483068E-5</v>
+        <v>-2.4613691342982539E-5</v>
       </c>
       <c r="P62">
-        <v>4.1260718715772443E-2</v>
+        <v>2.0560085065894015E-2</v>
       </c>
       <c r="Q62">
-        <v>3.5720868293720405E-2</v>
+        <v>1.5976077120883295E-2</v>
       </c>
       <c r="R62">
-        <v>5.4642083700902934E-3</v>
+        <v>3.810418504446321E-3</v>
       </c>
       <c r="S62">
-        <v>5.5888022950915473E-4</v>
+        <v>4.7651235213420787E-4</v>
       </c>
       <c r="T62">
-        <v>1.2817237399577927E-4</v>
+        <v>1.1902085855162614E-4</v>
       </c>
       <c r="U62">
-        <v>-5.8715001162637196E-5</v>
+        <v>-2.5921929884235823E-5</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-7.9927604338729064E-4</v>
+        <v>-1.1459872229059366E-3</v>
       </c>
       <c r="B63">
-        <v>-1.5773009010978175E-4</v>
+        <v>-2.9470101336626531E-4</v>
       </c>
       <c r="C63">
-        <v>-2.8632847243308882E-4</v>
+        <v>-7.1642200203586234E-4</v>
       </c>
       <c r="D63">
-        <v>3.6555206728281376E-3</v>
+        <v>2.9564652296570149E-3</v>
       </c>
       <c r="E63">
-        <v>1.1252027181466266E-3</v>
+        <v>9.8237017138803071E-4</v>
       </c>
       <c r="F63">
-        <v>-1.052327430957382E-3</v>
+        <v>-9.8958665177443454E-4</v>
       </c>
       <c r="G63">
-        <v>-4.9752451135715644E-4</v>
+        <v>-4.4389733067936682E-4</v>
       </c>
       <c r="H63">
-        <v>-1.1411486823141736E-4</v>
+        <v>-1.0465010911141081E-4</v>
       </c>
       <c r="I63">
-        <v>5.9465450754303539E-5</v>
+        <v>3.9236995847752787E-5</v>
       </c>
       <c r="J63">
-        <v>-1.842596630083731E-3</v>
+        <v>-2.2432557737880401E-3</v>
       </c>
       <c r="K63">
-        <v>-3.912667804653109E-4</v>
+        <v>-5.5070750583311996E-4</v>
       </c>
       <c r="L63">
-        <v>1.8073844335662428E-4</v>
+        <v>5.6518626716245255E-5</v>
       </c>
       <c r="M63">
-        <v>6.9399590951859909E-4</v>
+        <v>7.5879014669924419E-4</v>
       </c>
       <c r="N63">
-        <v>1.5913562995929621E-4</v>
+        <v>2.0077482167814244E-4</v>
       </c>
       <c r="O63">
-        <v>-7.0874720523145867E-5</v>
+        <v>-2.742938068561391E-5</v>
       </c>
       <c r="P63">
-        <v>4.0392156009633515E-2</v>
+        <v>2.0050919955877926E-2</v>
       </c>
       <c r="Q63">
-        <v>3.4917678723202963E-2</v>
+        <v>1.5582886717403188E-2</v>
       </c>
       <c r="R63">
-        <v>5.3303140653084774E-3</v>
+        <v>3.6702319186972185E-3</v>
       </c>
       <c r="S63">
-        <v>5.2707694395375752E-4</v>
+        <v>4.4429159553858305E-4</v>
       </c>
       <c r="T63">
-        <v>1.2070315201239012E-4</v>
+        <v>1.1111133954068502E-4</v>
       </c>
       <c r="U63">
-        <v>-5.6612977355695473E-5</v>
+        <v>-2.6500649830748989E-5</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-7.5354137908060592E-4</v>
+        <v>-1.0879791110846603E-3</v>
       </c>
       <c r="B64">
-        <v>-1.4710558941183338E-4</v>
+        <v>-2.7867410507602852E-4</v>
       </c>
       <c r="C64">
-        <v>-2.6173862780219198E-4</v>
+        <v>-6.7414171696780279E-4</v>
       </c>
       <c r="D64">
-        <v>3.5908587576011599E-3</v>
+        <v>2.9038579591920918E-3</v>
       </c>
       <c r="E64">
-        <v>1.1036868708247877E-3</v>
+        <v>9.6450914433443492E-4</v>
       </c>
       <c r="F64">
-        <v>-1.0310004319416225E-3</v>
+        <v>-9.7020297735728048E-4</v>
       </c>
       <c r="G64">
-        <v>-4.6791447195060343E-4</v>
+        <v>-4.1241057986153963E-4</v>
       </c>
       <c r="H64">
-        <v>-1.0721387958719426E-4</v>
+        <v>-9.7338938484836971E-5</v>
       </c>
       <c r="I64">
-        <v>5.6286959427714274E-5</v>
+        <v>3.9018259018379632E-5</v>
       </c>
       <c r="J64">
-        <v>-1.7366298451811923E-3</v>
+        <v>-2.0982445175747621E-3</v>
       </c>
       <c r="K64">
-        <v>-3.6788066911283248E-4</v>
+        <v>-5.1373705128925366E-4</v>
       </c>
       <c r="L64">
-        <v>1.7212142672397136E-4</v>
+        <v>6.0055887970288858E-5</v>
       </c>
       <c r="M64">
-        <v>6.5481147423908218E-4</v>
+        <v>7.0793041197862749E-4</v>
       </c>
       <c r="N64">
-        <v>1.4991158796385303E-4</v>
+        <v>1.8750112989884447E-4</v>
       </c>
       <c r="O64">
-        <v>-6.8637297765856202E-5</v>
+        <v>-2.9532307109743402E-5</v>
       </c>
       <c r="P64">
-        <v>3.953919394306836E-2</v>
+        <v>1.955482225155011E-2</v>
       </c>
       <c r="Q64">
-        <v>3.4132013968335095E-2</v>
+        <v>1.5201339999623462E-2</v>
       </c>
       <c r="R64">
-        <v>5.1997337226947216E-3</v>
+        <v>3.536312429503577E-3</v>
       </c>
       <c r="S64">
-        <v>4.9689367385199719E-4</v>
+        <v>4.1401333161981898E-4</v>
       </c>
       <c r="T64">
-        <v>1.1364120525869042E-4</v>
+        <v>1.0367740091351901E-4</v>
       </c>
       <c r="U64">
-        <v>-5.4437373542918589E-5</v>
+        <v>-2.6765676000985372E-5</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-7.0968337817097404E-4</v>
+        <v>-1.0322797682755676E-3</v>
       </c>
       <c r="B65">
-        <v>-1.3700153311114861E-4</v>
+        <v>-2.6335865998381889E-4</v>
       </c>
       <c r="C65">
-        <v>-2.3945855655865204E-4</v>
+        <v>-6.3471275499354214E-4</v>
       </c>
       <c r="D65">
-        <v>3.5266795711897331E-3</v>
+        <v>2.8519452021796153E-3</v>
       </c>
       <c r="E65">
-        <v>1.0824469375976993E-3</v>
+        <v>9.4693165363395906E-4</v>
       </c>
       <c r="F65">
-        <v>-1.0100574624945884E-3</v>
+        <v>-9.5124289595384457E-4</v>
       </c>
       <c r="G65">
-        <v>-4.3997868092116033E-4</v>
+        <v>-3.828865973279224E-4</v>
       </c>
       <c r="H65">
-        <v>-1.0072476748794006E-4</v>
+        <v>-9.0492862488901357E-5</v>
       </c>
       <c r="I65">
-        <v>5.3236035167004823E-5</v>
+        <v>3.8527545646035603E-5</v>
       </c>
       <c r="J65">
-        <v>-1.6363434309495878E-3</v>
+        <v>-1.9617093800656906E-3</v>
       </c>
       <c r="K65">
-        <v>-3.4585561221995979E-4</v>
+        <v>-4.7909292866001046E-4</v>
       </c>
       <c r="L65">
-        <v>1.6366531520745076E-4</v>
+        <v>6.2437741570417715E-5</v>
       </c>
       <c r="M65">
-        <v>6.1757615309645771E-4</v>
+        <v>6.6005615216512936E-4</v>
       </c>
       <c r="N65">
-        <v>1.411814633970517E-4</v>
+        <v>1.7500280924059197E-4</v>
       </c>
       <c r="O65">
-        <v>-6.6252055204194286E-5</v>
+        <v>-3.1027283805362999E-5</v>
       </c>
       <c r="P65">
-        <v>3.8701684919239865E-2</v>
+        <v>1.9071571024638714E-2</v>
       </c>
       <c r="Q65">
-        <v>3.3363521554444185E-2</v>
+        <v>1.4831069510479149E-2</v>
       </c>
       <c r="R65">
-        <v>5.0724147633282469E-3</v>
+        <v>3.4083664229489431E-3</v>
       </c>
       <c r="S65">
-        <v>4.682740782264716E-4</v>
+        <v>3.8559114653805666E-4</v>
       </c>
       <c r="T65">
-        <v>1.0696859364641338E-4</v>
+        <v>9.6697398494716784E-5</v>
       </c>
       <c r="U65">
-        <v>-5.2219437370869417E-5</v>
+        <v>-2.6767809866017344E-5</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-6.676742132198562E-4</v>
+        <v>-9.7884913054591322E-4</v>
       </c>
       <c r="B66">
-        <v>-1.2740170537990493E-4</v>
+        <v>-2.4873425226754937E-4</v>
       </c>
       <c r="C66">
-        <v>-2.1927561263952578E-4</v>
+        <v>-5.9792892851557808E-4</v>
       </c>
       <c r="D66">
-        <v>3.4630264984629238E-3</v>
+        <v>2.8007430363506751E-3</v>
       </c>
       <c r="E66">
-        <v>1.061488806822059E-3</v>
+        <v>9.2963884838308654E-4</v>
       </c>
       <c r="F66">
-        <v>-9.8949336940985008E-4</v>
+        <v>-9.3269552324947379E-4</v>
       </c>
       <c r="G66">
-        <v>-4.1363585601980922E-4</v>
+        <v>-3.5523815036264293E-4</v>
       </c>
       <c r="H66">
-        <v>-9.4623848984108796E-5</v>
+        <v>-8.4088220287853617E-5</v>
       </c>
       <c r="I66">
-        <v>5.031384530404834E-5</v>
+        <v>3.7812680280635239E-5</v>
       </c>
       <c r="J66">
-        <v>-1.5414949964652634E-3</v>
+        <v>-1.8332848868424139E-3</v>
       </c>
       <c r="K66">
-        <v>-3.2511858140376541E-4</v>
+        <v>-4.4665255355919888E-4</v>
       </c>
       <c r="L66">
-        <v>1.5541111399754016E-4</v>
+        <v>6.3838829193259324E-5</v>
       </c>
       <c r="M66">
-        <v>5.8222919047869041E-4</v>
+        <v>6.1504652235435536E-4</v>
       </c>
       <c r="N66">
-        <v>1.3292502371276612E-4</v>
+        <v>1.6324860017139414E-4</v>
       </c>
       <c r="O66">
-        <v>-6.3765795729518894E-5</v>
+        <v>-3.2006030563486961E-5</v>
       </c>
       <c r="P66">
-        <v>3.7879479319421261E-2</v>
+        <v>1.8600941145130969E-2</v>
       </c>
       <c r="Q66">
-        <v>3.2611855193124852E-2</v>
+        <v>1.4471719779456766E-2</v>
       </c>
       <c r="R66">
-        <v>4.9482993955488174E-3</v>
+        <v>3.2861108734123746E-3</v>
       </c>
       <c r="S66">
-        <v>4.4115990223129547E-4</v>
+        <v>3.5893831065428777E-4</v>
       </c>
       <c r="T66">
-        <v>1.0066749535510134E-4</v>
+        <v>9.0149662041160304E-5</v>
       </c>
       <c r="U66">
-        <v>-4.9984981744275211E-5</v>
+        <v>-2.655134054592231E-5</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-6.2748110262480757E-4</v>
+        <v>-9.276419174340043E-4</v>
       </c>
       <c r="B67">
-        <v>-1.1828950458790215E-4</v>
+        <v>-2.3477985125105999E-4</v>
       </c>
       <c r="C67">
-        <v>-2.0099592295458942E-4</v>
+        <v>-5.6359932719184797E-4</v>
       </c>
       <c r="D67">
-        <v>3.3999391942688912E-3</v>
+        <v>2.7502651741092405E-3</v>
       </c>
       <c r="E67">
-        <v>1.0408175503788314E-3</v>
+        <v>9.1263134636430032E-4</v>
       </c>
       <c r="F67">
-        <v>-9.6930316921588981E-4</v>
+        <v>-9.1455047755974758E-4</v>
       </c>
       <c r="G67">
-        <v>-3.8880661219377181E-4</v>
+        <v>-3.2937694015328821E-4</v>
       </c>
       <c r="H67">
-        <v>-8.8888682105850122E-5</v>
+        <v>-7.8101770702901444E-5</v>
       </c>
       <c r="I67">
-        <v>4.7520318239630604E-5</v>
+        <v>3.6915494446461776E-5</v>
       </c>
       <c r="J67">
-        <v>-1.451843140842161E-3</v>
+        <v>-1.7126032286259437E-3</v>
       </c>
       <c r="K67">
-        <v>-3.0559952943042131E-4</v>
+        <v>-4.1629660551501538E-4</v>
       </c>
       <c r="L67">
-        <v>1.4739050734124341E-4</v>
+        <v>6.4412983177760836E-5</v>
       </c>
       <c r="M67">
-        <v>5.4870629126577445E-4</v>
+        <v>5.7277810743456897E-4</v>
       </c>
       <c r="N67">
-        <v>1.251218628524373E-4</v>
+        <v>1.5220641713116148E-4</v>
       </c>
       <c r="O67">
-        <v>-6.1217460951526156E-5</v>
+        <v>-3.2548715476539466E-5</v>
       </c>
       <c r="P67">
-        <v>3.7072424940328731E-2</v>
+        <v>1.8142703287016958E-2</v>
       </c>
       <c r="Q67">
-        <v>3.1876674577660039E-2</v>
+        <v>1.412294672467034E-2</v>
       </c>
       <c r="R67">
-        <v>4.8273257801457687E-3</v>
+        <v>3.1692735923497502E-3</v>
       </c>
       <c r="S67">
-        <v>4.1549173722567182E-4</v>
+        <v>3.3396852255644991E-4</v>
       </c>
       <c r="T67">
-        <v>9.4720337480603943E-5</v>
+        <v>8.4012689741276445E-5</v>
       </c>
       <c r="U67">
-        <v>-4.7755185841701233E-5</v>
+        <v>-2.615481102913859E-5</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-5.8906702262353757E-4</v>
+        <v>-8.7860844495636897E-4</v>
       </c>
       <c r="B68">
-        <v>-1.0964807378519324E-4</v>
+        <v>-2.2147399341996529E-4</v>
       </c>
       <c r="C68">
-        <v>-1.8444281637536926E-4</v>
+        <v>-5.3154719975074052E-4</v>
       </c>
       <c r="D68">
-        <v>3.3374537632864612E-3</v>
+        <v>2.7005231127085606E-3</v>
       </c>
       <c r="E68">
-        <v>1.0204374761489882E-3</v>
+        <v>8.9590927426759167E-4</v>
       </c>
       <c r="F68">
-        <v>-9.4948200537380164E-4</v>
+        <v>-8.9679782982465686E-4</v>
       </c>
       <c r="G68">
-        <v>-3.6541378313281747E-4</v>
+        <v>-3.0521456112319077E-4</v>
       </c>
       <c r="H68">
-        <v>-8.3498016841432321E-5</v>
+        <v>-7.2510812548184846E-5</v>
       </c>
       <c r="I68">
-        <v>4.4854372314581977E-5</v>
+        <v>3.587247828382077E-5</v>
       </c>
       <c r="J68">
-        <v>-1.3671491807925287E-3</v>
+        <v>-1.5992975145591197E-3</v>
       </c>
       <c r="K68">
-        <v>-2.8723141809413227E-4</v>
+        <v>-3.879094221398459E-4</v>
       </c>
       <c r="L68">
-        <v>1.396273257506242E-4</v>
+        <v>6.4295383740777497E-5</v>
       </c>
       <c r="M68">
-        <v>5.1694069447679369E-4</v>
+        <v>5.3312631494460813E-4</v>
       </c>
       <c r="N68">
-        <v>1.1775161218045992E-4</v>
+        <v>1.4184377582128363E-4</v>
       </c>
       <c r="O68">
-        <v>-5.8639281100534043E-5</v>
+        <v>-3.2725314819415094E-5</v>
       </c>
       <c r="P68">
-        <v>3.6280366592599131E-2</v>
+        <v>1.769662409603601E-2</v>
       </c>
       <c r="Q68">
-        <v>3.1157645212968696E-2</v>
+        <v>1.3784417130107864E-2</v>
       </c>
       <c r="R68">
-        <v>4.7094290179748553E-3</v>
+        <v>3.0575933461178683E-3</v>
       </c>
       <c r="S68">
-        <v>3.9120966096210336E-4</v>
+        <v>3.1059652652274522E-4</v>
       </c>
       <c r="T68">
-        <v>8.9109898987311314E-5</v>
+        <v>7.8265305180817666E-5</v>
       </c>
       <c r="U68">
-        <v>-4.5547283674649305E-5</v>
+        <v>-2.5611695271441676E-5</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-5.523913643944075E-4</v>
+        <v>-8.3169537087280385E-4</v>
       </c>
       <c r="B69">
-        <v>-1.0146041625321474E-4</v>
+        <v>-2.0879493620087279E-4</v>
       </c>
       <c r="C69">
-        <v>-1.6945537410291886E-4</v>
+        <v>-5.016089138518584E-4</v>
       </c>
       <c r="D69">
-        <v>3.2756029394032226E-3</v>
+        <v>2.6515262802989728E-3</v>
       </c>
       <c r="E69">
-        <v>1.0003521783202049E-3</v>
+        <v>8.7947230613115998E-4</v>
       </c>
       <c r="F69">
-        <v>-9.3002511365236011E-4</v>
+        <v>-8.7942805980915245E-4</v>
       </c>
       <c r="G69">
-        <v>-3.4338266057673848E-4</v>
+        <v>-2.8266329086388072E-4</v>
       </c>
       <c r="H69">
-        <v>-7.8431745667585493E-5</v>
+        <v>-6.7293279564066511E-5</v>
       </c>
       <c r="I69">
-        <v>4.2314109719036409E-5</v>
+        <v>3.47153655538016E-5</v>
       </c>
       <c r="J69">
-        <v>-1.2871785469717148E-3</v>
+        <v>-1.4930044864946129E-3</v>
       </c>
       <c r="K69">
-        <v>-2.6995021507507529E-4</v>
+        <v>-3.6137929920354204E-4</v>
       </c>
       <c r="L69">
-        <v>1.3213880678571618E-4</v>
+        <v>6.3604515347832628E-5</v>
       </c>
       <c r="M69">
-        <v>4.8686408591513963E-4</v>
+        <v>4.9596655130380992E-4</v>
       </c>
       <c r="N69">
-        <v>1.1079410963229137E-4</v>
+        <v>1.3212814617985736E-4</v>
       </c>
       <c r="O69">
-        <v>-5.6057763335948252E-5</v>
+        <v>-3.2596813585322259E-5</v>
       </c>
       <c r="P69">
-        <v>3.5503145835370557E-2</v>
+        <v>1.7262466483205979E-2</v>
       </c>
       <c r="Q69">
-        <v>3.0454438273701551E-2</v>
+        <v>1.3455808185280286E-2</v>
       </c>
       <c r="R69">
-        <v>4.5945419851182601E-3</v>
+        <v>2.9508198659995758E-3</v>
       </c>
       <c r="S69">
-        <v>3.6825377299588694E-4</v>
+        <v>2.8873861925912789E-4</v>
       </c>
       <c r="T69">
-        <v>8.3819390542188505E-5</v>
+        <v>7.2886782484654796E-5</v>
       </c>
       <c r="U69">
-        <v>-4.3375155861798596E-5</v>
+        <v>-2.4950997037616368E-5</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-5.1741053734670006E-4</v>
+        <v>-7.8684637461397678E-4</v>
       </c>
       <c r="B70">
-        <v>-9.3709497288103132E-5</v>
+        <v>-1.9672079474104226E-4</v>
       </c>
       <c r="C70">
-        <v>-1.5588709340471875E-4</v>
+        <v>-4.7363298906202974E-4</v>
       </c>
       <c r="D70">
-        <v>3.2144162631918181E-3</v>
+        <v>2.6032821772537088E-3</v>
       </c>
       <c r="E70">
-        <v>9.8056458547876894E-4</v>
+        <v>8.6331969996054079E-4</v>
       </c>
       <c r="F70">
-        <v>-9.109277943971897E-4</v>
+        <v>-8.6243201774920336E-4</v>
       </c>
       <c r="G70">
-        <v>-3.2264116556406867E-4</v>
+        <v>-2.6163673428531857E-4</v>
       </c>
       <c r="H70">
-        <v>-7.3670854128484971E-5</v>
+        <v>-6.2427813640571886E-5</v>
       </c>
       <c r="I70">
-        <v>3.989698068517727E-5</v>
+        <v>3.3471658926816443E-5</v>
       </c>
       <c r="J70">
-        <v>-1.2117018969528672E-3</v>
+        <v>-1.3933667604012546E-3</v>
       </c>
       <c r="K70">
-        <v>-2.536948657382607E-4</v>
+        <v>-3.3659870980052377E-4</v>
       </c>
       <c r="L70">
-        <v>1.2493667695228576E-4</v>
+        <v>6.2443939087312319E-5</v>
       </c>
       <c r="M70">
-        <v>4.5840736924990862E-4</v>
+        <v>4.611752066740214E-4</v>
       </c>
       <c r="N70">
-        <v>1.04229533890844E-4</v>
+        <v>1.2302724168608036E-4</v>
       </c>
       <c r="O70">
-        <v>-5.3494541074154224E-5</v>
+        <v>-3.2216266162297434E-5</v>
       </c>
       <c r="P70">
-        <v>3.47406008250285E-2</v>
+        <v>1.6839990013414789E-2</v>
       </c>
       <c r="Q70">
-        <v>2.9766730485150036E-2</v>
+        <v>1.3136807076575871E-2</v>
       </c>
       <c r="R70">
-        <v>4.4825960371888372E-3</v>
+        <v>2.8487137700965994E-3</v>
       </c>
       <c r="S70">
-        <v>3.4656463878748569E-4</v>
+        <v>2.6831306007515568E-4</v>
       </c>
       <c r="T70">
-        <v>7.8832515092151935E-5</v>
+        <v>6.7856944518257046E-5</v>
       </c>
       <c r="U70">
-        <v>-4.1249838082766141E-5</v>
+        <v>-2.4197779900529325E-5</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-4.8407852024926851E-4</v>
+        <v>-7.4400277468946157E-4</v>
       </c>
       <c r="B71">
-        <v>-8.6378333338213117E-5</v>
+        <v>-1.85229662908151E-4</v>
       </c>
       <c r="C71">
-        <v>-1.4360465702299244E-4</v>
+        <v>-4.4747919826009294E-4</v>
       </c>
       <c r="D71">
-        <v>3.1539202563334433E-3</v>
+        <v>2.5557965123258774E-3</v>
       </c>
       <c r="E71">
-        <v>9.6107700646943768E-4</v>
+        <v>8.4745033250939689E-4</v>
       </c>
       <c r="F71">
-        <v>-8.9218539059615631E-4</v>
+        <v>-8.4580089077392387E-4</v>
       </c>
       <c r="G71">
-        <v>-3.0311996355483452E-4</v>
+        <v>-2.4205034252089674E-4</v>
       </c>
       <c r="H71">
-        <v>-6.9197371857078314E-5</v>
+        <v>-5.7893819535360184E-5</v>
       </c>
       <c r="I71">
-        <v>3.7599922376587961E-5</v>
+        <v>3.21651016690724E-5</v>
       </c>
       <c r="J71">
-        <v>-1.1404959865345275E-3</v>
+        <v>-1.3000346541258727E-3</v>
       </c>
       <c r="K71">
-        <v>-2.3840724491042131E-4</v>
+        <v>-3.1346445425946002E-4</v>
       </c>
       <c r="L71">
-        <v>1.1802807873011961E-4</v>
+        <v>6.0903896672365017E-5</v>
       </c>
       <c r="M71">
-        <v>4.3150131302028953E-4</v>
+        <v>4.2863047133742145E-4</v>
       </c>
       <c r="N71">
-        <v>9.8038509348567324E-5</v>
+        <v>1.1450925419095283E-4</v>
       </c>
       <c r="O71">
-        <v>-5.0967103751705288E-5</v>
+        <v>-3.1629734074717521E-5</v>
       </c>
       <c r="P71">
-        <v>3.3992566258964484E-2</v>
+        <v>1.6428951363168749E-2</v>
       </c>
       <c r="Q71">
-        <v>2.9094204022512855E-2</v>
+        <v>1.2827110621373034E-2</v>
       </c>
       <c r="R71">
-        <v>4.3735216013694577E-3</v>
+        <v>2.7510464137846498E-3</v>
       </c>
       <c r="S71">
-        <v>3.2608365448224169E-4</v>
+        <v>2.4924039714155783E-4</v>
       </c>
       <c r="T71">
-        <v>7.4133512445963122E-5</v>
+        <v>6.315623832784516E-5</v>
       </c>
       <c r="U71">
-        <v>-3.9179957785918771E-5</v>
+        <v>-2.3373636578376225E-5</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-4.5234736225852057E-4</v>
+        <v>-7.0310408668900089E-4</v>
       </c>
       <c r="B72">
-        <v>-7.9450069567770727E-5</v>
+        <v>-1.7429971969985748E-4</v>
       </c>
       <c r="C72">
-        <v>-1.3248680090276958E-4</v>
+        <v>-4.2301773302629313E-4</v>
       </c>
       <c r="D72">
-        <v>3.0941385920737106E-3</v>
+        <v>2.5090733333148255E-3</v>
       </c>
       <c r="E72">
-        <v>9.4189117402933135E-4</v>
+        <v>8.3186273222541338E-4</v>
       </c>
       <c r="F72">
-        <v>-8.7379327080690705E-4</v>
+        <v>-8.2952617351560675E-4</v>
       </c>
       <c r="G72">
-        <v>-2.8475253346044789E-4</v>
+        <v>-2.2382182445057503E-4</v>
       </c>
       <c r="H72">
-        <v>-6.4994324347071128E-5</v>
+        <v>-5.3671503867415939E-5</v>
       </c>
       <c r="I72">
-        <v>3.5419476198425867E-5</v>
+        <v>3.0816101150939544E-5</v>
       </c>
       <c r="J72">
-        <v>-1.0733443356550415E-3</v>
+        <v>-1.2126676544786388E-3</v>
       </c>
       <c r="K72">
-        <v>-2.2403209287976308E-4</v>
+        <v>-2.9187775106715932E-4</v>
       </c>
       <c r="L72">
-        <v>1.1141636364688419E-4</v>
+        <v>5.906276053096983E-5</v>
       </c>
       <c r="M72">
-        <v>4.0607708923321193E-4</v>
+        <v>3.9821300424885617E-4</v>
       </c>
       <c r="N72">
-        <v>9.2202186712920918E-5</v>
+        <v>1.0654304222334915E-4</v>
       </c>
       <c r="O72">
-        <v>-4.8489423697481745E-5</v>
+        <v>-3.0877115516942945E-5</v>
       </c>
       <c r="P72">
-        <v>3.3258873397679717E-2</v>
+        <v>1.6029104825793297E-2</v>
       </c>
       <c r="Q72">
-        <v>2.8436546424809014E-2</v>
+        <v>1.2526424937444866E-2</v>
       </c>
       <c r="R72">
-        <v>4.2672486721844448E-3</v>
+        <v>2.6575996828930156E-3</v>
       </c>
       <c r="S72">
-        <v>3.0675334299168355E-4</v>
+        <v>2.3144372108313327E-4</v>
       </c>
       <c r="T72">
-        <v>6.9707190612111614E-5</v>
+        <v>5.8765791396995229E-5</v>
       </c>
       <c r="U72">
-        <v>-3.7172109102750423E-5</v>
+        <v>-2.2497104736606742E-5</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-4.2216763620460548E-4</v>
+        <v>-6.6408852517623243E-4</v>
       </c>
       <c r="B73">
-        <v>-7.2908046869509427E-5</v>
+        <v>-1.6390932221415459E-4</v>
       </c>
       <c r="C73">
-        <v>-1.224232732453904E-4</v>
+        <v>-4.0012842881037602E-4</v>
       </c>
       <c r="D73">
-        <v>3.0350922609945208E-3</v>
+        <v>2.4631151520261925E-3</v>
       </c>
       <c r="E73">
-        <v>9.2300828622070437E-4</v>
+        <v>8.1655511037995892E-4</v>
       </c>
       <c r="F73">
-        <v>-8.5574681614719594E-4</v>
+        <v>-8.1359964238970472E-4</v>
       </c>
       <c r="G73">
-        <v>-2.6747519901506835E-4</v>
+        <v>-2.068714663825715E-4</v>
       </c>
       <c r="H73">
-        <v>-6.1045685717452271E-5</v>
+        <v>-4.9741900801110181E-5</v>
       </c>
       <c r="I73">
-        <v>3.3351886682945565E-5</v>
+        <v>2.9442109003898766E-5</v>
       </c>
       <c r="J73">
-        <v>-1.0100377204103556E-3</v>
+        <v>-1.1309355709130894E-3</v>
       </c>
       <c r="K73">
-        <v>-2.1051693918353967E-4</v>
+        <v>-2.7174427784599267E-4</v>
       </c>
       <c r="L73">
-        <v>1.0510176959310163E-4</v>
+        <v>5.6988343344469403E-5</v>
       </c>
       <c r="M73">
-        <v>3.8206671754044869E-4</v>
+        <v>3.69806472355702E-4</v>
       </c>
       <c r="N73">
-        <v>8.6702303357216121E-5</v>
+        <v>9.909827964123113E-5</v>
       </c>
       <c r="O73">
-        <v>-4.607249444309335E-5</v>
+        <v>-2.9992879515877544E-5</v>
       </c>
       <c r="P73">
-        <v>3.2539350150779835E-2</v>
+        <v>1.5640202846037343E-2</v>
       </c>
       <c r="Q73">
-        <v>2.7793450520350822E-2</v>
+        <v>1.2234465141439275E-2</v>
       </c>
       <c r="R73">
-        <v>4.1637072247769418E-3</v>
+        <v>2.5681657416091928E-3</v>
       </c>
       <c r="S73">
-        <v>2.8851759077012468E-4</v>
+        <v>2.1484885590535439E-4</v>
       </c>
       <c r="T73">
-        <v>6.5538946211640692E-5</v>
+        <v>5.4667451784295044E-5</v>
       </c>
       <c r="U73">
-        <v>-3.5231174533560207E-5</v>
+        <v>-2.1584035476920022E-5</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-3.9348884669001795E-4</v>
+        <v>-6.2689345288344993E-4</v>
       </c>
       <c r="B74">
-        <v>-6.6735859284837597E-5</v>
+        <v>-1.5403708628492955E-4</v>
       </c>
       <c r="C74">
-        <v>-1.1331387826576018E-4</v>
+        <v>-3.7870004590487012E-4</v>
       </c>
       <c r="D74">
-        <v>2.9767997315538722E-3</v>
+        <v>2.4179230633965699E-3</v>
       </c>
       <c r="E74">
-        <v>9.044290457027531E-4</v>
+        <v>8.0152539041412972E-4</v>
       </c>
       <c r="F74">
-        <v>-8.3804141066783848E-4</v>
+        <v>-7.9801333308915877E-4</v>
       </c>
       <c r="G74">
-        <v>-2.5122712957815888E-4</v>
+        <v>-1.9112237341179774E-4</v>
       </c>
       <c r="H74">
-        <v>-5.7336332654262583E-5</v>
+        <v>-4.6086886516527592E-5</v>
       </c>
       <c r="I74">
-        <v>3.1393184629771279E-5</v>
+        <v>2.8057962235165895E-5</v>
       </c>
       <c r="J74">
-        <v>-9.5037451846698617E-4</v>
+        <v>-1.054519417902467E-3</v>
       </c>
       <c r="K74">
-        <v>-1.9781201717260991E-4</v>
+        <v>-2.529741703248277E-4</v>
       </c>
       <c r="L74">
-        <v>9.9081998194712931E-5</v>
+        <v>5.4739079360869776E-5</v>
       </c>
       <c r="M74">
-        <v>3.5940342744949442E-4</v>
+        <v>3.4329797736431953E-4</v>
       </c>
       <c r="N74">
-        <v>8.1521226877736793E-5</v>
+        <v>9.2145570565231867E-5</v>
       </c>
       <c r="O74">
-        <v>-4.3724792788363891E-5</v>
+        <v>-2.9006715933332292E-5</v>
       </c>
       <c r="P74">
-        <v>3.1833821214367237E-2</v>
+        <v>1.5261996569201866E-2</v>
       </c>
       <c r="Q74">
-        <v>2.7164614361220123E-2</v>
+        <v>1.1950955071274631E-2</v>
       </c>
       <c r="R74">
-        <v>4.0628275575486338E-3</v>
+        <v>2.4825467452639716E-3</v>
       </c>
       <c r="S74">
-        <v>2.7132183357787062E-4</v>
+        <v>1.9938449611540168E-4</v>
       </c>
       <c r="T74">
-        <v>6.1614775923886825E-5</v>
+        <v>5.0843814766345599E-5</v>
       </c>
       <c r="U74">
-        <v>-3.3360600775738598E-5</v>
+        <v>-2.0647919959472713E-5</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-3.6625979567965022E-4</v>
+        <v>-5.9145578065524721E-4</v>
       </c>
       <c r="B75">
-        <v>-6.0917402738182145E-5</v>
+        <v>-1.4466195583695806E-4</v>
       </c>
       <c r="C75">
-        <v>-1.0506759840158943E-4</v>
+        <v>-3.5862960247597971E-4</v>
       </c>
       <c r="D75">
-        <v>2.9192771049894534E-3</v>
+        <v>2.3734968587303751E-3</v>
       </c>
       <c r="E75">
-        <v>8.8615369689404929E-4</v>
+        <v>7.8677123554301849E-4</v>
       </c>
       <c r="F75">
-        <v>-8.2067243452867611E-4</v>
+        <v>-7.8275952089184794E-4</v>
       </c>
       <c r="G75">
-        <v>-2.35950316316649E-4</v>
+        <v>-1.7650064421105885E-4</v>
       </c>
       <c r="H75">
-        <v>-5.3851999671512057E-5</v>
+        <v>-4.2689184284436165E-5</v>
       </c>
       <c r="I75">
-        <v>2.953925678329034E-5</v>
+        <v>2.6676189156690708E-5</v>
       </c>
       <c r="J75">
-        <v>-8.9416093148089433E-4</v>
+        <v>-9.8311206343365564E-4</v>
       </c>
       <c r="K75">
-        <v>-1.8587017184465117E-4</v>
+        <v>-2.3548198626321008E-4</v>
       </c>
       <c r="L75">
-        <v>9.3352705976256102E-5</v>
+        <v>5.2365088838650335E-5</v>
       </c>
       <c r="M75">
-        <v>3.3802194961181825E-4</v>
+        <v>3.1857838487677728E-4</v>
       </c>
       <c r="N75">
-        <v>7.6641984775218904E-5</v>
+        <v>8.5656535723778023E-5</v>
       </c>
       <c r="O75">
-        <v>-4.1452675215134268E-5</v>
+        <v>-2.7944111115276728E-5</v>
       </c>
       <c r="P75">
-        <v>3.1142108249077285E-2</v>
+        <v>1.4894236392651706E-2</v>
       </c>
       <c r="Q75">
-        <v>2.6549741164635123E-2</v>
+        <v>1.1675627028181585E-2</v>
       </c>
       <c r="R75">
-        <v>3.9645405743710853E-3</v>
+        <v>2.4005545265746342E-3</v>
       </c>
       <c r="S75">
-        <v>2.5511319852151223E-4</v>
+        <v>1.8498229787255254E-4</v>
       </c>
       <c r="T75">
-        <v>5.7921280609866489E-5</v>
+        <v>4.7278238233521923E-5</v>
       </c>
       <c r="U75">
-        <v>-3.1562635042756445E-5</v>
+        <v>-1.9700178935054349E-5</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-3.4042890831309514E-4</v>
+        <v>-5.5771232157420924E-4</v>
       </c>
       <c r="B76">
-        <v>-5.543691592719958E-5</v>
+        <v>-1.3576326195979848E-4</v>
       </c>
       <c r="C76">
-        <v>-9.7601789094786058E-5</v>
+        <v>-3.398217561225885E-4</v>
       </c>
       <c r="D76">
-        <v>2.8625382643036662E-3</v>
+        <v>2.329835133053721E-3</v>
       </c>
       <c r="E76">
-        <v>8.6818206108576742E-4</v>
+        <v>7.7229007466867307E-4</v>
       </c>
       <c r="F76">
-        <v>-8.036352594857478E-4</v>
+        <v>-7.6783070342810445E-4</v>
       </c>
       <c r="G76">
-        <v>-2.2158952875750426E-4</v>
+        <v>-1.6293548947502807E-4</v>
       </c>
       <c r="H76">
-        <v>-5.0579235794496251E-5</v>
+        <v>-3.953236172249408E-5</v>
       </c>
       <c r="I76">
-        <v>2.7785903994147364E-5</v>
+        <v>2.5307283588694875E-5</v>
       </c>
       <c r="J76">
-        <v>-8.4121110489904845E-4</v>
+        <v>-9.1641867681401857E-4</v>
       </c>
       <c r="K76">
-        <v>-1.7464676302162172E-4</v>
+        <v>-2.1918664041513912E-4</v>
       </c>
       <c r="L76">
-        <v>8.7907921231027914E-5</v>
+        <v>4.9909136071479841E-5</v>
       </c>
       <c r="M76">
-        <v>3.1785874596266004E-4</v>
+        <v>2.9554256921119124E-4</v>
       </c>
       <c r="N76">
-        <v>7.2048282721146365E-5</v>
+        <v>7.9603874640758071E-5</v>
       </c>
       <c r="O76">
-        <v>-3.9260717763488375E-5</v>
+        <v>-2.6826857782166362E-5</v>
       </c>
       <c r="P76">
-        <v>3.0464030089531455E-2</v>
+        <v>1.4536672509926336E-2</v>
       </c>
       <c r="Q76">
-        <v>2.5948539259469619E-2</v>
+        <v>1.1408221534873305E-2</v>
       </c>
       <c r="R76">
-        <v>3.8687780151606555E-3</v>
+        <v>2.3220102625731887E-3</v>
       </c>
       <c r="S76">
-        <v>2.3984060877494753E-4</v>
+        <v>1.7157693108055738E-4</v>
       </c>
       <c r="T76">
-        <v>5.4445663501736766E-5</v>
+        <v>4.3954848762599266E-5</v>
       </c>
       <c r="U76">
-        <v>-2.9838527342871154E-5</v>
+        <v>-1.8750419385815675E-5</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-3.1594452168162392E-4</v>
+        <v>-5.256001026466274E-4</v>
       </c>
       <c r="B77">
-        <v>-5.0279014156822617E-5</v>
+        <v>-1.2732077264425711E-4</v>
       </c>
       <c r="C77">
-        <v>-9.0841440625316012E-5</v>
+        <v>-3.2218823064366996E-4</v>
       </c>
       <c r="D77">
-        <v>2.8065950171436548E-3</v>
+        <v>2.2869353866441689E-3</v>
       </c>
       <c r="E77">
-        <v>8.50513569572664E-4</v>
+        <v>7.5807912665781156E-4</v>
       </c>
       <c r="F77">
-        <v>-7.8692524626977622E-4</v>
+        <v>-7.5321958559755261E-4</v>
       </c>
       <c r="G77">
-        <v>-2.0809225588837145E-4</v>
+        <v>-1.5035930289401074E-4</v>
       </c>
       <c r="H77">
-        <v>-4.7505362739489833E-5</v>
+        <v>-3.6600821598266209E-5</v>
       </c>
       <c r="I77">
-        <v>2.6128889532363155E-5</v>
+        <v>2.3959950448225899E-5</v>
       </c>
       <c r="J77">
-        <v>-7.9134716269631722E-4</v>
+        <v>-8.5415700517314872E-4</v>
       </c>
       <c r="K77">
-        <v>-1.6409956558577354E-4</v>
+        <v>-2.0401131584184425E-4</v>
       </c>
       <c r="L77">
-        <v>8.2740396929342148E-5</v>
+        <v>4.74074905993043E-5</v>
       </c>
       <c r="M77">
-        <v>2.9885218733510181E-4</v>
+        <v>2.7408958575139334E-4</v>
       </c>
       <c r="N77">
-        <v>6.7724513480681305E-5</v>
+        <v>7.3961407489648854E-5</v>
       </c>
       <c r="O77">
-        <v>-3.7152007215577073E-5</v>
+        <v>-2.5673506705039858E-5</v>
       </c>
       <c r="P77">
-        <v>2.9799402977334005E-2</v>
+        <v>1.4189055439686798E-2</v>
       </c>
       <c r="Q77">
-        <v>2.5360722036502994E-2</v>
+        <v>1.1148487106957289E-2</v>
       </c>
       <c r="R77">
-        <v>3.7754726423849436E-3</v>
+        <v>2.2467441282924528E-3</v>
       </c>
       <c r="S77">
-        <v>2.2545485658751228E-4</v>
+        <v>1.5910609850664948E-4</v>
       </c>
       <c r="T77">
-        <v>5.1175723622170428E-5</v>
+        <v>4.085854001210912E-5</v>
       </c>
       <c r="U77">
-        <v>-2.8188703430680968E-5</v>
+        <v>-1.7806661971775384E-5</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-2.9275513927548878E-4</v>
+        <v>-4.9505663733555392E-4</v>
       </c>
       <c r="B78">
-        <v>-4.5428716842580798E-5</v>
+        <v>-1.1931473406805638E-4</v>
       </c>
       <c r="C78">
-        <v>-8.471850183427998E-5</v>
+        <v>-3.0564728489565978E-4</v>
       </c>
       <c r="D78">
-        <v>2.7514572324784567E-3</v>
+        <v>2.2447941208329513E-3</v>
       </c>
       <c r="E78">
-        <v>8.3314729487420232E-4</v>
+        <v>7.4413542304508002E-4</v>
       </c>
       <c r="F78">
-        <v>-7.7053774350294146E-4</v>
+        <v>-7.3891906636150873E-4</v>
       </c>
       <c r="G78">
-        <v>-1.9540863529988862E-4</v>
+        <v>-1.3870769236314347E-4</v>
       </c>
       <c r="H78">
-        <v>-4.4618434638512808E-5</v>
+        <v>-3.3879787359581497E-5</v>
       </c>
       <c r="I78">
-        <v>2.4563978979202312E-5</v>
+        <v>2.2641325523498702E-5</v>
       </c>
       <c r="J78">
-        <v>-7.4439917213926018E-4</v>
+        <v>-7.9605750461056522E-4</v>
       </c>
       <c r="K78">
-        <v>-1.541886681874247E-4</v>
+        <v>-1.8988335619244179E-4</v>
       </c>
       <c r="L78">
-        <v>7.7841908615138169E-5</v>
+        <v>4.4890700426508194E-5</v>
       </c>
       <c r="M78">
-        <v>2.8094268613823272E-4</v>
+        <v>2.5412278133808388E-4</v>
       </c>
       <c r="N78">
-        <v>6.3655758236611274E-5</v>
+        <v>6.870409991404218E-5</v>
       </c>
       <c r="O78">
-        <v>-3.5128390342223062E-5</v>
+        <v>-2.449976680089743E-5</v>
       </c>
       <c r="P78">
-        <v>2.9148040810914204E-2</v>
+        <v>1.3851136533460756E-2</v>
       </c>
       <c r="Q78">
-        <v>2.4786007901242919E-2</v>
+        <v>1.0896180035233828E-2</v>
       </c>
       <c r="R78">
-        <v>3.6845583900178436E-3</v>
+        <v>2.1745949422921776E-3</v>
       </c>
       <c r="S78">
-        <v>2.1190864947936058E-4</v>
+        <v>1.4751052726922787E-4</v>
       </c>
       <c r="T78">
-        <v>4.8099845411819775E-5</v>
+        <v>3.7974964847517738E-5</v>
       </c>
       <c r="U78">
-        <v>-2.6612912494265267E-5</v>
+        <v>-1.6875542545341356E-5</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-2.7080965374528778E-4</v>
+        <v>-4.660201621144365E-4</v>
       </c>
       <c r="B79">
-        <v>-4.0871469358500561E-5</v>
+        <v>-1.1172590426000781E-4</v>
       </c>
       <c r="C79">
-        <v>-7.9171260910905326E-5</v>
+        <v>-2.9012322081353211E-4</v>
       </c>
       <c r="D79">
-        <v>2.6971329710420524E-3</v>
+        <v>2.2034069282104848E-3</v>
       </c>
       <c r="E79">
-        <v>8.1608198011920126E-4</v>
+        <v>7.3045582922573666E-4</v>
       </c>
       <c r="F79">
-        <v>-7.5446808785185123E-4</v>
+        <v>-7.2492222717056287E-4</v>
       </c>
       <c r="G79">
-        <v>-1.8349137328128103E-4</v>
+        <v>-1.2791947810597622E-4</v>
       </c>
       <c r="H79">
-        <v>-4.1907199338306641E-5</v>
+        <v>-3.1355284412079493E-5</v>
       </c>
       <c r="I79">
-        <v>2.3086972923568193E-5</v>
+        <v>2.1357171960206653E-5</v>
       </c>
       <c r="J79">
-        <v>-7.0020505151219888E-4</v>
+        <v>-7.418633488569526E-4</v>
       </c>
       <c r="K79">
-        <v>-1.4487637157813613E-4</v>
+        <v>-1.767341429586855E-4</v>
       </c>
       <c r="L79">
-        <v>7.3203505040296703E-5</v>
+        <v>4.2384285338646116E-5</v>
       </c>
       <c r="M79">
-        <v>2.6407279076085595E-4</v>
+        <v>2.3554985200441588E-4</v>
       </c>
       <c r="N79">
-        <v>5.98277817802701E-5</v>
+        <v>6.3808073657734639E-5</v>
       </c>
       <c r="O79">
-        <v>-3.3190687030436474E-5</v>
+        <v>-2.3318859489133306E-5</v>
       </c>
       <c r="P79">
-        <v>2.8509755406557487E-2</v>
+        <v>1.3522668457613988E-2</v>
       </c>
       <c r="Q79">
-        <v>2.4224120228386176E-2</v>
+        <v>1.0651064176970412E-2</v>
       </c>
       <c r="R79">
-        <v>3.5959704805544274E-3</v>
+        <v>2.105409808260939E-3</v>
       </c>
       <c r="S79">
-        <v>1.9915663389528474E-4</v>
+        <v>1.3673393737249106E-4</v>
       </c>
       <c r="T79">
-        <v>4.5206985384972485E-5</v>
+        <v>3.5290522397391576E-5</v>
       </c>
       <c r="U79">
-        <v>-2.5110353082638229E-5</v>
+        <v>-1.5962490616635731E-5</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-2.5005754053398902E-4</v>
+        <v>-4.3842984008191977E-4</v>
       </c>
       <c r="B80">
-        <v>-3.6593159845974307E-5</v>
+        <v>-1.0453557991637131E-4</v>
       </c>
       <c r="C80">
-        <v>-7.4143778747716281E-5</v>
+        <v>-2.7554592785253057E-4</v>
       </c>
       <c r="D80">
-        <v>2.643628609568115E-3</v>
+        <v>2.1627685773916777E-3</v>
       </c>
       <c r="E80">
-        <v>7.9931606667229789E-4</v>
+        <v>7.1703706420344542E-4</v>
       </c>
       <c r="F80">
-        <v>-7.3871160516414403E-4</v>
+        <v>-7.1122232181553382E-4</v>
       </c>
       <c r="G80">
-        <v>-1.7229565829443881E-4</v>
+        <v>-1.1793666349679377E-4</v>
       </c>
       <c r="H80">
-        <v>-3.9361061283314948E-5</v>
+        <v>-2.901411802209581E-5</v>
       </c>
       <c r="I80">
-        <v>2.1693733516126024E-5</v>
+        <v>2.0112055740316239E-5</v>
       </c>
       <c r="J80">
-        <v>-6.5861043187457702E-4</v>
+        <v>-6.9133033555051195E-4</v>
       </c>
       <c r="K80">
-        <v>-1.3612708750716641E-4</v>
+        <v>-1.6449896116674229E-4</v>
       </c>
       <c r="L80">
-        <v>6.8815718239763804E-5</v>
+        <v>3.9909357734232591E-5</v>
       </c>
       <c r="M80">
-        <v>2.4818724753536723E-4</v>
+        <v>2.1828285626801882E-4</v>
       </c>
       <c r="N80">
-        <v>5.6227022800016245E-5</v>
+        <v>5.9250605453572569E-5</v>
       </c>
       <c r="O80">
-        <v>-3.1338872306280801E-5</v>
+        <v>-2.2141832461538715E-5</v>
       </c>
       <c r="P80">
-        <v>2.78843567658663E-2</v>
+        <v>1.3203405646214682E-2</v>
       </c>
       <c r="Q80">
-        <v>2.3674787317168981E-2</v>
+        <v>1.0412910754614193E-2</v>
       </c>
       <c r="R80">
-        <v>3.5096455149097256E-3</v>
+        <v>2.0390437562032623E-3</v>
       </c>
       <c r="S80">
-        <v>1.8715540003039828E-4</v>
+        <v>1.2672299137544689E-4</v>
       </c>
       <c r="T80">
-        <v>4.2486656497296873E-5</v>
+        <v>3.2792341064697339E-5</v>
       </c>
       <c r="U80">
-        <v>-2.3679780295567571E-5</v>
+        <v>-1.5071887321553846E-5</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-2.3044902482861741E-4</v>
+        <v>-4.1222593453123783E-4</v>
       </c>
       <c r="B81">
-        <v>-3.2580131554216241E-5</v>
+        <v>-9.7725617087162568E-5</v>
       </c>
       <c r="C81">
-        <v>-6.9585370679988337E-5</v>
+        <v>-2.6185046128185873E-4</v>
       </c>
       <c r="D81">
-        <v>2.5909489588896717E-3</v>
+        <v>2.122873092516445E-3</v>
       </c>
       <c r="E81">
-        <v>7.8284772007887937E-4</v>
+        <v>7.0387571896025208E-4</v>
       </c>
       <c r="F81">
-        <v>-7.2326361237511224E-4</v>
+        <v>-6.9781276751584571E-4</v>
       </c>
       <c r="G81">
-        <v>-1.6177906983351321E-4</v>
+        <v>-1.0870438357890399E-4</v>
       </c>
       <c r="H81">
-        <v>-3.6970045983174428E-5</v>
+        <v>-2.6843848599816336E-5</v>
       </c>
       <c r="I81">
-        <v>2.0380205786405289E-5</v>
+        <v>1.8909502214674894E-5</v>
       </c>
       <c r="J81">
-        <v>-6.1946848229099682E-4</v>
+        <v>-6.4422670775359111E-4</v>
       </c>
       <c r="K81">
-        <v>-1.279072389334606E-4</v>
+        <v>-1.5311685648805552E-4</v>
       </c>
       <c r="L81">
-        <v>6.4668738844228838E-5</v>
+        <v>3.7483177762989787E-5</v>
       </c>
       <c r="M81">
-        <v>2.3323303535762976E-4</v>
+        <v>2.0223819120706031E-4</v>
       </c>
       <c r="N81">
-        <v>5.2840580299658622E-5</v>
+        <v>5.501011627568378E-5</v>
       </c>
       <c r="O81">
-        <v>-2.9572231575175018E-5</v>
+        <v>-2.0977837416676437E-5</v>
       </c>
       <c r="P81">
-        <v>2.7271653345683475E-2</v>
+        <v>1.2893104722498019E-2</v>
       </c>
       <c r="Q81">
-        <v>2.3137742347015045E-2</v>
+        <v>1.0181498160714304E-2</v>
       </c>
       <c r="R81">
-        <v>3.4255215393585326E-3</v>
+        <v>1.9753593861008959E-3</v>
       </c>
       <c r="S81">
-        <v>1.7586347105151093E-4</v>
+        <v>1.1742722875338047E-4</v>
       </c>
       <c r="T81">
-        <v>3.9928910798625594E-5</v>
+        <v>3.0468258364407648E-5</v>
       </c>
       <c r="U81">
-        <v>-2.2319596843844991E-5</v>
+        <v>-1.4207205154389716E-5</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-2.1193522417068463E-4</v>
+        <v>-3.8734995521385533E-4</v>
       </c>
       <c r="B82">
-        <v>-2.8819191230735867E-5</v>
+        <v>-9.1278446397642378E-5</v>
       </c>
       <c r="C82">
-        <v>-6.5450132722497426E-5</v>
+        <v>-2.4897665192687195E-4</v>
       </c>
       <c r="D82">
-        <v>2.5390973760125815E-3</v>
+        <v>2.0837138276769821E-3</v>
       </c>
       <c r="E82">
-        <v>7.6667485440603167E-4</v>
+        <v>6.9096827351562413E-4</v>
       </c>
       <c r="F82">
-        <v>-7.081194200034218E-4</v>
+        <v>-6.8468713708211141E-4</v>
       </c>
       <c r="G82">
-        <v>-1.5190148433199792E-4</v>
+        <v>-1.0017083559136632E-4</v>
       </c>
       <c r="H82">
-        <v>-3.4724766049074348E-5</v>
+        <v>-2.4832765009562712E-5</v>
       </c>
       <c r="I82">
-        <v>1.914243450275145E-5</v>
+        <v>1.7752135553938634E-5</v>
       </c>
       <c r="J82">
-        <v>-5.8263970656191599E-4</v>
+        <v>-6.0033290611904609E-4</v>
       </c>
       <c r="K82">
-        <v>-1.2018516214996734E-4</v>
+        <v>-1.4253048632626759E-4</v>
       </c>
       <c r="L82">
-        <v>6.0752561638307188E-5</v>
+        <v>3.5119648984163834E-5</v>
       </c>
       <c r="M82">
-        <v>2.1915937740346614E-4</v>
+        <v>1.8733653766421935E-4</v>
       </c>
       <c r="N82">
-        <v>4.9656197009177262E-5</v>
+        <v>5.1066152763038021E-5</v>
       </c>
       <c r="O82">
-        <v>-2.7889492804405387E-5</v>
+        <v>-1.983437578351399E-5</v>
       </c>
       <c r="P82">
-        <v>2.6671452327187373E-2</v>
+        <v>1.2591524887506382E-2</v>
       </c>
       <c r="Q82">
-        <v>2.261272333301733E-2</v>
+        <v>9.9566117680843537E-3</v>
       </c>
       <c r="R82">
-        <v>3.3435380930853333E-3</v>
+        <v>1.9142265164051248E-3</v>
       </c>
       <c r="S82">
-        <v>1.6524127950169455E-4</v>
+        <v>1.0879898804198643E-4</v>
       </c>
       <c r="T82">
-        <v>3.7524320845052886E-5</v>
+        <v>2.8306798327529646E-5</v>
       </c>
       <c r="U82">
-        <v>-2.1027930230584541E-5</v>
+        <v>-1.3371131472761683E-5</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-1.9446826893218836E-4</v>
+        <v>-3.6374477987757533E-4</v>
       </c>
       <c r="B83">
-        <v>-2.5297614038244376E-5</v>
+        <v>-8.5177083418292051E-5</v>
       </c>
       <c r="C83">
-        <v>-6.1696508698355019E-5</v>
+        <v>-2.3686874511288624E-4</v>
       </c>
       <c r="D83">
-        <v>2.4880758703028638E-3</v>
+        <v>2.0452835364732636E-3</v>
       </c>
       <c r="E83">
-        <v>7.5079515505694424E-4</v>
+        <v>6.7831111274171182E-4</v>
       </c>
       <c r="F83">
-        <v>-6.9327433508730037E-4</v>
+        <v>-6.7183915200924246E-4</v>
       </c>
       <c r="G83">
-        <v>-1.4262497947928023E-4</v>
+        <v>-9.2287195215465801E-5</v>
       </c>
       <c r="H83">
-        <v>-3.2616388777803903E-5</v>
+        <v>-2.2969856459372298E-5</v>
       </c>
       <c r="I83">
-        <v>1.7976577246460303E-5</v>
+        <v>1.6641802805423188E-5</v>
       </c>
       <c r="J83">
-        <v>-5.479917182640169E-4</v>
+        <v>-5.5944126514067757E-4</v>
       </c>
       <c r="K83">
-        <v>-1.1293101128909442E-4</v>
+        <v>-1.3268596706291863E-4</v>
       </c>
       <c r="L83">
-        <v>5.7057105687880532E-5</v>
+        <v>3.2829760225403835E-5</v>
       </c>
       <c r="M83">
-        <v>2.0591773380201287E-4</v>
+        <v>1.7350278012975856E-4</v>
       </c>
       <c r="N83">
-        <v>4.6662240510130117E-5</v>
+        <v>4.7399362363136355E-5</v>
       </c>
       <c r="O83">
-        <v>-2.628893886343538E-5</v>
+        <v>-1.8717515998500595E-5</v>
       </c>
       <c r="P83">
-        <v>2.6083559881465563E-2</v>
+        <v>1.229842827519893E-2</v>
       </c>
       <c r="Q83">
-        <v>2.2099473080902481E-2</v>
+        <v>9.7380437444484023E-3</v>
       </c>
       <c r="R83">
-        <v>3.2636362394146195E-3</v>
+        <v>1.8555218392631882E-3</v>
       </c>
       <c r="S83">
-        <v>1.5525113329591575E-4</v>
+        <v>1.0079331943763949E-4</v>
       </c>
       <c r="T83">
-        <v>3.5263960265257628E-5</v>
+        <v>2.6297147097540067E-5</v>
       </c>
       <c r="U83">
-        <v>-1.980269799645779E-5</v>
+        <v>-1.2565677559103046E-5</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-1.7800140274274826E-4</v>
+        <v>-3.4135475349725828E-4</v>
       </c>
       <c r="B84">
-        <v>-2.200314542876663E-5</v>
+        <v>-7.9405134747682863E-5</v>
       </c>
       <c r="C84">
-        <v>-5.8286894919989951E-5</v>
+        <v>-2.2547506671165594E-4</v>
       </c>
       <c r="D84">
-        <v>2.437885203949127E-3</v>
+        <v>2.0075744369047539E-3</v>
       </c>
       <c r="E84">
-        <v>7.3520610013394494E-4</v>
+        <v>6.6590054100042055E-4</v>
       </c>
       <c r="F84">
-        <v>-6.7872366443442556E-4</v>
+        <v>-6.5926267637478363E-4</v>
       </c>
       <c r="G84">
-        <v>-1.339137380620661E-4</v>
+        <v>-8.5007521725253909E-5</v>
       </c>
       <c r="H84">
-        <v>-3.0636605253449765E-5</v>
+        <v>-2.1244783439532559E-5</v>
       </c>
       <c r="I84">
-        <v>1.6878914277842741E-5</v>
+        <v>1.5579684083819601E-5</v>
       </c>
       <c r="J84">
-        <v>-5.153989998463171E-4</v>
+        <v>-5.2135566515915902E-4</v>
       </c>
       <c r="K84">
-        <v>-1.0611666556453119E-4</v>
+        <v>-1.2353271931287259E-4</v>
       </c>
       <c r="L84">
-        <v>5.3572312768535024E-5</v>
+        <v>3.0621978830913984E-5</v>
       </c>
       <c r="M84">
-        <v>1.9346177861170568E-4</v>
+        <v>1.6066590614587437E-4</v>
       </c>
       <c r="N84">
-        <v>4.3847682673656437E-5</v>
+        <v>4.3991463519986573E-5</v>
       </c>
       <c r="O84">
-        <v>-2.4768502792229777E-5</v>
+        <v>-1.7632085496028158E-5</v>
       </c>
       <c r="P84">
-        <v>2.5507781429380531E-2</v>
+        <v>1.2013580273913804E-2</v>
       </c>
       <c r="Q84">
-        <v>2.1597739141211707E-2</v>
+        <v>9.5255928709894466E-3</v>
       </c>
       <c r="R84">
-        <v>3.1857585833587518E-3</v>
+        <v>1.7991285839937486E-3</v>
       </c>
       <c r="S84">
-        <v>1.4585717337642666E-4</v>
+        <v>9.336789015838929E-5</v>
       </c>
       <c r="T84">
-        <v>3.3139383805330042E-5</v>
+        <v>2.442912724793229E-5</v>
       </c>
       <c r="U84">
-        <v>-1.8641662705401155E-5</v>
+        <v>-1.1792274825660317E-5</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-1.6248906481589978E-4</v>
+        <v>-3.2012576745670327E-4</v>
       </c>
       <c r="B85">
-        <v>-1.8924000367891312E-5</v>
+        <v>-7.3946800325873797E-5</v>
       </c>
       <c r="C85">
-        <v>-5.5187279331896872E-5</v>
+        <v>-2.1474771433156522E-4</v>
       </c>
       <c r="D85">
-        <v>2.3885249868812217E-3</v>
+        <v>1.970578271811792E-3</v>
       </c>
       <c r="E85">
-        <v>7.1990498042419208E-4</v>
+        <v>6.5373279566756913E-4</v>
       </c>
       <c r="F85">
-        <v>-6.6446271808213227E-4</v>
+        <v>-6.4695171143208316E-4</v>
       </c>
       <c r="G85">
-        <v>-1.2573395223620173E-4</v>
+        <v>-7.8288654768483566E-5</v>
       </c>
       <c r="H85">
-        <v>-2.8777600930747955E-5</v>
+        <v>-1.9647848107674981E-5</v>
       </c>
       <c r="I85">
-        <v>1.5845855692703863E-5</v>
+        <v>1.4566390280030816E-5</v>
       </c>
       <c r="J85">
-        <v>-4.8474265062007732E-4</v>
+        <v>-4.85891150229942E-4</v>
       </c>
       <c r="K85">
-        <v>-9.9715639517574913E-5</v>
+        <v>-1.1502331275159745E-4</v>
       </c>
       <c r="L85">
-        <v>5.0288227311364363E-5</v>
+        <v>2.8502600034056817E-5</v>
       </c>
       <c r="M85">
-        <v>1.8174736399171701E-4</v>
+        <v>1.4875888944192766E-4</v>
       </c>
       <c r="N85">
-        <v>4.1202077910782206E-5</v>
+        <v>4.0825212036471446E-5</v>
       </c>
       <c r="O85">
-        <v>-2.3325848390542969E-5</v>
+        <v>-1.6581840216738364E-5</v>
       </c>
       <c r="P85">
-        <v>2.4943921893979634E-2</v>
+        <v>1.1736749814543536E-2</v>
       </c>
       <c r="Q85">
-        <v>2.1107273762510093E-2</v>
+        <v>9.3190643643640842E-3</v>
       </c>
       <c r="R85">
-        <v>3.1098492777462189E-3</v>
+        <v>1.7449361899958779E-3</v>
       </c>
       <c r="S85">
-        <v>1.3702532480745303E-4</v>
+        <v>8.6482884543850658E-5</v>
       </c>
       <c r="T85">
-        <v>3.1142607119653366E-5</v>
+        <v>2.2693171265066552E-5</v>
       </c>
       <c r="U85">
-        <v>-1.7542478118951859E-5</v>
+        <v>-1.1051859576318713E-5</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-1.4788695599806298E-4</v>
+        <v>-3.0000532078102208E-4</v>
       </c>
       <c r="B86">
-        <v>-1.6048860265830783E-5</v>
+        <v>-6.8786872451784837E-5</v>
       </c>
       <c r="C86">
-        <v>-5.2366912259380368E-5</v>
+        <v>-2.0464227182391922E-4</v>
       </c>
       <c r="D86">
-        <v>2.3399937663370648E-3</v>
+        <v>1.9342863650799659E-3</v>
       </c>
       <c r="E86">
-        <v>7.0488891808050895E-4</v>
+        <v>6.4180405960658838E-4</v>
       </c>
       <c r="F86">
-        <v>-6.5048681288130494E-4</v>
+        <v>-6.3490039080194266E-4</v>
       </c>
       <c r="G86">
-        <v>-1.1805372895423716E-4</v>
+        <v>-7.2090105101922929E-5</v>
       </c>
       <c r="H86">
-        <v>-2.7032027660615448E-5</v>
+        <v>-1.816996445470842E-5</v>
       </c>
       <c r="I86">
-        <v>1.4873946297856557E-5</v>
+        <v>1.3602049541862853E-5</v>
       </c>
       <c r="J86">
-        <v>-4.5591012768647014E-4</v>
+        <v>-4.5287352056755761E-4</v>
       </c>
       <c r="K86">
-        <v>-9.3702996455718386E-5</v>
+        <v>-1.0711331182027844E-4</v>
       </c>
       <c r="L86">
-        <v>4.7195060638790164E-5</v>
+        <v>2.647605677274115E-5</v>
       </c>
       <c r="M86">
-        <v>1.7073247406272795E-4</v>
+        <v>1.3771856044596806E-4</v>
       </c>
       <c r="N86">
-        <v>3.8715540646001083E-5</v>
+        <v>3.7884364570796185E-5</v>
       </c>
       <c r="O86">
-        <v>-2.1958438190916585E-5</v>
+        <v>-1.5569614125273214E-5</v>
       </c>
       <c r="P86">
-        <v>2.4391785944082596E-2</v>
+        <v>1.1467709626165262E-2</v>
       </c>
       <c r="Q86">
-        <v>2.0627833843495886E-2</v>
+        <v>9.1182697018631371E-3</v>
       </c>
       <c r="R86">
-        <v>3.0358540198700667E-3</v>
+        <v>1.6928399899950116E-3</v>
       </c>
       <c r="S86">
-        <v>1.2872324282449851E-4</v>
+        <v>8.0100900584464244E-5</v>
       </c>
       <c r="T86">
-        <v>2.9266086525610763E-5</v>
+        <v>2.1080294567904975E-5</v>
       </c>
       <c r="U86">
-        <v>-1.6502727808441629E-5</v>
+        <v>-1.0344947584624009E-5</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-1.3415209023129006E-4</v>
+        <v>-2.8094256536615982E-4</v>
       </c>
       <c r="B87">
-        <v>-1.3366867934072602E-5</v>
+        <v>-6.3910731936014689E-5</v>
       </c>
       <c r="C87">
-        <v>-4.9798006126243623E-5</v>
+        <v>-1.9511754540193937E-4</v>
       </c>
       <c r="D87">
-        <v>2.2922891112779403E-3</v>
+        <v>1.8986896738211318E-3</v>
       </c>
       <c r="E87">
-        <v>6.901548840667688E-4</v>
+        <v>6.3011047265356572E-4</v>
       </c>
       <c r="F87">
-        <v>-6.3679127613362903E-4</v>
+        <v>-6.2310297617899555E-4</v>
       </c>
       <c r="G87">
-        <v>-1.1084299712967501E-4</v>
+        <v>-6.6373941252908199E-5</v>
       </c>
       <c r="H87">
-        <v>-2.539297711337232E-5</v>
+        <v>-1.6802628531258991E-5</v>
       </c>
       <c r="I87">
-        <v>1.3959868574874177E-5</v>
+        <v>1.2686383662662439E-5</v>
       </c>
       <c r="J87">
-        <v>-4.2879498317201686E-4</v>
+        <v>-4.2213890704754804E-4</v>
       </c>
       <c r="K87">
-        <v>-8.8055265212235348E-5</v>
+        <v>-9.9761123392281265E-5</v>
       </c>
       <c r="L87">
-        <v>4.4283241877126254E-5</v>
+        <v>2.4545193881788028E-5</v>
       </c>
       <c r="M87">
-        <v>1.6037717059960401E-4</v>
+        <v>1.2748546731807079E-4</v>
       </c>
       <c r="N87">
-        <v>3.6378722352675081E-5</v>
+        <v>3.5153640081520949E-5</v>
       </c>
       <c r="O87">
-        <v>-2.0663590596844045E-5</v>
+        <v>-1.4597450952718028E-5</v>
       </c>
       <c r="P87">
-        <v>2.3851178227995293E-2</v>
+        <v>1.1206236460168419E-2</v>
       </c>
       <c r="Q87">
-        <v>2.0159180883932076E-2</v>
+        <v>8.9230264494930094E-3</v>
       </c>
       <c r="R87">
-        <v>2.9637200403202688E-3</v>
+        <v>1.6427409042904279E-3</v>
       </c>
       <c r="S87">
-        <v>1.2092025513654736E-4</v>
+        <v>7.4186844316677741E-5</v>
       </c>
       <c r="T87">
-        <v>2.7502698898871111E-5</v>
+        <v>1.9582068373482006E-5</v>
       </c>
       <c r="U87">
-        <v>-1.5519957285103914E-5</v>
+        <v>-9.6716996110452718E-6</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-1.2124283299681022E-4</v>
+        <v>-2.628883370011881E-4</v>
       </c>
       <c r="B88">
-        <v>-1.0867620859494269E-5</v>
+        <v>-5.9304341781686788E-5</v>
       </c>
       <c r="C88">
-        <v>-4.7455461710131809E-5</v>
+        <v>-1.8613531978563827E-4</v>
       </c>
       <c r="D88">
-        <v>2.2454076918618534E-3</v>
+        <v>1.8637788367425413E-3</v>
       </c>
       <c r="E88">
-        <v>6.7569971443541077E-4</v>
+        <v>6.1864814217249477E-4</v>
       </c>
       <c r="F88">
-        <v>-6.2337144922491254E-4</v>
+        <v>-6.1155385347887983E-4</v>
       </c>
       <c r="G88">
-        <v>-1.0407341698849394E-4</v>
+        <v>-6.1104673774687874E-5</v>
       </c>
       <c r="H88">
-        <v>-2.3853955554116919E-5</v>
+        <v>-1.553788896631999E-5</v>
       </c>
       <c r="I88">
-        <v>1.3100444049667863E-5</v>
+        <v>1.1818775406987772E-5</v>
       </c>
       <c r="J88">
-        <v>-4.0329660055820552E-4</v>
+        <v>-3.9353333415790664E-4</v>
       </c>
       <c r="K88">
-        <v>-8.2750360298478043E-5</v>
+        <v>-9.2927847289375596E-5</v>
       </c>
       <c r="L88">
-        <v>4.1543457598374684E-5</v>
+        <v>2.2711510243719678E-5</v>
       </c>
       <c r="M88">
-        <v>1.506435323931231E-4</v>
+        <v>1.1800373020565961E-4</v>
       </c>
       <c r="N88">
-        <v>3.4182788428051123E-5</v>
+        <v>3.2618679907449838E-5</v>
       </c>
       <c r="O88">
-        <v>-1.9438527723193557E-5</v>
+        <v>-1.3666720135218238E-5</v>
       </c>
       <c r="P88">
-        <v>2.3321903596580706E-2</v>
+        <v>1.0952111284150821E-2</v>
       </c>
       <c r="Q88">
-        <v>1.9701080934363166E-2</v>
+        <v>8.7331580928285881E-3</v>
       </c>
       <c r="R88">
-        <v>2.8933960854207064E-3</v>
+        <v>1.5945451464673248E-3</v>
       </c>
       <c r="S88">
-        <v>1.1358730157411894E-4</v>
+        <v>6.8707823297872644E-5</v>
       </c>
       <c r="T88">
-        <v>2.5845721849592094E-5</v>
+        <v>1.8190592663950763E-5</v>
       </c>
       <c r="U88">
-        <v>-1.459170057781388E-5</v>
+        <v>-9.0319788615657515E-6</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-1.0911892818770635E-4</v>
+        <v>-2.4579517383787117E-4</v>
       </c>
       <c r="B89">
-        <v>-8.5411630547217581E-6</v>
+        <v>-5.4954238749302625E-5</v>
       </c>
       <c r="C89">
-        <v>-4.531661869389753E-5</v>
+        <v>-1.7766013289514454E-4</v>
       </c>
       <c r="D89">
-        <v>2.1993453541832761E-3</v>
+        <v>1.8295442189108194E-3</v>
       </c>
       <c r="E89">
-        <v>6.6152012550228941E-4</v>
+        <v>6.0741315273778543E-4</v>
       </c>
       <c r="F89">
-        <v>-6.1022269120765264E-4</v>
+        <v>-6.0024752936282445E-4</v>
       </c>
       <c r="G89">
-        <v>-9.7718291959197285E-5</v>
+        <v>-5.624913849440004E-5</v>
       </c>
       <c r="H89">
-        <v>-2.2408859921798888E-5</v>
+        <v>-1.4368317968362274E-5</v>
       </c>
       <c r="I89">
-        <v>1.229263334072571E-5</v>
+        <v>1.0998327705439133E-5</v>
       </c>
       <c r="J89">
-        <v>-3.7931993238994447E-4</v>
+        <v>-3.6691227682856691E-4</v>
       </c>
       <c r="K89">
-        <v>-7.7767505482921148E-5</v>
+        <v>-8.6577130366236288E-5</v>
       </c>
       <c r="L89">
-        <v>3.8966681956693121E-5</v>
+        <v>2.097537215567031E-5</v>
       </c>
       <c r="M89">
-        <v>1.4149558984435619E-4</v>
+        <v>1.0922089102942678E-4</v>
       </c>
       <c r="N89">
-        <v>3.2119395132867989E-5</v>
+        <v>3.0266007059294482E-5</v>
       </c>
       <c r="O89">
-        <v>-1.8280415264384756E-5</v>
+        <v>-1.2778218704267985E-5</v>
       </c>
       <c r="P89">
-        <v>2.2803767315142456E-2</v>
+        <v>1.0705119447025516E-2</v>
       </c>
       <c r="Q89">
-        <v>1.9253304544612646E-2</v>
+        <v>8.5484938705467847E-3</v>
       </c>
       <c r="R89">
-        <v>2.8248323944869611E-3</v>
+        <v>1.5481639408662566E-3</v>
       </c>
       <c r="S89">
-        <v>1.0669687201334297E-4</v>
+        <v>6.3633040178669682E-5</v>
       </c>
       <c r="T89">
-        <v>2.4288814293986032E-5</v>
+        <v>1.6898469463523723E-5</v>
       </c>
       <c r="U89">
-        <v>-1.3715502064513983E-5</v>
+        <v>-8.4254012822958051E-6</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-9.7741514740167114E-5</v>
+        <v>-2.2961732382434391E-4</v>
       </c>
       <c r="B90">
-        <v>-6.3779757179033899E-6</v>
+        <v>-5.0847523127009223E-5</v>
       </c>
       <c r="C90">
-        <v>-4.3361028450354201E-5</v>
+        <v>-1.6965906771796341E-4</v>
       </c>
       <c r="D90">
-        <v>2.1540971904903858E-3</v>
+        <v>1.7959759531141399E-3</v>
       </c>
       <c r="E90">
-        <v>6.4761272798078166E-4</v>
+        <v>5.9640157499913911E-4</v>
       </c>
       <c r="F90">
-        <v>-5.9734038229639378E-4</v>
+        <v>-5.891786280834792E-4</v>
       </c>
       <c r="G90">
-        <v>-9.1752483360278233E-5</v>
+        <v>-5.1776379921714924E-5</v>
       </c>
       <c r="H90">
-        <v>-2.1051955162757856E-5</v>
+        <v>-1.3286982963218413E-5</v>
       </c>
       <c r="I90">
-        <v>1.1533535120659503E-5</v>
+        <v>1.0223915562728486E-5</v>
       </c>
       <c r="J90">
-        <v>-3.5677524122314079E-4</v>
+        <v>-3.4214021571856205E-4</v>
       </c>
       <c r="K90">
-        <v>-7.3087160790574757E-5</v>
+        <v>-8.0675024734539391E-5</v>
       </c>
       <c r="L90">
-        <v>3.6544198833600281E-5</v>
+        <v>1.9336200872277182E-5</v>
       </c>
       <c r="M90">
-        <v>1.3289925612728717E-4</v>
+        <v>1.0108776076058185E-4</v>
       </c>
       <c r="N90">
-        <v>3.0180666776205259E-5</v>
+        <v>2.8082985204338812E-5</v>
       </c>
       <c r="O90">
-        <v>-1.7186395535871855E-5</v>
+        <v>-1.1932260692644826E-5</v>
       </c>
       <c r="P90">
-        <v>2.2296575263776944E-2</v>
+        <v>1.0465050816900882E-2</v>
       </c>
       <c r="Q90">
-        <v>1.881562671108419E-2</v>
+        <v>8.368868610597267E-3</v>
       </c>
       <c r="R90">
-        <v>2.7579806729399747E-3</v>
+        <v>1.5035132519602712E-3</v>
       </c>
       <c r="S90">
-        <v>1.0022294335212647E-4</v>
+        <v>5.8933687219767502E-5</v>
       </c>
       <c r="T90">
-        <v>2.2825997506038655E-5</v>
+        <v>1.5698776595248606E-5</v>
       </c>
       <c r="U90">
-        <v>-1.2888934248895318E-5</v>
+        <v>-7.851379488848589E-6</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-8.7073134243967028E-5</v>
+        <v>-2.1431074249088664E-4</v>
       </c>
       <c r="B91">
-        <v>-4.3689669112871128E-6</v>
+        <v>-4.6971846996325868E-5</v>
       </c>
       <c r="C91">
-        <v>-4.1570247161461081E-5</v>
+        <v>-1.6210156007165656E-4</v>
       </c>
       <c r="D91">
-        <v>2.1096576050904955E-3</v>
+        <v>1.7630639780188328E-3</v>
       </c>
       <c r="E91">
-        <v>6.3397404013501276E-4</v>
+        <v>5.8560947378053603E-4</v>
       </c>
       <c r="F91">
-        <v>-5.8471992724642063E-4</v>
+        <v>-5.7834188860444655E-4</v>
       </c>
       <c r="G91">
-        <v>-8.615232807392588E-5</v>
+        <v>-4.7657535782669975E-5</v>
       </c>
       <c r="H91">
-        <v>-1.9777852769137854E-5</v>
+        <v>-1.228741899155672E-5</v>
       </c>
       <c r="I91">
-        <v>1.0820384191472736E-5</v>
+        <v>9.4942314428398645E-6</v>
       </c>
       <c r="J91">
-        <v>-3.3557784530401243E-4</v>
+        <v>-3.1909019479724117E-4</v>
       </c>
       <c r="K91">
-        <v>-6.8690952893567405E-5</v>
+        <v>-7.5189850569949666E-5</v>
       </c>
       <c r="L91">
-        <v>3.4267617293409154E-5</v>
+        <v>1.7792637012091613E-5</v>
       </c>
       <c r="M91">
-        <v>1.2482225604161358E-4</v>
+        <v>9.3558265844867957E-5</v>
       </c>
       <c r="N91">
-        <v>2.8359173292524797E-5</v>
+        <v>2.6057777743551115E-5</v>
       </c>
       <c r="O91">
-        <v>-1.615361467590917E-5</v>
+        <v>-1.1128755450527779E-5</v>
       </c>
       <c r="P91">
-        <v>2.1800134126013657E-2</v>
+        <v>1.0231699893375377E-2</v>
       </c>
       <c r="Q91">
-        <v>1.8387826822908435E-2</v>
+        <v>8.1941225690015454E-3</v>
       </c>
       <c r="R91">
-        <v>2.6927940621582955E-3</v>
+        <v>1.4605135256707971E-3</v>
       </c>
       <c r="S91">
-        <v>9.4140916189373096E-5</v>
+        <v>5.4582842450296352E-5</v>
       </c>
       <c r="T91">
-        <v>2.1451636718905487E-5</v>
+        <v>1.4585042052850384E-5</v>
       </c>
       <c r="U91">
-        <v>-1.2109612082225299E-5</v>
+        <v>-7.3091610444083901E-6</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-7.7077730649219615E-5</v>
+        <v>-1.9983308235309774E-4</v>
       </c>
       <c r="B92">
-        <v>-2.5054604435889892E-6</v>
+        <v>-4.3315401254079132E-5</v>
       </c>
       <c r="C92">
-        <v>-3.9927647527711794E-5</v>
+        <v>-1.5495922107401392E-4</v>
       </c>
       <c r="D92">
-        <v>2.0660203761487684E-3</v>
+        <v>1.7307980733117249E-3</v>
       </c>
       <c r="E92">
-        <v>6.2060050000949877E-4</v>
+        <v>5.7503291546387176E-4</v>
       </c>
       <c r="F92">
-        <v>-5.7235675859386903E-4</v>
+        <v>-5.6773216195124207E-4</v>
       </c>
       <c r="G92">
-        <v>-8.0895559333425839E-5</v>
+        <v>-4.3865723469867897E-5</v>
       </c>
       <c r="H92">
-        <v>-1.8581490471582098E-5</v>
+        <v>-1.1363601962550389E-5</v>
       </c>
       <c r="I92">
-        <v>1.0150548845511143E-5</v>
+        <v>8.8078248229158826E-6</v>
       </c>
       <c r="J92">
-        <v>-3.156478701646432E-4</v>
+        <v>-2.9764338439999322E-4</v>
       </c>
       <c r="K92">
-        <v>-6.4561608836610773E-5</v>
+        <v>-7.0092063835721803E-5</v>
       </c>
       <c r="L92">
-        <v>3.2128881460221269E-5</v>
+        <v>1.6342684265041439E-5</v>
       </c>
       <c r="M92">
-        <v>1.1723405350785556E-4</v>
+        <v>8.6589295160658861E-5</v>
       </c>
       <c r="N92">
-        <v>2.6647908321988626E-5</v>
+        <v>2.4179307308802578E-5</v>
       </c>
       <c r="O92">
-        <v>-1.5179244859892589E-5</v>
+        <v>-1.0367276115092393E-5</v>
       </c>
       <c r="P92">
-        <v>2.1314251565698192E-2</v>
+        <v>1.0004865895931712E-2</v>
       </c>
       <c r="Q92">
-        <v>1.79696886069949E-2</v>
+        <v>8.0241012712979013E-3</v>
       </c>
       <c r="R92">
-        <v>2.6292271068182388E-3</v>
+        <v>1.4190894425549403E-3</v>
       </c>
       <c r="S92">
-        <v>8.84275517443066E-5</v>
+        <v>5.0555368035052337E-5</v>
       </c>
       <c r="T92">
-        <v>2.0160423323460169E-5</v>
+        <v>1.3551219094150342E-5</v>
       </c>
       <c r="U92">
-        <v>-1.1375204345687173E-5</v>
+        <v>-6.7978617237355159E-6</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-6.7720643086540314E-5</v>
+        <v>-1.8614367508351976E-4</v>
       </c>
       <c r="B93">
-        <v>-7.7918412211892056E-7</v>
+        <v>-3.9866901623265402E-5</v>
       </c>
       <c r="C93">
-        <v>-3.8418247463793222E-5</v>
+        <v>-1.4820567321698023E-4</v>
       </c>
       <c r="D93">
-        <v>2.0231787135859885E-3</v>
+        <v>1.6991678920109622E-3</v>
       </c>
       <c r="E93">
-        <v>6.074884767892641E-4</v>
+        <v>5.6466797470444187E-4</v>
       </c>
       <c r="F93">
-        <v>-5.6024633974042593E-4</v>
+        <v>-5.5734440875807717E-4</v>
       </c>
       <c r="G93">
-        <v>-7.5961230700761893E-5</v>
+        <v>-4.0375929047073355E-5</v>
       </c>
       <c r="H93">
-        <v>-1.7458113036982069E-5</v>
+        <v>-1.0509922836439144E-5</v>
       </c>
       <c r="I93">
-        <v>9.5215276598540708E-6</v>
+        <v>8.1631365405364165E-6</v>
       </c>
       <c r="J93">
-        <v>-2.9691000705363752E-4</v>
+        <v>-2.7768865237005994E-4</v>
       </c>
       <c r="K93">
-        <v>-6.0682893026304312E-5</v>
+        <v>-6.5354129161245513E-5</v>
       </c>
       <c r="L93">
-        <v>3.0120275770761928E-5</v>
+        <v>1.4983834609374469E-5</v>
       </c>
       <c r="M93">
-        <v>1.1010577849599222E-4</v>
+        <v>8.0140548662750122E-5</v>
       </c>
       <c r="N93">
-        <v>2.504026788375925E-5</v>
+        <v>2.2437215947871563E-5</v>
       </c>
       <c r="O93">
-        <v>-1.4260502261868405E-5</v>
+        <v>-9.6471193427432354E-6</v>
       </c>
       <c r="P93">
-        <v>2.083873639218629E-2</v>
+        <v>9.7843528301304918E-3</v>
       </c>
       <c r="Q93">
-        <v>1.7561000072061222E-2</v>
+        <v>7.8586553566679443E-3</v>
       </c>
       <c r="R93">
-        <v>2.5672357203556343E-3</v>
+        <v>1.3791696827157418E-3</v>
       </c>
       <c r="S93">
-        <v>8.3060909458532173E-5</v>
+        <v>4.6827811304853537E-5</v>
       </c>
       <c r="T93">
-        <v>1.8947357700977501E-5</v>
+        <v>1.2591662137616692E-5</v>
       </c>
       <c r="U93">
-        <v>-1.0683442537980556E-5</v>
+        <v>-6.3164943331628362E-6</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-5.8968592726101519E-5</v>
+        <v>-1.7320350749418242E-4</v>
       </c>
       <c r="B94">
-        <v>8.1774247996503465E-7</v>
+        <v>-3.6615573861862951E-5</v>
       </c>
       <c r="C94">
-        <v>-3.7028554309401526E-5</v>
+        <v>-1.4181639901930903E-4</v>
       </c>
       <c r="D94">
-        <v>1.9811253132710422E-3</v>
+        <v>1.6681629901224479E-3</v>
       </c>
       <c r="E94">
-        <v>5.9463428134221008E-4</v>
+        <v>5.5451074052381385E-4</v>
       </c>
       <c r="F94">
-        <v>-5.4838416787114956E-4</v>
+        <v>-5.4717369697914126E-4</v>
       </c>
       <c r="G94">
-        <v>-7.1329643270575297E-5</v>
+        <v>-3.7164899316227206E-5</v>
       </c>
       <c r="H94">
-        <v>-1.6403254121678658E-5</v>
+        <v>-9.721162789510122E-6</v>
       </c>
       <c r="I94">
-        <v>8.9309458474986757E-6</v>
+        <v>7.5585284997321218E-6</v>
       </c>
       <c r="J94">
-        <v>-2.7929327889834415E-4</v>
+        <v>-2.5912214539754402E-4</v>
       </c>
       <c r="K94">
-        <v>-5.7039547396683009E-5</v>
+        <v>-6.0950398033982846E-5</v>
       </c>
       <c r="L94">
-        <v>2.823442641691148E-5</v>
+        <v>1.3713177037659412E-5</v>
       </c>
       <c r="M94">
-        <v>1.0341015404701103E-4</v>
+        <v>7.4174388658582963E-5</v>
       </c>
       <c r="N94">
-        <v>2.353002970792131E-5</v>
+        <v>2.0821826210859483E-5</v>
       </c>
       <c r="O94">
-        <v>-1.3394661396961797E-5</v>
+        <v>-8.9673572938466144E-6</v>
       </c>
       <c r="P94">
-        <v>2.0373398714011018E-2</v>
+        <v>9.569969533294833E-3</v>
       </c>
       <c r="Q94">
-        <v>1.7161553451717451E-2</v>
+        <v>7.697640424793273E-3</v>
       </c>
       <c r="R94">
-        <v>2.5067771490866228E-3</v>
+        <v>1.3406867022207455E-3</v>
       </c>
       <c r="S94">
-        <v>7.8020285640140801E-5</v>
+        <v>4.337830880596551E-5</v>
       </c>
       <c r="T94">
-        <v>1.7807732712359235E-5</v>
+        <v>1.1701103522864084E-5</v>
       </c>
       <c r="U94">
-        <v>-1.003212765186988E-5</v>
+        <v>-5.863993595293263E-6</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-5.078966451503112E-5</v>
+        <v>-1.6097519227310287E-4</v>
       </c>
       <c r="B95">
-        <v>2.2928206106991803E-6</v>
+        <v>-3.3551138354195001E-5</v>
       </c>
       <c r="C95">
-        <v>-3.5746423203981197E-5</v>
+        <v>-1.3576860130734352E-4</v>
       </c>
       <c r="D95">
-        <v>1.9398524077032858E-3</v>
+        <v>1.6377728538105847E-3</v>
       </c>
       <c r="E95">
-        <v>5.8203417599387046E-4</v>
+        <v>5.4455732182258809E-4</v>
       </c>
       <c r="F95">
-        <v>-5.3676577669628826E-4</v>
+        <v>-5.3721519973804117E-4</v>
       </c>
       <c r="G95">
-        <v>-6.6982276102800498E-5</v>
+        <v>-3.4211037342045514E-5</v>
       </c>
       <c r="H95">
-        <v>-1.5412719131549205E-5</v>
+        <v>-8.9924693979424679E-6</v>
       </c>
       <c r="I95">
-        <v>8.3765512735466269E-6</v>
+        <v>6.9923092456449151E-6</v>
       </c>
       <c r="J95">
-        <v>-2.6273081430788151E-4</v>
+        <v>-2.418468822357424E-4</v>
       </c>
       <c r="K95">
-        <v>-5.3617234656460562E-5</v>
+        <v>-5.6856992393653656E-5</v>
       </c>
       <c r="L95">
-        <v>2.6464299671686347E-5</v>
+        <v>1.2527491599383695E-5</v>
       </c>
       <c r="M95">
-        <v>9.7121423932046267E-5</v>
+        <v>6.8655694483260422E-5</v>
       </c>
       <c r="N95">
-        <v>2.2111333273733269E-5</v>
+        <v>1.9324103308308821E-5</v>
       </c>
       <c r="O95">
-        <v>-1.2579066390473583E-5</v>
+        <v>-8.3268827530057008E-6</v>
       </c>
       <c r="P95">
-        <v>1.9918050081257316E-2</v>
+        <v>9.3615297013497391E-3</v>
       </c>
       <c r="Q95">
-        <v>1.6771145146694477E-2</v>
+        <v>7.5409168854978096E-3</v>
       </c>
       <c r="R95">
-        <v>2.4478099354369545E-3</v>
+        <v>1.3035765207617769E-3</v>
       </c>
       <c r="S95">
-        <v>7.3286153437675708E-5</v>
+        <v>4.0186493641267062E-5</v>
       </c>
       <c r="T95">
-        <v>1.6737117857175871E-5</v>
+        <v>1.0874631177844358E-5</v>
       </c>
       <c r="U95">
-        <v>-9.4191351690839665E-6</v>
+        <v>-5.4392375533231428E-6</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-4.3153284551079705E-5</v>
+        <v>-1.494229343239173E-4</v>
       </c>
       <c r="B96">
-        <v>3.6531851681262693E-6</v>
+        <v>-3.0663794249423989E-5</v>
       </c>
       <c r="C96">
-        <v>-3.4560928388278127E-5</v>
+        <v>-1.3004107424114761E-4</v>
       </c>
       <c r="D96">
-        <v>1.8993518133701981E-3</v>
+        <v>1.6079869242445798E-3</v>
       </c>
       <c r="E96">
-        <v>5.6968438357944836E-4</v>
+        <v>5.3480385235414965E-4</v>
       </c>
       <c r="F96">
-        <v>-5.2538673901400242E-4</v>
+        <v>-5.274641932925591E-4</v>
       </c>
       <c r="G96">
-        <v>-6.2901719859392242E-5</v>
+        <v>-3.1494301732779563E-5</v>
       </c>
       <c r="H96">
-        <v>-1.4482569041432106E-5</v>
+        <v>-8.3193338623699378E-6</v>
       </c>
       <c r="I96">
-        <v>7.8562102253469188E-6</v>
+        <v>6.4627558686306378E-6</v>
       </c>
       <c r="J96">
-        <v>-2.471596299672665E-4</v>
+        <v>-2.2577236009817473E-4</v>
       </c>
       <c r="K96">
-        <v>-5.0402484512052708E-5</v>
+        <v>-5.3051693659869694E-5</v>
       </c>
       <c r="L96">
-        <v>2.4803197690492773E-5</v>
+        <v>1.1423330393390353E-5</v>
       </c>
       <c r="M96">
-        <v>9.1215281391529882E-5</v>
+        <v>6.3551721185978343E-5</v>
       </c>
       <c r="N96">
-        <v>2.0778660588286851E-5</v>
+        <v>1.7935618470953531E-5</v>
       </c>
       <c r="O96">
-        <v>-1.1811139644102298E-5</v>
+        <v>-7.7244481728490548E-6</v>
       </c>
       <c r="P96">
-        <v>1.9472503616938888E-2</v>
+        <v>9.1588518984378944E-3</v>
       </c>
       <c r="Q96">
-        <v>1.6389575666305667E-2</v>
+        <v>7.3883498112350893E-3</v>
       </c>
       <c r="R96">
-        <v>2.3902938806594468E-3</v>
+        <v>1.2677785202467001E-3</v>
       </c>
       <c r="S96">
-        <v>6.8840104372087157E-5</v>
+        <v>3.7233406302888484E-5</v>
       </c>
       <c r="T96">
-        <v>1.5731344109198237E-5</v>
+        <v>1.0107667220499955E-5</v>
       </c>
       <c r="U96">
-        <v>-8.8424185570374411E-6</v>
+        <v>-5.0410659008542118E-6</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-3.6030193777230541E-5</v>
+        <v>-1.3851249347110413E-4</v>
       </c>
       <c r="B97">
-        <v>4.9056176708398942E-6</v>
+        <v>-2.7944203291610595E-5</v>
       </c>
       <c r="C97">
-        <v>-3.3462246296442652E-5</v>
+        <v>-1.2461408426831078E-4</v>
       </c>
       <c r="D97">
-        <v>1.8596149749613557E-3</v>
+        <v>1.5787946202742414E-3</v>
       </c>
       <c r="E97">
-        <v>5.5758109581988125E-4</v>
+        <v>5.2524649519693786E-4</v>
       </c>
       <c r="F97">
-        <v>-5.1424266909054646E-4</v>
+        <v>-5.1791605509527675E-4</v>
       </c>
       <c r="G97">
-        <v>-5.9071613595985793E-5</v>
+        <v>-2.8996109892582516E-5</v>
       </c>
       <c r="H97">
-        <v>-1.360910512804292E-5</v>
+        <v>-7.6975692831864661E-6</v>
       </c>
       <c r="I97">
-        <v>7.3679030130952624E-6</v>
+        <v>5.9681326525933592E-6</v>
       </c>
       <c r="J97">
-        <v>-2.3252042164122343E-4</v>
+        <v>-2.1081417521765289E-4</v>
       </c>
       <c r="K97">
-        <v>-4.7382642757819328E-5</v>
+        <v>-4.9513837175522318E-5</v>
       </c>
       <c r="L97">
-        <v>2.324475229067671E-5</v>
+        <v>1.0397086983280346E-5</v>
       </c>
       <c r="M97">
-        <v>8.5668799311415064E-5</v>
+        <v>5.8831962703612208E-5</v>
       </c>
       <c r="N97">
-        <v>1.9526817725058611E-5</v>
+        <v>1.6648513609482941E-5</v>
       </c>
       <c r="O97">
-        <v>-1.1088388304103525E-5</v>
+        <v>-7.1586993446816548E-6</v>
       </c>
       <c r="P97">
-        <v>1.9036574137719739E-2</v>
+        <v>8.9617595508784641E-3</v>
       </c>
       <c r="Q97">
-        <v>1.601664956923466E-2</v>
+        <v>7.2398087924796482E-3</v>
       </c>
       <c r="R97">
-        <v>2.3341900073536748E-3</v>
+        <v>1.2332352539815876E-3</v>
       </c>
       <c r="S97">
-        <v>6.4664791600783149E-5</v>
+        <v>3.4501409133443115E-5</v>
       </c>
       <c r="T97">
-        <v>1.4786489426087278E-5</v>
+        <v>9.3959475100989308E-6</v>
       </c>
       <c r="U97">
-        <v>-8.3000115126038078E-6</v>
+        <v>-4.6682956001145976E-6</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-2.9392418612340778E-5</v>
+        <v>-1.2821114421404417E-4</v>
       </c>
       <c r="B98">
-        <v>6.0565592833492253E-6</v>
+        <v>-2.5383473469143982E-5</v>
       </c>
       <c r="C98">
-        <v>-3.2441549400371215E-5</v>
+        <v>-1.1946926024732146E-4</v>
       </c>
       <c r="D98">
-        <v>1.8206330066119986E-3</v>
+        <v>1.5501853590808373E-3</v>
       </c>
       <c r="E98">
-        <v>5.4572048106215569E-4</v>
+        <v>5.1588144676236326E-4</v>
       </c>
       <c r="F98">
-        <v>-5.0332922485838794E-4</v>
+        <v>-5.0856626193373296E-4</v>
       </c>
       <c r="G98">
-        <v>-5.5476584646835863E-5</v>
+        <v>-2.6699245391293504E-5</v>
       </c>
       <c r="H98">
-        <v>-1.2788854570104183E-5</v>
+        <v>-7.1232899865205008E-6</v>
       </c>
       <c r="I98">
-        <v>6.9097194645737246E-6</v>
+        <v>5.5067068419508858E-6</v>
       </c>
       <c r="J98">
-        <v>-2.1875736389709299E-4</v>
+        <v>-1.9689365826967961E-4</v>
       </c>
       <c r="K98">
-        <v>-4.4545823119764481E-5</v>
+        <v>-4.622421200767692E-5</v>
       </c>
       <c r="L98">
-        <v>2.1782917134135122E-5</v>
+        <v>9.4450555636793614E-6</v>
       </c>
       <c r="M98">
-        <v>8.0460362121479204E-5</v>
+        <v>5.4468019882863823E-5</v>
       </c>
       <c r="N98">
-        <v>1.8350917133899999E-5</v>
+        <v>1.5455467344340463E-5</v>
       </c>
       <c r="O98">
-        <v>-1.0408408879663482E-5</v>
+        <v>-6.628204323257947E-6</v>
       </c>
       <c r="P98">
-        <v>1.8610078264356837E-2</v>
+        <v>8.7700809269726909E-3</v>
       </c>
       <c r="Q98">
-        <v>1.565217540374287E-2</v>
+        <v>7.0951677960795871E-3</v>
       </c>
       <c r="R98">
-        <v>2.2794605220503952E-3</v>
+        <v>1.1998922660781482E-3</v>
       </c>
       <c r="S98">
-        <v>6.0743875046336766E-5</v>
+        <v>3.1974104502292225E-5</v>
       </c>
       <c r="T98">
-        <v>1.3898864926728846E-5</v>
+        <v>8.7355021531371991E-6</v>
       </c>
       <c r="U98">
-        <v>-7.790029160743068E-6</v>
+        <v>-4.3197341118705882E-6</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-2.3213239068459795E-5</v>
+        <v>-1.1848763313876758E-4</v>
       </c>
       <c r="B99">
-        <v>7.1121238211451712E-6</v>
+        <v>-2.2973142594019232E-5</v>
       </c>
       <c r="C99">
-        <v>-3.149090985396816E-5</v>
+        <v>-1.1458949203788014E-4</v>
       </c>
       <c r="D99">
-        <v>1.7823967303425897E-3</v>
+        <v>1.5221485749424093E-3</v>
       </c>
       <c r="E99">
-        <v>5.3409869142399347E-4</v>
+        <v>5.067049403715369E-4</v>
       </c>
       <c r="F99">
-        <v>-4.9264210993530766E-4</v>
+        <v>-4.9941038813635307E-4</v>
       </c>
       <c r="G99">
-        <v>-5.2102191522851449E-5</v>
+        <v>-2.4587769537222875E-5</v>
       </c>
       <c r="H99">
-        <v>-1.2018556873648488E-5</v>
+        <v>-6.5928918917349378E-6</v>
       </c>
       <c r="I99">
-        <v>6.4798543675803622E-6</v>
+        <v>5.0767618635954342E-6</v>
       </c>
       <c r="J99">
-        <v>-2.05817918565702E-4</v>
+        <v>-1.8393752512505681E-4</v>
       </c>
       <c r="K99">
-        <v>-4.1880861738717736E-5</v>
+        <v>-4.3164966014413205E-5</v>
       </c>
       <c r="L99">
-        <v>2.0411958674483434E-5</v>
+        <v>8.5634810723300695E-6</v>
       </c>
       <c r="M99">
-        <v>7.5569599635221747E-5</v>
+        <v>5.0433473611538764E-5</v>
       </c>
       <c r="N99">
-        <v>1.7246360723841311E-5</v>
+        <v>1.4349662451731097E-5</v>
       </c>
       <c r="O99">
-        <v>-9.7688903107042956E-6</v>
+        <v>-6.1314781653422555E-6</v>
       </c>
       <c r="P99">
-        <v>1.8192834522266572E-2</v>
+        <v>8.5836491040906116E-3</v>
       </c>
       <c r="Q99">
-        <v>1.529596564739006E-2</v>
+        <v>6.954305026623228E-3</v>
       </c>
       <c r="R99">
-        <v>2.2260687780759686E-3</v>
+        <v>1.1676979207035356E-3</v>
       </c>
       <c r="S99">
-        <v>5.7061968482652325E-5</v>
+        <v>2.9636256736053873E-5</v>
       </c>
       <c r="T99">
-        <v>1.3065001726264569E-5</v>
+        <v>8.1226369592617746E-6</v>
       </c>
       <c r="U99">
-        <v>-7.3106683885369878E-6</v>
+        <v>-3.9941905261147479E-6</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-1.746715484743058E-5</v>
+        <v>-1.0931213452850815E-4</v>
       </c>
       <c r="B100">
-        <v>8.0781106701868476E-6</v>
+        <v>-2.0705161908326023E-5</v>
       </c>
       <c r="C100">
-        <v>-3.0603212066690785E-5</v>
+        <v>-1.0995883690808457E-4</v>
       </c>
       <c r="D100">
-        <v>1.7448967118547376E-3</v>
+        <v>1.4946737362436682E-3</v>
       </c>
       <c r="E100">
-        <v>5.2271186938099594E-4</v>
+        <v>4.9771324943341294E-4</v>
       </c>
       <c r="F100">
-        <v>-4.8217707546573579E-4</v>
+        <v>-4.9044410383228981E-4</v>
       </c>
       <c r="G100">
-        <v>-4.8934869734945037E-5</v>
+        <v>-2.264693718894912E-5</v>
       </c>
       <c r="H100">
-        <v>-1.1295151078715025E-5</v>
+        <v>-6.1030339055635957E-6</v>
       </c>
       <c r="I100">
-        <v>6.0766029047106445E-6</v>
+        <v>4.6766083066776938E-6</v>
       </c>
       <c r="J100">
-        <v>-1.9365265188474467E-4</v>
+        <v>-1.7187754319481131E-4</v>
       </c>
       <c r="K100">
-        <v>-3.9377274176941343E-5</v>
+        <v>-4.0319516058788806E-5</v>
       </c>
       <c r="L100">
-        <v>1.9126446171962514E-5</v>
+        <v>7.7486013224735221E-6</v>
       </c>
       <c r="M100">
-        <v>7.0977322999074869E-5</v>
+        <v>4.6703763234651671E-5</v>
       </c>
       <c r="N100">
-        <v>1.6208823714071298E-5</v>
+        <v>1.3324754752226703E-5</v>
       </c>
       <c r="O100">
-        <v>-9.1676157424398005E-6</v>
+        <v>-5.6670039807699925E-6</v>
       </c>
       <c r="P100">
-        <v>1.7784663432636145E-2</v>
+        <v>8.4023019243974068E-3</v>
       </c>
       <c r="Q100">
-        <v>1.4947836646359125E-2</v>
+        <v>6.8171027908669616E-3</v>
       </c>
       <c r="R100">
-        <v>2.1739792388716251E-3</v>
+        <v>1.1366032407788378E-3</v>
       </c>
       <c r="S100">
-        <v>5.3604588640577942E-5</v>
+        <v>2.7473717808288763E-5</v>
       </c>
       <c r="T100">
-        <v>1.2281638413954207E-5</v>
+        <v>7.5539158366964644E-6</v>
       </c>
       <c r="U100">
-        <v>-6.8602074683300612E-6</v>
+        <v>-3.6904848504708859E-6</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-1.2129849856533524E-5</v>
+        <v>-1.0065620465321651E-4</v>
       </c>
       <c r="B101">
-        <v>8.9600175658584771E-6</v>
+        <v>-1.8571879800996425E-5</v>
       </c>
       <c r="C101">
-        <v>-2.9772073409644546E-5</v>
+        <v>-1.0556243315624452E-4</v>
       </c>
       <c r="D101">
-        <v>1.7081232938350609E-3</v>
+        <v>1.4677503608551046E-3</v>
       </c>
       <c r="E101">
-        <v>5.1155615383139763E-4</v>
+        <v>4.8890269025401425E-4</v>
       </c>
       <c r="F101">
-        <v>-4.7192992179102681E-4</v>
+        <v>-4.8166317325567122E-4</v>
       </c>
       <c r="G101">
-        <v>-4.596188044616836E-5</v>
+        <v>-2.0863116799732595E-5</v>
       </c>
       <c r="H101">
-        <v>-1.0615763707965008E-5</v>
+        <v>-5.6506203204139837E-6</v>
       </c>
       <c r="I101">
-        <v>5.6983561163385472E-6</v>
+        <v>4.3045929318458981E-6</v>
       </c>
       <c r="J101">
-        <v>-1.8221506020938479E-4</v>
+        <v>-1.6065021345973462E-4</v>
       </c>
       <c r="K101">
-        <v>-3.7025214834636909E-5</v>
+        <v>-3.7672463229729838E-5</v>
       </c>
       <c r="L101">
-        <v>1.7921241031424203E-5</v>
+        <v>6.9966821198486071E-6</v>
       </c>
       <c r="M101">
-        <v>6.6665462871546348E-5</v>
+        <v>4.3256070358951454E-5</v>
       </c>
       <c r="N101">
-        <v>1.5234239243556837E-5</v>
+        <v>1.2374843452345502E-5</v>
       </c>
       <c r="O101">
-        <v>-8.6024632268884762E-6</v>
+        <v>-5.2332507410625596E-6</v>
       </c>
       <c r="P101">
-        <v>1.7385387594512604E-2</v>
+        <v>8.2258819405032352E-3</v>
       </c>
       <c r="Q101">
-        <v>1.4607608554474509E-2</v>
+        <v>6.683447365265033E-3</v>
       </c>
       <c r="R101">
-        <v>2.1231574419110621E-3</v>
+        <v>1.1065617557261184E-3</v>
       </c>
       <c r="S101">
-        <v>5.0358106369626419E-5</v>
+        <v>2.5473356758832618E-5</v>
       </c>
       <c r="T101">
-        <v>1.1545709157129775E-5</v>
+        <v>7.0261441093848784E-6</v>
       </c>
       <c r="U101">
-        <v>-6.4370051012476971E-6</v>
+        <v>-3.4074556859480561E-6</v>
       </c>
     </row>
   </sheetData>
